--- a/开发和测试过程数据统计对照表.xlsx
+++ b/开发和测试过程数据统计对照表.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Study\北京航空航天大学\助教\PPT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhy/Desktop/Study/大三下/软件工程/Team109/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6488B1F-7460-425D-B552-77E3936520C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="对照表" sheetId="1" r:id="rId1"/>
@@ -18,8 +17,14 @@
     <sheet name="commit统计表" sheetId="2" r:id="rId3"/>
     <sheet name="测试统计表" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -30,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="97">
   <si>
     <t>Github账户</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -211,21 +216,247 @@
   </si>
   <si>
     <t>追踪到其他几个数据表所列出的统计数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周环宇</t>
+    <rPh sb="0" eb="1">
+      <t>z h y</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhysora</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周环宇</t>
+    <rPh sb="0" eb="1">
+      <t>zhou huan yu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫地模块实现</t>
+    <rPh sb="0" eb="1">
+      <t>sao di</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mo kuai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi xian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入扫地模块（版本1）的源代码</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>周环宇</t>
+    <rPh sb="0" eb="1">
+      <t>zhou huan yu</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">450 additions and 0 deletions. </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0970393</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d6624af</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>两种遍历模式：绕圈型与之字型；清扫强度等级；语音控制停止与继续</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>525 additions and 85 deletions.</t>
+  </si>
+  <si>
+    <t>33a17a9</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫地模块：输出改为ROS_INFO，test_dfs调试出错误</t>
+  </si>
+  <si>
+    <t>136 additions and 236 deletions.</t>
+  </si>
+  <si>
+    <t>3196a82</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少遇到地图边界时的迂回时间，新增订阅/rosout的回调函数，收到log中err级别的信息时即可判断为plan failed</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>31 additions and 12 deletions.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>8e95d88</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫地模块新增统计面积、距离、时间，写入文件~/catkin_ws/clean.out中，格式为%lf %lf %d。提交总体的launch</t>
+  </si>
+  <si>
+    <t>200 additions and 2 deletions.</t>
+  </si>
+  <si>
+    <t>889d0b0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>调大了扫地初始化的延时等待。新增core_109，核心依赖launch core_109.launch</t>
+  </si>
+  <si>
+    <t>303 additions and 5 deletions.</t>
+  </si>
+  <si>
+    <t>ff4b568</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>消除rosrun指令，各个模块只留launch</t>
+  </si>
+  <si>
+    <t>3,769 additions and 4,696 deletions.</t>
+  </si>
+  <si>
+    <t>f1e13a5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加test_dfs.out测试结果</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>237 additions and 0 deletions.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2c9ed2e</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增单元测试用例test_rosout，test_over</t>
+  </si>
+  <si>
+    <t>92 additions and 23 deletions</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5e7f721</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>331 additions and 23 deletions.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于新增的测试用例test_rosout,test_over,新增描述与结果.out</t>
+    <rPh sb="31" eb="32">
+      <t>xin zeng</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>miao shu</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>jie guo</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>013</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>014</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫地时进行路径规划，测试扫地模块的函数dfs()</t>
+  </si>
+  <si>
+    <t>通过语音识别控制机器人停止或重新开始,测试扫地模块的函数voiceCB()</t>
+  </si>
+  <si>
+    <t>扫地时对于地图边界的判定, 测试扫地模块的函数over()</t>
+  </si>
+  <si>
+    <t>扫地时对于日志中报错信息的检测, 测试扫地模块的函数rosoutCB()</t>
+  </si>
+  <si>
+    <t>扫地功能完整流程</t>
+  </si>
+  <si>
+    <t>符合预期</t>
+    <rPh sb="0" eb="1">
+      <t>fu he</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yu qi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器人会基本按照对应的mode和level行走，但路径存在偏差。机器人整体运行过程中基本会躲避障碍物（包括静态的以及动态的），但有些障碍物无法躲避。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，2，3，4，5，6，7，8，9，10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，2，3，4，5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -306,6 +537,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -315,7 +553,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -414,13 +652,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -439,12 +690,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -487,51 +732,30 @@
     <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -541,13 +765,91 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -851,131 +1153,137 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P215"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" style="54" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="54" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" style="54" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="11" style="1" customWidth="1"/>
     <col min="12" max="12" width="10.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.25" style="1" customWidth="1"/>
-    <col min="14" max="16" width="12.875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.625" style="1"/>
+    <col min="13" max="13" width="11.1640625" style="1" customWidth="1"/>
+    <col min="14" max="16" width="12.83203125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:16" ht="23" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:16" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="13" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+    </row>
+    <row r="3" spans="1:16" ht="18" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:16" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="24"/>
-      <c r="B5" s="13" t="s">
+      <c r="B3" s="31">
+        <v>109</v>
+      </c>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+    </row>
+    <row r="4" spans="1:16" ht="17" x14ac:dyDescent="0.15">
+      <c r="A4" s="6"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+    </row>
+    <row r="5" spans="1:16" ht="18" x14ac:dyDescent="0.15">
+      <c r="A5" s="20"/>
+      <c r="B5" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:16" ht="18" x14ac:dyDescent="0.15">
+      <c r="A6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-    </row>
-    <row r="7" spans="1:16" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="13" t="s">
+      <c r="B6" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+    </row>
+    <row r="7" spans="1:16" ht="18" x14ac:dyDescent="0.15">
+      <c r="A7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-    </row>
-    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B7" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+    </row>
+    <row r="8" spans="1:16" ht="17" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:16" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="19" t="s">
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+    </row>
+    <row r="9" spans="1:16" ht="18" x14ac:dyDescent="0.15">
+      <c r="A9" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="69" x14ac:dyDescent="0.15">
-      <c r="A10" s="19">
+    <row r="10" spans="1:16" ht="72" x14ac:dyDescent="0.15">
+      <c r="A10" s="17">
         <v>1</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="51" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="2"/>
@@ -991,11 +1299,19 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="19"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
+    <row r="11" spans="1:16" ht="36" x14ac:dyDescent="0.15">
+      <c r="A11" s="11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="59" t="s">
+        <v>96</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1009,11 +1325,13 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="19"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="27"/>
+    <row r="12" spans="1:16" ht="18" x14ac:dyDescent="0.15">
+      <c r="A12" s="11">
+        <v>2</v>
+      </c>
+      <c r="B12" s="59"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="59"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -1027,11 +1345,13 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="19"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
+    <row r="13" spans="1:16" ht="18" x14ac:dyDescent="0.15">
+      <c r="A13" s="11">
+        <v>3</v>
+      </c>
+      <c r="B13" s="59"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1045,11 +1365,13 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="19"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
+    <row r="14" spans="1:16" ht="18" x14ac:dyDescent="0.15">
+      <c r="A14" s="11">
+        <v>4</v>
+      </c>
+      <c r="B14" s="59"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1063,11 +1385,11 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="32"/>
+    <row r="15" spans="1:16" ht="18" x14ac:dyDescent="0.15">
+      <c r="A15" s="22"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="56"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1081,11 +1403,11 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="6"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="53"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1099,11 +1421,11 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="6"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="53"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1117,7 +1439,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -1129,15 +1451,15 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="1:16" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="36" t="s">
+    <row r="19" spans="1:16" ht="23" x14ac:dyDescent="0.15">
+      <c r="A19" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -1149,21 +1471,21 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="1:16" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="24"/>
-      <c r="B20" s="13" t="s">
+    <row r="20" spans="1:16" ht="18" x14ac:dyDescent="0.15">
+      <c r="A20" s="20"/>
+      <c r="B20" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="11" t="s">
         <v>4</v>
       </c>
       <c r="G20" s="2"/>
@@ -1177,15 +1499,15 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="1:16" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="13" t="s">
+    <row r="21" spans="1:16" ht="18" x14ac:dyDescent="0.15">
+      <c r="A21" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -1197,15 +1519,15 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="1:16" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A22" s="13" t="s">
+    <row r="22" spans="1:16" ht="18" x14ac:dyDescent="0.15">
+      <c r="A22" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -1217,11 +1539,11 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="6"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="53"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -1235,17 +1557,17 @@
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="1:16" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A24" s="13" t="s">
+    <row r="24" spans="1:16" ht="18" x14ac:dyDescent="0.15">
+      <c r="A24" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="42"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="27"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -1257,17 +1579,17 @@
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="1:16" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A25" s="13" t="s">
+    <row r="25" spans="1:16" ht="18" x14ac:dyDescent="0.15">
+      <c r="A25" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="42"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="27"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -1279,11 +1601,11 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -1297,11 +1619,11 @@
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -1315,11 +1637,11 @@
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
     </row>
-    <row r="28" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -1333,11 +1655,11 @@
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
     </row>
-    <row r="29" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -1351,11 +1673,11 @@
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
     </row>
-    <row r="30" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -1369,11 +1691,11 @@
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
     </row>
-    <row r="31" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -1387,11 +1709,11 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -1405,11 +1727,11 @@
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
     </row>
-    <row r="33" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -1423,11 +1745,11 @@
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
     </row>
-    <row r="34" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -1441,11 +1763,11 @@
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
     </row>
-    <row r="35" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -1459,11 +1781,11 @@
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
     </row>
-    <row r="36" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -1477,11 +1799,11 @@
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
     </row>
-    <row r="37" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -1495,11 +1817,11 @@
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
     </row>
-    <row r="38" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -1513,11 +1835,11 @@
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
     </row>
-    <row r="39" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -1531,11 +1853,11 @@
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
     </row>
-    <row r="40" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -1549,11 +1871,11 @@
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
     </row>
-    <row r="41" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="55"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -1567,11 +1889,11 @@
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
     </row>
-    <row r="42" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="55"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -1585,11 +1907,11 @@
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
     </row>
-    <row r="43" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="55"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -1603,11 +1925,11 @@
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
     </row>
-    <row r="44" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
+      <c r="B44" s="55"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="55"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -1621,11 +1943,11 @@
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
     </row>
-    <row r="45" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
+      <c r="B45" s="55"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="55"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -1639,11 +1961,11 @@
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
     </row>
-    <row r="46" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
+      <c r="B46" s="55"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="55"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -1657,11 +1979,11 @@
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
     </row>
-    <row r="47" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="55"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -1675,11 +1997,11 @@
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
     </row>
-    <row r="48" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
+      <c r="B48" s="55"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -1693,11 +2015,11 @@
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
     </row>
-    <row r="49" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
+      <c r="B49" s="55"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="55"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -1711,11 +2033,11 @@
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
     </row>
-    <row r="50" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
+      <c r="B50" s="55"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="55"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -1729,11 +2051,11 @@
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
     </row>
-    <row r="51" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
+      <c r="B51" s="55"/>
+      <c r="C51" s="55"/>
+      <c r="D51" s="55"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -1747,11 +2069,11 @@
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
     </row>
-    <row r="52" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
+      <c r="B52" s="55"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="55"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -1765,11 +2087,11 @@
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
     </row>
-    <row r="53" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
+      <c r="B53" s="55"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="55"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -1783,11 +2105,11 @@
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
     </row>
-    <row r="54" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
+      <c r="B54" s="55"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="55"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -1801,11 +2123,11 @@
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
     </row>
-    <row r="55" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
+      <c r="B55" s="55"/>
+      <c r="C55" s="55"/>
+      <c r="D55" s="55"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -1819,11 +2141,11 @@
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
     </row>
-    <row r="56" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="55"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -1837,11 +2159,11 @@
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
     </row>
-    <row r="57" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="55"/>
+      <c r="D57" s="55"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
@@ -1855,11 +2177,11 @@
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
     </row>
-    <row r="58" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
+      <c r="B58" s="55"/>
+      <c r="C58" s="55"/>
+      <c r="D58" s="55"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -1873,11 +2195,11 @@
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
     </row>
-    <row r="59" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
+      <c r="B59" s="55"/>
+      <c r="C59" s="55"/>
+      <c r="D59" s="55"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
@@ -1891,11 +2213,11 @@
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
     </row>
-    <row r="60" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
+      <c r="B60" s="55"/>
+      <c r="C60" s="55"/>
+      <c r="D60" s="55"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
@@ -1909,11 +2231,11 @@
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
     </row>
-    <row r="61" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
+      <c r="B61" s="55"/>
+      <c r="C61" s="55"/>
+      <c r="D61" s="55"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
@@ -1927,11 +2249,11 @@
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
     </row>
-    <row r="62" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
+      <c r="B62" s="55"/>
+      <c r="C62" s="55"/>
+      <c r="D62" s="55"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
@@ -1945,11 +2267,11 @@
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
     </row>
-    <row r="63" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
+      <c r="B63" s="55"/>
+      <c r="C63" s="55"/>
+      <c r="D63" s="55"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
@@ -1963,11 +2285,11 @@
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
     </row>
-    <row r="64" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
+      <c r="B64" s="55"/>
+      <c r="C64" s="55"/>
+      <c r="D64" s="55"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
@@ -1981,11 +2303,11 @@
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
     </row>
-    <row r="65" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
+      <c r="B65" s="55"/>
+      <c r="C65" s="55"/>
+      <c r="D65" s="55"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
@@ -1999,11 +2321,11 @@
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
     </row>
-    <row r="66" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
+      <c r="B66" s="55"/>
+      <c r="C66" s="55"/>
+      <c r="D66" s="55"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
@@ -2017,11 +2339,11 @@
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
     </row>
-    <row r="67" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
+      <c r="B67" s="55"/>
+      <c r="C67" s="55"/>
+      <c r="D67" s="55"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
@@ -2035,11 +2357,11 @@
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
     </row>
-    <row r="68" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
+      <c r="B68" s="55"/>
+      <c r="C68" s="55"/>
+      <c r="D68" s="55"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
@@ -2053,11 +2375,11 @@
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
     </row>
-    <row r="69" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
+      <c r="B69" s="55"/>
+      <c r="C69" s="55"/>
+      <c r="D69" s="55"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
@@ -2071,11 +2393,11 @@
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
     </row>
-    <row r="70" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
+      <c r="B70" s="55"/>
+      <c r="C70" s="55"/>
+      <c r="D70" s="55"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
@@ -2089,11 +2411,11 @@
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
     </row>
-    <row r="71" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
+      <c r="B71" s="55"/>
+      <c r="C71" s="55"/>
+      <c r="D71" s="55"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
@@ -2107,11 +2429,11 @@
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
     </row>
-    <row r="72" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
+      <c r="B72" s="55"/>
+      <c r="C72" s="55"/>
+      <c r="D72" s="55"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
@@ -2125,11 +2447,11 @@
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
     </row>
-    <row r="73" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
+      <c r="B73" s="55"/>
+      <c r="C73" s="55"/>
+      <c r="D73" s="55"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
@@ -2143,11 +2465,11 @@
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
     </row>
-    <row r="74" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
+      <c r="B74" s="55"/>
+      <c r="C74" s="55"/>
+      <c r="D74" s="55"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
@@ -2161,11 +2483,11 @@
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
     </row>
-    <row r="75" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
+      <c r="B75" s="55"/>
+      <c r="C75" s="55"/>
+      <c r="D75" s="55"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
@@ -2179,11 +2501,11 @@
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
     </row>
-    <row r="76" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
+      <c r="B76" s="55"/>
+      <c r="C76" s="55"/>
+      <c r="D76" s="55"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
@@ -2197,11 +2519,11 @@
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
     </row>
-    <row r="77" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
+      <c r="B77" s="55"/>
+      <c r="C77" s="55"/>
+      <c r="D77" s="55"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
@@ -2215,11 +2537,11 @@
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
     </row>
-    <row r="78" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
+      <c r="B78" s="55"/>
+      <c r="C78" s="55"/>
+      <c r="D78" s="55"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
@@ -2233,11 +2555,11 @@
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
     </row>
-    <row r="79" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
+      <c r="B79" s="55"/>
+      <c r="C79" s="55"/>
+      <c r="D79" s="55"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
@@ -2251,11 +2573,11 @@
       <c r="O79" s="2"/>
       <c r="P79" s="2"/>
     </row>
-    <row r="80" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
+      <c r="B80" s="55"/>
+      <c r="C80" s="55"/>
+      <c r="D80" s="55"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
@@ -2269,11 +2591,11 @@
       <c r="O80" s="2"/>
       <c r="P80" s="2"/>
     </row>
-    <row r="81" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
+      <c r="B81" s="55"/>
+      <c r="C81" s="55"/>
+      <c r="D81" s="55"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
@@ -2287,11 +2609,11 @@
       <c r="O81" s="2"/>
       <c r="P81" s="2"/>
     </row>
-    <row r="82" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
+      <c r="B82" s="55"/>
+      <c r="C82" s="55"/>
+      <c r="D82" s="55"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
@@ -2305,11 +2627,11 @@
       <c r="O82" s="2"/>
       <c r="P82" s="2"/>
     </row>
-    <row r="83" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
+      <c r="B83" s="55"/>
+      <c r="C83" s="55"/>
+      <c r="D83" s="55"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
@@ -2323,11 +2645,11 @@
       <c r="O83" s="2"/>
       <c r="P83" s="2"/>
     </row>
-    <row r="84" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
+      <c r="B84" s="55"/>
+      <c r="C84" s="55"/>
+      <c r="D84" s="55"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
@@ -2341,11 +2663,11 @@
       <c r="O84" s="2"/>
       <c r="P84" s="2"/>
     </row>
-    <row r="85" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
+      <c r="B85" s="55"/>
+      <c r="C85" s="55"/>
+      <c r="D85" s="55"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
@@ -2359,11 +2681,11 @@
       <c r="O85" s="2"/>
       <c r="P85" s="2"/>
     </row>
-    <row r="86" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
+      <c r="B86" s="55"/>
+      <c r="C86" s="55"/>
+      <c r="D86" s="55"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
@@ -2377,11 +2699,11 @@
       <c r="O86" s="2"/>
       <c r="P86" s="2"/>
     </row>
-    <row r="87" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
+      <c r="B87" s="55"/>
+      <c r="C87" s="55"/>
+      <c r="D87" s="55"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
@@ -2395,11 +2717,11 @@
       <c r="O87" s="2"/>
       <c r="P87" s="2"/>
     </row>
-    <row r="88" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
+      <c r="B88" s="55"/>
+      <c r="C88" s="55"/>
+      <c r="D88" s="55"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
@@ -2413,11 +2735,11 @@
       <c r="O88" s="2"/>
       <c r="P88" s="2"/>
     </row>
-    <row r="89" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
+      <c r="B89" s="55"/>
+      <c r="C89" s="55"/>
+      <c r="D89" s="55"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
@@ -2431,11 +2753,11 @@
       <c r="O89" s="2"/>
       <c r="P89" s="2"/>
     </row>
-    <row r="90" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
+      <c r="B90" s="55"/>
+      <c r="C90" s="55"/>
+      <c r="D90" s="55"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
@@ -2449,11 +2771,11 @@
       <c r="O90" s="2"/>
       <c r="P90" s="2"/>
     </row>
-    <row r="91" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
+      <c r="B91" s="55"/>
+      <c r="C91" s="55"/>
+      <c r="D91" s="55"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
@@ -2467,11 +2789,11 @@
       <c r="O91" s="2"/>
       <c r="P91" s="2"/>
     </row>
-    <row r="92" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
+      <c r="B92" s="55"/>
+      <c r="C92" s="55"/>
+      <c r="D92" s="55"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
@@ -2485,11 +2807,11 @@
       <c r="O92" s="2"/>
       <c r="P92" s="2"/>
     </row>
-    <row r="93" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
+      <c r="B93" s="55"/>
+      <c r="C93" s="55"/>
+      <c r="D93" s="55"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
@@ -2503,11 +2825,11 @@
       <c r="O93" s="2"/>
       <c r="P93" s="2"/>
     </row>
-    <row r="94" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
+      <c r="B94" s="55"/>
+      <c r="C94" s="55"/>
+      <c r="D94" s="55"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
@@ -2521,11 +2843,11 @@
       <c r="O94" s="2"/>
       <c r="P94" s="2"/>
     </row>
-    <row r="95" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
+      <c r="B95" s="55"/>
+      <c r="C95" s="55"/>
+      <c r="D95" s="55"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
@@ -2539,11 +2861,11 @@
       <c r="O95" s="2"/>
       <c r="P95" s="2"/>
     </row>
-    <row r="96" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
+      <c r="B96" s="55"/>
+      <c r="C96" s="55"/>
+      <c r="D96" s="55"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
@@ -2557,11 +2879,11 @@
       <c r="O96" s="2"/>
       <c r="P96" s="2"/>
     </row>
-    <row r="97" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
+      <c r="B97" s="55"/>
+      <c r="C97" s="55"/>
+      <c r="D97" s="55"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
@@ -2575,11 +2897,11 @@
       <c r="O97" s="2"/>
       <c r="P97" s="2"/>
     </row>
-    <row r="98" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
+      <c r="B98" s="55"/>
+      <c r="C98" s="55"/>
+      <c r="D98" s="55"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
@@ -2593,11 +2915,11 @@
       <c r="O98" s="2"/>
       <c r="P98" s="2"/>
     </row>
-    <row r="99" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
+      <c r="B99" s="55"/>
+      <c r="C99" s="55"/>
+      <c r="D99" s="55"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
@@ -2611,11 +2933,11 @@
       <c r="O99" s="2"/>
       <c r="P99" s="2"/>
     </row>
-    <row r="100" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
+      <c r="B100" s="55"/>
+      <c r="C100" s="55"/>
+      <c r="D100" s="55"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
@@ -2629,11 +2951,11 @@
       <c r="O100" s="2"/>
       <c r="P100" s="2"/>
     </row>
-    <row r="101" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
+      <c r="B101" s="55"/>
+      <c r="C101" s="55"/>
+      <c r="D101" s="55"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
@@ -2647,11 +2969,11 @@
       <c r="O101" s="2"/>
       <c r="P101" s="2"/>
     </row>
-    <row r="102" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A102" s="2"/>
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
+      <c r="B102" s="55"/>
+      <c r="C102" s="55"/>
+      <c r="D102" s="55"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
@@ -2665,11 +2987,11 @@
       <c r="O102" s="2"/>
       <c r="P102" s="2"/>
     </row>
-    <row r="103" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
+      <c r="B103" s="55"/>
+      <c r="C103" s="55"/>
+      <c r="D103" s="55"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
@@ -2683,11 +3005,11 @@
       <c r="O103" s="2"/>
       <c r="P103" s="2"/>
     </row>
-    <row r="104" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A104" s="2"/>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
+      <c r="B104" s="55"/>
+      <c r="C104" s="55"/>
+      <c r="D104" s="55"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
@@ -2701,11 +3023,11 @@
       <c r="O104" s="2"/>
       <c r="P104" s="2"/>
     </row>
-    <row r="105" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A105" s="2"/>
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
+      <c r="B105" s="55"/>
+      <c r="C105" s="55"/>
+      <c r="D105" s="55"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
@@ -2719,11 +3041,11 @@
       <c r="O105" s="2"/>
       <c r="P105" s="2"/>
     </row>
-    <row r="106" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A106" s="2"/>
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
+      <c r="B106" s="55"/>
+      <c r="C106" s="55"/>
+      <c r="D106" s="55"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
@@ -2737,11 +3059,11 @@
       <c r="O106" s="2"/>
       <c r="P106" s="2"/>
     </row>
-    <row r="107" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A107" s="2"/>
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
+      <c r="B107" s="55"/>
+      <c r="C107" s="55"/>
+      <c r="D107" s="55"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
@@ -2755,11 +3077,11 @@
       <c r="O107" s="2"/>
       <c r="P107" s="2"/>
     </row>
-    <row r="108" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A108" s="2"/>
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
+      <c r="B108" s="55"/>
+      <c r="C108" s="55"/>
+      <c r="D108" s="55"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
@@ -2773,11 +3095,11 @@
       <c r="O108" s="2"/>
       <c r="P108" s="2"/>
     </row>
-    <row r="109" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A109" s="2"/>
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
+      <c r="B109" s="55"/>
+      <c r="C109" s="55"/>
+      <c r="D109" s="55"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
@@ -2791,11 +3113,11 @@
       <c r="O109" s="2"/>
       <c r="P109" s="2"/>
     </row>
-    <row r="110" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A110" s="2"/>
-      <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
+      <c r="B110" s="55"/>
+      <c r="C110" s="55"/>
+      <c r="D110" s="55"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
@@ -2809,11 +3131,11 @@
       <c r="O110" s="2"/>
       <c r="P110" s="2"/>
     </row>
-    <row r="111" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A111" s="2"/>
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
+      <c r="B111" s="55"/>
+      <c r="C111" s="55"/>
+      <c r="D111" s="55"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
@@ -2827,11 +3149,11 @@
       <c r="O111" s="2"/>
       <c r="P111" s="2"/>
     </row>
-    <row r="112" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A112" s="2"/>
-      <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
+      <c r="B112" s="55"/>
+      <c r="C112" s="55"/>
+      <c r="D112" s="55"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
@@ -2845,11 +3167,11 @@
       <c r="O112" s="2"/>
       <c r="P112" s="2"/>
     </row>
-    <row r="113" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A113" s="2"/>
-      <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
+      <c r="B113" s="55"/>
+      <c r="C113" s="55"/>
+      <c r="D113" s="55"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
@@ -2863,11 +3185,11 @@
       <c r="O113" s="2"/>
       <c r="P113" s="2"/>
     </row>
-    <row r="114" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A114" s="2"/>
-      <c r="B114" s="2"/>
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
+      <c r="B114" s="55"/>
+      <c r="C114" s="55"/>
+      <c r="D114" s="55"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
@@ -2881,11 +3203,11 @@
       <c r="O114" s="2"/>
       <c r="P114" s="2"/>
     </row>
-    <row r="115" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A115" s="2"/>
-      <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
+      <c r="B115" s="55"/>
+      <c r="C115" s="55"/>
+      <c r="D115" s="55"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
@@ -2899,11 +3221,11 @@
       <c r="O115" s="2"/>
       <c r="P115" s="2"/>
     </row>
-    <row r="116" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A116" s="2"/>
-      <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
+      <c r="B116" s="55"/>
+      <c r="C116" s="55"/>
+      <c r="D116" s="55"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
@@ -2917,11 +3239,11 @@
       <c r="O116" s="2"/>
       <c r="P116" s="2"/>
     </row>
-    <row r="117" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A117" s="2"/>
-      <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
+      <c r="B117" s="55"/>
+      <c r="C117" s="55"/>
+      <c r="D117" s="55"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
@@ -2935,11 +3257,11 @@
       <c r="O117" s="2"/>
       <c r="P117" s="2"/>
     </row>
-    <row r="118" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A118" s="2"/>
-      <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
+      <c r="B118" s="55"/>
+      <c r="C118" s="55"/>
+      <c r="D118" s="55"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
@@ -2953,11 +3275,11 @@
       <c r="O118" s="2"/>
       <c r="P118" s="2"/>
     </row>
-    <row r="119" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A119" s="2"/>
-      <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
+      <c r="B119" s="55"/>
+      <c r="C119" s="55"/>
+      <c r="D119" s="55"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
@@ -2971,11 +3293,11 @@
       <c r="O119" s="2"/>
       <c r="P119" s="2"/>
     </row>
-    <row r="120" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A120" s="2"/>
-      <c r="B120" s="2"/>
-      <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
+      <c r="B120" s="55"/>
+      <c r="C120" s="55"/>
+      <c r="D120" s="55"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
@@ -2989,11 +3311,11 @@
       <c r="O120" s="2"/>
       <c r="P120" s="2"/>
     </row>
-    <row r="121" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A121" s="2"/>
-      <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
+      <c r="B121" s="55"/>
+      <c r="C121" s="55"/>
+      <c r="D121" s="55"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
@@ -3007,11 +3329,11 @@
       <c r="O121" s="2"/>
       <c r="P121" s="2"/>
     </row>
-    <row r="122" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A122" s="2"/>
-      <c r="B122" s="2"/>
-      <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
+      <c r="B122" s="55"/>
+      <c r="C122" s="55"/>
+      <c r="D122" s="55"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
@@ -3025,11 +3347,11 @@
       <c r="O122" s="2"/>
       <c r="P122" s="2"/>
     </row>
-    <row r="123" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A123" s="2"/>
-      <c r="B123" s="2"/>
-      <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
+      <c r="B123" s="55"/>
+      <c r="C123" s="55"/>
+      <c r="D123" s="55"/>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
@@ -3043,11 +3365,11 @@
       <c r="O123" s="2"/>
       <c r="P123" s="2"/>
     </row>
-    <row r="124" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A124" s="2"/>
-      <c r="B124" s="2"/>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
+      <c r="B124" s="55"/>
+      <c r="C124" s="55"/>
+      <c r="D124" s="55"/>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
@@ -3061,11 +3383,11 @@
       <c r="O124" s="2"/>
       <c r="P124" s="2"/>
     </row>
-    <row r="125" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A125" s="2"/>
-      <c r="B125" s="2"/>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
+      <c r="B125" s="55"/>
+      <c r="C125" s="55"/>
+      <c r="D125" s="55"/>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
@@ -3079,11 +3401,11 @@
       <c r="O125" s="2"/>
       <c r="P125" s="2"/>
     </row>
-    <row r="126" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A126" s="2"/>
-      <c r="B126" s="2"/>
-      <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
+      <c r="B126" s="55"/>
+      <c r="C126" s="55"/>
+      <c r="D126" s="55"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
@@ -3097,11 +3419,11 @@
       <c r="O126" s="2"/>
       <c r="P126" s="2"/>
     </row>
-    <row r="127" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A127" s="2"/>
-      <c r="B127" s="2"/>
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
+      <c r="B127" s="55"/>
+      <c r="C127" s="55"/>
+      <c r="D127" s="55"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
@@ -3115,11 +3437,11 @@
       <c r="O127" s="2"/>
       <c r="P127" s="2"/>
     </row>
-    <row r="128" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A128" s="2"/>
-      <c r="B128" s="2"/>
-      <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
+      <c r="B128" s="55"/>
+      <c r="C128" s="55"/>
+      <c r="D128" s="55"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
@@ -3133,11 +3455,11 @@
       <c r="O128" s="2"/>
       <c r="P128" s="2"/>
     </row>
-    <row r="129" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A129" s="2"/>
-      <c r="B129" s="2"/>
-      <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
+      <c r="B129" s="55"/>
+      <c r="C129" s="55"/>
+      <c r="D129" s="55"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
@@ -3151,11 +3473,11 @@
       <c r="O129" s="2"/>
       <c r="P129" s="2"/>
     </row>
-    <row r="130" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A130" s="2"/>
-      <c r="B130" s="2"/>
-      <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
+      <c r="B130" s="55"/>
+      <c r="C130" s="55"/>
+      <c r="D130" s="55"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
@@ -3169,11 +3491,11 @@
       <c r="O130" s="2"/>
       <c r="P130" s="2"/>
     </row>
-    <row r="131" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A131" s="2"/>
-      <c r="B131" s="2"/>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
+      <c r="B131" s="55"/>
+      <c r="C131" s="55"/>
+      <c r="D131" s="55"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
@@ -3187,11 +3509,11 @@
       <c r="O131" s="2"/>
       <c r="P131" s="2"/>
     </row>
-    <row r="132" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A132" s="2"/>
-      <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
+      <c r="B132" s="55"/>
+      <c r="C132" s="55"/>
+      <c r="D132" s="55"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
@@ -3205,11 +3527,11 @@
       <c r="O132" s="2"/>
       <c r="P132" s="2"/>
     </row>
-    <row r="133" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A133" s="2"/>
-      <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
+      <c r="B133" s="55"/>
+      <c r="C133" s="55"/>
+      <c r="D133" s="55"/>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
@@ -3223,11 +3545,11 @@
       <c r="O133" s="2"/>
       <c r="P133" s="2"/>
     </row>
-    <row r="134" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A134" s="2"/>
-      <c r="B134" s="2"/>
-      <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
+      <c r="B134" s="55"/>
+      <c r="C134" s="55"/>
+      <c r="D134" s="55"/>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
@@ -3241,11 +3563,11 @@
       <c r="O134" s="2"/>
       <c r="P134" s="2"/>
     </row>
-    <row r="135" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A135" s="2"/>
-      <c r="B135" s="2"/>
-      <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
+      <c r="B135" s="55"/>
+      <c r="C135" s="55"/>
+      <c r="D135" s="55"/>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
@@ -3259,11 +3581,11 @@
       <c r="O135" s="2"/>
       <c r="P135" s="2"/>
     </row>
-    <row r="136" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A136" s="2"/>
-      <c r="B136" s="2"/>
-      <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
+      <c r="B136" s="55"/>
+      <c r="C136" s="55"/>
+      <c r="D136" s="55"/>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
@@ -3277,11 +3599,11 @@
       <c r="O136" s="2"/>
       <c r="P136" s="2"/>
     </row>
-    <row r="137" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A137" s="2"/>
-      <c r="B137" s="2"/>
-      <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
+      <c r="B137" s="55"/>
+      <c r="C137" s="55"/>
+      <c r="D137" s="55"/>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
@@ -3295,11 +3617,11 @@
       <c r="O137" s="2"/>
       <c r="P137" s="2"/>
     </row>
-    <row r="138" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A138" s="2"/>
-      <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
+      <c r="B138" s="55"/>
+      <c r="C138" s="55"/>
+      <c r="D138" s="55"/>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
@@ -3313,11 +3635,11 @@
       <c r="O138" s="2"/>
       <c r="P138" s="2"/>
     </row>
-    <row r="139" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A139" s="2"/>
-      <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
+      <c r="B139" s="55"/>
+      <c r="C139" s="55"/>
+      <c r="D139" s="55"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
@@ -3331,11 +3653,11 @@
       <c r="O139" s="2"/>
       <c r="P139" s="2"/>
     </row>
-    <row r="140" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A140" s="2"/>
-      <c r="B140" s="2"/>
-      <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
+      <c r="B140" s="55"/>
+      <c r="C140" s="55"/>
+      <c r="D140" s="55"/>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
@@ -3349,11 +3671,11 @@
       <c r="O140" s="2"/>
       <c r="P140" s="2"/>
     </row>
-    <row r="141" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A141" s="2"/>
-      <c r="B141" s="2"/>
-      <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
+      <c r="B141" s="55"/>
+      <c r="C141" s="55"/>
+      <c r="D141" s="55"/>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
@@ -3367,11 +3689,11 @@
       <c r="O141" s="2"/>
       <c r="P141" s="2"/>
     </row>
-    <row r="142" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A142" s="2"/>
-      <c r="B142" s="2"/>
-      <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
+      <c r="B142" s="55"/>
+      <c r="C142" s="55"/>
+      <c r="D142" s="55"/>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
@@ -3385,11 +3707,11 @@
       <c r="O142" s="2"/>
       <c r="P142" s="2"/>
     </row>
-    <row r="143" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A143" s="2"/>
-      <c r="B143" s="2"/>
-      <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
+      <c r="B143" s="55"/>
+      <c r="C143" s="55"/>
+      <c r="D143" s="55"/>
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
@@ -3403,11 +3725,11 @@
       <c r="O143" s="2"/>
       <c r="P143" s="2"/>
     </row>
-    <row r="144" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A144" s="2"/>
-      <c r="B144" s="2"/>
-      <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
+      <c r="B144" s="55"/>
+      <c r="C144" s="55"/>
+      <c r="D144" s="55"/>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
@@ -3421,11 +3743,11 @@
       <c r="O144" s="2"/>
       <c r="P144" s="2"/>
     </row>
-    <row r="145" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A145" s="2"/>
-      <c r="B145" s="2"/>
-      <c r="C145" s="2"/>
-      <c r="D145" s="2"/>
+      <c r="B145" s="55"/>
+      <c r="C145" s="55"/>
+      <c r="D145" s="55"/>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
@@ -3439,11 +3761,11 @@
       <c r="O145" s="2"/>
       <c r="P145" s="2"/>
     </row>
-    <row r="146" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A146" s="2"/>
-      <c r="B146" s="2"/>
-      <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
+      <c r="B146" s="55"/>
+      <c r="C146" s="55"/>
+      <c r="D146" s="55"/>
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
@@ -3457,11 +3779,11 @@
       <c r="O146" s="2"/>
       <c r="P146" s="2"/>
     </row>
-    <row r="147" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A147" s="2"/>
-      <c r="B147" s="2"/>
-      <c r="C147" s="2"/>
-      <c r="D147" s="2"/>
+      <c r="B147" s="55"/>
+      <c r="C147" s="55"/>
+      <c r="D147" s="55"/>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
@@ -3475,11 +3797,11 @@
       <c r="O147" s="2"/>
       <c r="P147" s="2"/>
     </row>
-    <row r="148" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A148" s="2"/>
-      <c r="B148" s="2"/>
-      <c r="C148" s="2"/>
-      <c r="D148" s="2"/>
+      <c r="B148" s="55"/>
+      <c r="C148" s="55"/>
+      <c r="D148" s="55"/>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
@@ -3493,11 +3815,11 @@
       <c r="O148" s="2"/>
       <c r="P148" s="2"/>
     </row>
-    <row r="149" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A149" s="2"/>
-      <c r="B149" s="2"/>
-      <c r="C149" s="2"/>
-      <c r="D149" s="2"/>
+      <c r="B149" s="55"/>
+      <c r="C149" s="55"/>
+      <c r="D149" s="55"/>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
@@ -3511,11 +3833,11 @@
       <c r="O149" s="2"/>
       <c r="P149" s="2"/>
     </row>
-    <row r="150" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A150" s="2"/>
-      <c r="B150" s="2"/>
-      <c r="C150" s="2"/>
-      <c r="D150" s="2"/>
+      <c r="B150" s="55"/>
+      <c r="C150" s="55"/>
+      <c r="D150" s="55"/>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
@@ -3529,11 +3851,11 @@
       <c r="O150" s="2"/>
       <c r="P150" s="2"/>
     </row>
-    <row r="151" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A151" s="2"/>
-      <c r="B151" s="2"/>
-      <c r="C151" s="2"/>
-      <c r="D151" s="2"/>
+      <c r="B151" s="55"/>
+      <c r="C151" s="55"/>
+      <c r="D151" s="55"/>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
       <c r="G151" s="2"/>
@@ -3547,11 +3869,11 @@
       <c r="O151" s="2"/>
       <c r="P151" s="2"/>
     </row>
-    <row r="152" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A152" s="2"/>
-      <c r="B152" s="2"/>
-      <c r="C152" s="2"/>
-      <c r="D152" s="2"/>
+      <c r="B152" s="55"/>
+      <c r="C152" s="55"/>
+      <c r="D152" s="55"/>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
       <c r="G152" s="2"/>
@@ -3565,11 +3887,11 @@
       <c r="O152" s="2"/>
       <c r="P152" s="2"/>
     </row>
-    <row r="153" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A153" s="2"/>
-      <c r="B153" s="2"/>
-      <c r="C153" s="2"/>
-      <c r="D153" s="2"/>
+      <c r="B153" s="55"/>
+      <c r="C153" s="55"/>
+      <c r="D153" s="55"/>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
@@ -3583,11 +3905,11 @@
       <c r="O153" s="2"/>
       <c r="P153" s="2"/>
     </row>
-    <row r="154" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A154" s="2"/>
-      <c r="B154" s="2"/>
-      <c r="C154" s="2"/>
-      <c r="D154" s="2"/>
+      <c r="B154" s="55"/>
+      <c r="C154" s="55"/>
+      <c r="D154" s="55"/>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
@@ -3601,11 +3923,11 @@
       <c r="O154" s="2"/>
       <c r="P154" s="2"/>
     </row>
-    <row r="155" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A155" s="2"/>
-      <c r="B155" s="2"/>
-      <c r="C155" s="2"/>
-      <c r="D155" s="2"/>
+      <c r="B155" s="55"/>
+      <c r="C155" s="55"/>
+      <c r="D155" s="55"/>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
       <c r="G155" s="2"/>
@@ -3619,11 +3941,11 @@
       <c r="O155" s="2"/>
       <c r="P155" s="2"/>
     </row>
-    <row r="156" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A156" s="2"/>
-      <c r="B156" s="2"/>
-      <c r="C156" s="2"/>
-      <c r="D156" s="2"/>
+      <c r="B156" s="55"/>
+      <c r="C156" s="55"/>
+      <c r="D156" s="55"/>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
@@ -3637,11 +3959,11 @@
       <c r="O156" s="2"/>
       <c r="P156" s="2"/>
     </row>
-    <row r="157" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A157" s="2"/>
-      <c r="B157" s="2"/>
-      <c r="C157" s="2"/>
-      <c r="D157" s="2"/>
+      <c r="B157" s="55"/>
+      <c r="C157" s="55"/>
+      <c r="D157" s="55"/>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
@@ -3655,11 +3977,11 @@
       <c r="O157" s="2"/>
       <c r="P157" s="2"/>
     </row>
-    <row r="158" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A158" s="2"/>
-      <c r="B158" s="2"/>
-      <c r="C158" s="2"/>
-      <c r="D158" s="2"/>
+      <c r="B158" s="55"/>
+      <c r="C158" s="55"/>
+      <c r="D158" s="55"/>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
       <c r="G158" s="2"/>
@@ -3673,11 +3995,11 @@
       <c r="O158" s="2"/>
       <c r="P158" s="2"/>
     </row>
-    <row r="159" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A159" s="2"/>
-      <c r="B159" s="2"/>
-      <c r="C159" s="2"/>
-      <c r="D159" s="2"/>
+      <c r="B159" s="55"/>
+      <c r="C159" s="55"/>
+      <c r="D159" s="55"/>
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
       <c r="G159" s="2"/>
@@ -3691,11 +4013,11 @@
       <c r="O159" s="2"/>
       <c r="P159" s="2"/>
     </row>
-    <row r="160" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A160" s="2"/>
-      <c r="B160" s="2"/>
-      <c r="C160" s="2"/>
-      <c r="D160" s="2"/>
+      <c r="B160" s="55"/>
+      <c r="C160" s="55"/>
+      <c r="D160" s="55"/>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
       <c r="G160" s="2"/>
@@ -3709,11 +4031,11 @@
       <c r="O160" s="2"/>
       <c r="P160" s="2"/>
     </row>
-    <row r="161" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A161" s="2"/>
-      <c r="B161" s="2"/>
-      <c r="C161" s="2"/>
-      <c r="D161" s="2"/>
+      <c r="B161" s="55"/>
+      <c r="C161" s="55"/>
+      <c r="D161" s="55"/>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
       <c r="G161" s="2"/>
@@ -3727,11 +4049,11 @@
       <c r="O161" s="2"/>
       <c r="P161" s="2"/>
     </row>
-    <row r="162" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A162" s="2"/>
-      <c r="B162" s="2"/>
-      <c r="C162" s="2"/>
-      <c r="D162" s="2"/>
+      <c r="B162" s="55"/>
+      <c r="C162" s="55"/>
+      <c r="D162" s="55"/>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
       <c r="G162" s="2"/>
@@ -3745,11 +4067,11 @@
       <c r="O162" s="2"/>
       <c r="P162" s="2"/>
     </row>
-    <row r="163" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A163" s="2"/>
-      <c r="B163" s="2"/>
-      <c r="C163" s="2"/>
-      <c r="D163" s="2"/>
+      <c r="B163" s="55"/>
+      <c r="C163" s="55"/>
+      <c r="D163" s="55"/>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
@@ -3763,11 +4085,11 @@
       <c r="O163" s="2"/>
       <c r="P163" s="2"/>
     </row>
-    <row r="164" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A164" s="2"/>
-      <c r="B164" s="2"/>
-      <c r="C164" s="2"/>
-      <c r="D164" s="2"/>
+      <c r="B164" s="55"/>
+      <c r="C164" s="55"/>
+      <c r="D164" s="55"/>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
       <c r="G164" s="2"/>
@@ -3781,11 +4103,11 @@
       <c r="O164" s="2"/>
       <c r="P164" s="2"/>
     </row>
-    <row r="165" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A165" s="2"/>
-      <c r="B165" s="2"/>
-      <c r="C165" s="2"/>
-      <c r="D165" s="2"/>
+      <c r="B165" s="55"/>
+      <c r="C165" s="55"/>
+      <c r="D165" s="55"/>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
       <c r="G165" s="2"/>
@@ -3799,11 +4121,11 @@
       <c r="O165" s="2"/>
       <c r="P165" s="2"/>
     </row>
-    <row r="166" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A166" s="2"/>
-      <c r="B166" s="2"/>
-      <c r="C166" s="2"/>
-      <c r="D166" s="2"/>
+      <c r="B166" s="55"/>
+      <c r="C166" s="55"/>
+      <c r="D166" s="55"/>
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
       <c r="G166" s="2"/>
@@ -3817,11 +4139,11 @@
       <c r="O166" s="2"/>
       <c r="P166" s="2"/>
     </row>
-    <row r="167" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A167" s="2"/>
-      <c r="B167" s="2"/>
-      <c r="C167" s="2"/>
-      <c r="D167" s="2"/>
+      <c r="B167" s="55"/>
+      <c r="C167" s="55"/>
+      <c r="D167" s="55"/>
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
       <c r="G167" s="2"/>
@@ -3835,11 +4157,11 @@
       <c r="O167" s="2"/>
       <c r="P167" s="2"/>
     </row>
-    <row r="168" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A168" s="2"/>
-      <c r="B168" s="2"/>
-      <c r="C168" s="2"/>
-      <c r="D168" s="2"/>
+      <c r="B168" s="55"/>
+      <c r="C168" s="55"/>
+      <c r="D168" s="55"/>
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
       <c r="G168" s="2"/>
@@ -3853,11 +4175,11 @@
       <c r="O168" s="2"/>
       <c r="P168" s="2"/>
     </row>
-    <row r="169" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A169" s="2"/>
-      <c r="B169" s="2"/>
-      <c r="C169" s="2"/>
-      <c r="D169" s="2"/>
+      <c r="B169" s="55"/>
+      <c r="C169" s="55"/>
+      <c r="D169" s="55"/>
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
       <c r="G169" s="2"/>
@@ -3871,11 +4193,11 @@
       <c r="O169" s="2"/>
       <c r="P169" s="2"/>
     </row>
-    <row r="170" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A170" s="2"/>
-      <c r="B170" s="2"/>
-      <c r="C170" s="2"/>
-      <c r="D170" s="2"/>
+      <c r="B170" s="55"/>
+      <c r="C170" s="55"/>
+      <c r="D170" s="55"/>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
       <c r="G170" s="2"/>
@@ -3889,11 +4211,11 @@
       <c r="O170" s="2"/>
       <c r="P170" s="2"/>
     </row>
-    <row r="171" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A171" s="2"/>
-      <c r="B171" s="2"/>
-      <c r="C171" s="2"/>
-      <c r="D171" s="2"/>
+      <c r="B171" s="55"/>
+      <c r="C171" s="55"/>
+      <c r="D171" s="55"/>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
       <c r="G171" s="2"/>
@@ -3907,11 +4229,11 @@
       <c r="O171" s="2"/>
       <c r="P171" s="2"/>
     </row>
-    <row r="172" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A172" s="2"/>
-      <c r="B172" s="2"/>
-      <c r="C172" s="2"/>
-      <c r="D172" s="2"/>
+      <c r="B172" s="55"/>
+      <c r="C172" s="55"/>
+      <c r="D172" s="55"/>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
@@ -3925,11 +4247,11 @@
       <c r="O172" s="2"/>
       <c r="P172" s="2"/>
     </row>
-    <row r="173" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A173" s="2"/>
-      <c r="B173" s="2"/>
-      <c r="C173" s="2"/>
-      <c r="D173" s="2"/>
+      <c r="B173" s="55"/>
+      <c r="C173" s="55"/>
+      <c r="D173" s="55"/>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
@@ -3943,11 +4265,11 @@
       <c r="O173" s="2"/>
       <c r="P173" s="2"/>
     </row>
-    <row r="174" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A174" s="2"/>
-      <c r="B174" s="2"/>
-      <c r="C174" s="2"/>
-      <c r="D174" s="2"/>
+      <c r="B174" s="55"/>
+      <c r="C174" s="55"/>
+      <c r="D174" s="55"/>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
       <c r="G174" s="2"/>
@@ -3961,11 +4283,11 @@
       <c r="O174" s="2"/>
       <c r="P174" s="2"/>
     </row>
-    <row r="175" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A175" s="2"/>
-      <c r="B175" s="2"/>
-      <c r="C175" s="2"/>
-      <c r="D175" s="2"/>
+      <c r="B175" s="55"/>
+      <c r="C175" s="55"/>
+      <c r="D175" s="55"/>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
       <c r="G175" s="2"/>
@@ -3979,11 +4301,11 @@
       <c r="O175" s="2"/>
       <c r="P175" s="2"/>
     </row>
-    <row r="176" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A176" s="2"/>
-      <c r="B176" s="2"/>
-      <c r="C176" s="2"/>
-      <c r="D176" s="2"/>
+      <c r="B176" s="55"/>
+      <c r="C176" s="55"/>
+      <c r="D176" s="55"/>
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
       <c r="G176" s="2"/>
@@ -3997,11 +4319,11 @@
       <c r="O176" s="2"/>
       <c r="P176" s="2"/>
     </row>
-    <row r="177" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A177" s="2"/>
-      <c r="B177" s="2"/>
-      <c r="C177" s="2"/>
-      <c r="D177" s="2"/>
+      <c r="B177" s="55"/>
+      <c r="C177" s="55"/>
+      <c r="D177" s="55"/>
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
       <c r="G177" s="2"/>
@@ -4015,11 +4337,11 @@
       <c r="O177" s="2"/>
       <c r="P177" s="2"/>
     </row>
-    <row r="178" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A178" s="2"/>
-      <c r="B178" s="2"/>
-      <c r="C178" s="2"/>
-      <c r="D178" s="2"/>
+      <c r="B178" s="55"/>
+      <c r="C178" s="55"/>
+      <c r="D178" s="55"/>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
       <c r="G178" s="2"/>
@@ -4033,11 +4355,11 @@
       <c r="O178" s="2"/>
       <c r="P178" s="2"/>
     </row>
-    <row r="179" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A179" s="2"/>
-      <c r="B179" s="2"/>
-      <c r="C179" s="2"/>
-      <c r="D179" s="2"/>
+      <c r="B179" s="55"/>
+      <c r="C179" s="55"/>
+      <c r="D179" s="55"/>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
       <c r="G179" s="2"/>
@@ -4051,11 +4373,11 @@
       <c r="O179" s="2"/>
       <c r="P179" s="2"/>
     </row>
-    <row r="180" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A180" s="2"/>
-      <c r="B180" s="2"/>
-      <c r="C180" s="2"/>
-      <c r="D180" s="2"/>
+      <c r="B180" s="55"/>
+      <c r="C180" s="55"/>
+      <c r="D180" s="55"/>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
       <c r="G180" s="2"/>
@@ -4069,11 +4391,11 @@
       <c r="O180" s="2"/>
       <c r="P180" s="2"/>
     </row>
-    <row r="181" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A181" s="2"/>
-      <c r="B181" s="2"/>
-      <c r="C181" s="2"/>
-      <c r="D181" s="2"/>
+      <c r="B181" s="55"/>
+      <c r="C181" s="55"/>
+      <c r="D181" s="55"/>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
       <c r="G181" s="2"/>
@@ -4087,11 +4409,11 @@
       <c r="O181" s="2"/>
       <c r="P181" s="2"/>
     </row>
-    <row r="182" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A182" s="2"/>
-      <c r="B182" s="2"/>
-      <c r="C182" s="2"/>
-      <c r="D182" s="2"/>
+      <c r="B182" s="55"/>
+      <c r="C182" s="55"/>
+      <c r="D182" s="55"/>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
       <c r="G182" s="2"/>
@@ -4105,11 +4427,11 @@
       <c r="O182" s="2"/>
       <c r="P182" s="2"/>
     </row>
-    <row r="183" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A183" s="2"/>
-      <c r="B183" s="2"/>
-      <c r="C183" s="2"/>
-      <c r="D183" s="2"/>
+      <c r="B183" s="55"/>
+      <c r="C183" s="55"/>
+      <c r="D183" s="55"/>
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
       <c r="G183" s="2"/>
@@ -4123,11 +4445,11 @@
       <c r="O183" s="2"/>
       <c r="P183" s="2"/>
     </row>
-    <row r="184" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A184" s="2"/>
-      <c r="B184" s="2"/>
-      <c r="C184" s="2"/>
-      <c r="D184" s="2"/>
+      <c r="B184" s="55"/>
+      <c r="C184" s="55"/>
+      <c r="D184" s="55"/>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
@@ -4141,11 +4463,11 @@
       <c r="O184" s="2"/>
       <c r="P184" s="2"/>
     </row>
-    <row r="185" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A185" s="2"/>
-      <c r="B185" s="2"/>
-      <c r="C185" s="2"/>
-      <c r="D185" s="2"/>
+      <c r="B185" s="55"/>
+      <c r="C185" s="55"/>
+      <c r="D185" s="55"/>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
       <c r="G185" s="2"/>
@@ -4159,11 +4481,11 @@
       <c r="O185" s="2"/>
       <c r="P185" s="2"/>
     </row>
-    <row r="186" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A186" s="2"/>
-      <c r="B186" s="2"/>
-      <c r="C186" s="2"/>
-      <c r="D186" s="2"/>
+      <c r="B186" s="55"/>
+      <c r="C186" s="55"/>
+      <c r="D186" s="55"/>
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
       <c r="G186" s="2"/>
@@ -4177,11 +4499,11 @@
       <c r="O186" s="2"/>
       <c r="P186" s="2"/>
     </row>
-    <row r="187" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A187" s="2"/>
-      <c r="B187" s="2"/>
-      <c r="C187" s="2"/>
-      <c r="D187" s="2"/>
+      <c r="B187" s="55"/>
+      <c r="C187" s="55"/>
+      <c r="D187" s="55"/>
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
       <c r="G187" s="2"/>
@@ -4195,11 +4517,11 @@
       <c r="O187" s="2"/>
       <c r="P187" s="2"/>
     </row>
-    <row r="188" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A188" s="2"/>
-      <c r="B188" s="2"/>
-      <c r="C188" s="2"/>
-      <c r="D188" s="2"/>
+      <c r="B188" s="55"/>
+      <c r="C188" s="55"/>
+      <c r="D188" s="55"/>
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
       <c r="G188" s="2"/>
@@ -4213,11 +4535,11 @@
       <c r="O188" s="2"/>
       <c r="P188" s="2"/>
     </row>
-    <row r="189" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A189" s="2"/>
-      <c r="B189" s="2"/>
-      <c r="C189" s="2"/>
-      <c r="D189" s="2"/>
+      <c r="B189" s="55"/>
+      <c r="C189" s="55"/>
+      <c r="D189" s="55"/>
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
       <c r="G189" s="2"/>
@@ -4231,11 +4553,11 @@
       <c r="O189" s="2"/>
       <c r="P189" s="2"/>
     </row>
-    <row r="190" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A190" s="2"/>
-      <c r="B190" s="2"/>
-      <c r="C190" s="2"/>
-      <c r="D190" s="2"/>
+      <c r="B190" s="55"/>
+      <c r="C190" s="55"/>
+      <c r="D190" s="55"/>
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
       <c r="G190" s="2"/>
@@ -4249,11 +4571,11 @@
       <c r="O190" s="2"/>
       <c r="P190" s="2"/>
     </row>
-    <row r="191" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A191" s="2"/>
-      <c r="B191" s="2"/>
-      <c r="C191" s="2"/>
-      <c r="D191" s="2"/>
+      <c r="B191" s="55"/>
+      <c r="C191" s="55"/>
+      <c r="D191" s="55"/>
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
       <c r="G191" s="2"/>
@@ -4267,11 +4589,11 @@
       <c r="O191" s="2"/>
       <c r="P191" s="2"/>
     </row>
-    <row r="192" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A192" s="2"/>
-      <c r="B192" s="2"/>
-      <c r="C192" s="2"/>
-      <c r="D192" s="2"/>
+      <c r="B192" s="55"/>
+      <c r="C192" s="55"/>
+      <c r="D192" s="55"/>
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
       <c r="G192" s="2"/>
@@ -4285,11 +4607,11 @@
       <c r="O192" s="2"/>
       <c r="P192" s="2"/>
     </row>
-    <row r="193" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A193" s="2"/>
-      <c r="B193" s="2"/>
-      <c r="C193" s="2"/>
-      <c r="D193" s="2"/>
+      <c r="B193" s="55"/>
+      <c r="C193" s="55"/>
+      <c r="D193" s="55"/>
       <c r="E193" s="2"/>
       <c r="F193" s="2"/>
       <c r="G193" s="2"/>
@@ -4303,11 +4625,11 @@
       <c r="O193" s="2"/>
       <c r="P193" s="2"/>
     </row>
-    <row r="194" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A194" s="2"/>
-      <c r="B194" s="2"/>
-      <c r="C194" s="2"/>
-      <c r="D194" s="2"/>
+      <c r="B194" s="55"/>
+      <c r="C194" s="55"/>
+      <c r="D194" s="55"/>
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
       <c r="G194" s="2"/>
@@ -4321,11 +4643,11 @@
       <c r="O194" s="2"/>
       <c r="P194" s="2"/>
     </row>
-    <row r="195" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A195" s="2"/>
-      <c r="B195" s="2"/>
-      <c r="C195" s="2"/>
-      <c r="D195" s="2"/>
+      <c r="B195" s="55"/>
+      <c r="C195" s="55"/>
+      <c r="D195" s="55"/>
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
       <c r="G195" s="2"/>
@@ -4339,11 +4661,11 @@
       <c r="O195" s="2"/>
       <c r="P195" s="2"/>
     </row>
-    <row r="196" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A196" s="2"/>
-      <c r="B196" s="2"/>
-      <c r="C196" s="2"/>
-      <c r="D196" s="2"/>
+      <c r="B196" s="55"/>
+      <c r="C196" s="55"/>
+      <c r="D196" s="55"/>
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
       <c r="G196" s="2"/>
@@ -4357,11 +4679,11 @@
       <c r="O196" s="2"/>
       <c r="P196" s="2"/>
     </row>
-    <row r="197" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A197" s="2"/>
-      <c r="B197" s="2"/>
-      <c r="C197" s="2"/>
-      <c r="D197" s="2"/>
+      <c r="B197" s="55"/>
+      <c r="C197" s="55"/>
+      <c r="D197" s="55"/>
       <c r="E197" s="2"/>
       <c r="F197" s="2"/>
       <c r="G197" s="2"/>
@@ -4375,11 +4697,11 @@
       <c r="O197" s="2"/>
       <c r="P197" s="2"/>
     </row>
-    <row r="198" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A198" s="2"/>
-      <c r="B198" s="2"/>
-      <c r="C198" s="2"/>
-      <c r="D198" s="2"/>
+      <c r="B198" s="55"/>
+      <c r="C198" s="55"/>
+      <c r="D198" s="55"/>
       <c r="E198" s="2"/>
       <c r="F198" s="2"/>
       <c r="G198" s="2"/>
@@ -4393,11 +4715,11 @@
       <c r="O198" s="2"/>
       <c r="P198" s="2"/>
     </row>
-    <row r="199" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A199" s="2"/>
-      <c r="B199" s="2"/>
-      <c r="C199" s="2"/>
-      <c r="D199" s="2"/>
+      <c r="B199" s="55"/>
+      <c r="C199" s="55"/>
+      <c r="D199" s="55"/>
       <c r="E199" s="2"/>
       <c r="F199" s="2"/>
       <c r="G199" s="2"/>
@@ -4411,11 +4733,11 @@
       <c r="O199" s="2"/>
       <c r="P199" s="2"/>
     </row>
-    <row r="200" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A200" s="2"/>
-      <c r="B200" s="2"/>
-      <c r="C200" s="2"/>
-      <c r="D200" s="2"/>
+      <c r="B200" s="55"/>
+      <c r="C200" s="55"/>
+      <c r="D200" s="55"/>
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
       <c r="G200" s="2"/>
@@ -4429,11 +4751,11 @@
       <c r="O200" s="2"/>
       <c r="P200" s="2"/>
     </row>
-    <row r="201" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A201" s="2"/>
-      <c r="B201" s="2"/>
-      <c r="C201" s="2"/>
-      <c r="D201" s="2"/>
+      <c r="B201" s="55"/>
+      <c r="C201" s="55"/>
+      <c r="D201" s="55"/>
       <c r="E201" s="2"/>
       <c r="F201" s="2"/>
       <c r="G201" s="2"/>
@@ -4447,11 +4769,11 @@
       <c r="O201" s="2"/>
       <c r="P201" s="2"/>
     </row>
-    <row r="202" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A202" s="2"/>
-      <c r="B202" s="2"/>
-      <c r="C202" s="2"/>
-      <c r="D202" s="2"/>
+      <c r="B202" s="55"/>
+      <c r="C202" s="55"/>
+      <c r="D202" s="55"/>
       <c r="E202" s="2"/>
       <c r="F202" s="2"/>
       <c r="G202" s="2"/>
@@ -4465,11 +4787,11 @@
       <c r="O202" s="2"/>
       <c r="P202" s="2"/>
     </row>
-    <row r="203" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A203" s="2"/>
-      <c r="B203" s="2"/>
-      <c r="C203" s="2"/>
-      <c r="D203" s="2"/>
+      <c r="B203" s="55"/>
+      <c r="C203" s="55"/>
+      <c r="D203" s="55"/>
       <c r="E203" s="2"/>
       <c r="F203" s="2"/>
       <c r="G203" s="2"/>
@@ -4483,11 +4805,11 @@
       <c r="O203" s="2"/>
       <c r="P203" s="2"/>
     </row>
-    <row r="204" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A204" s="2"/>
-      <c r="B204" s="2"/>
-      <c r="C204" s="2"/>
-      <c r="D204" s="2"/>
+      <c r="B204" s="55"/>
+      <c r="C204" s="55"/>
+      <c r="D204" s="55"/>
       <c r="E204" s="2"/>
       <c r="F204" s="2"/>
       <c r="G204" s="2"/>
@@ -4501,11 +4823,11 @@
       <c r="O204" s="2"/>
       <c r="P204" s="2"/>
     </row>
-    <row r="205" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A205" s="2"/>
-      <c r="B205" s="2"/>
-      <c r="C205" s="2"/>
-      <c r="D205" s="2"/>
+      <c r="B205" s="55"/>
+      <c r="C205" s="55"/>
+      <c r="D205" s="55"/>
       <c r="E205" s="2"/>
       <c r="F205" s="2"/>
       <c r="G205" s="2"/>
@@ -4519,11 +4841,11 @@
       <c r="O205" s="2"/>
       <c r="P205" s="2"/>
     </row>
-    <row r="206" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A206" s="2"/>
-      <c r="B206" s="2"/>
-      <c r="C206" s="2"/>
-      <c r="D206" s="2"/>
+      <c r="B206" s="55"/>
+      <c r="C206" s="55"/>
+      <c r="D206" s="55"/>
       <c r="E206" s="2"/>
       <c r="F206" s="2"/>
       <c r="G206" s="2"/>
@@ -4537,11 +4859,11 @@
       <c r="O206" s="2"/>
       <c r="P206" s="2"/>
     </row>
-    <row r="207" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A207" s="2"/>
-      <c r="B207" s="2"/>
-      <c r="C207" s="2"/>
-      <c r="D207" s="2"/>
+      <c r="B207" s="55"/>
+      <c r="C207" s="55"/>
+      <c r="D207" s="55"/>
       <c r="E207" s="2"/>
       <c r="F207" s="2"/>
       <c r="G207" s="2"/>
@@ -4555,11 +4877,11 @@
       <c r="O207" s="2"/>
       <c r="P207" s="2"/>
     </row>
-    <row r="208" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A208" s="2"/>
-      <c r="B208" s="2"/>
-      <c r="C208" s="2"/>
-      <c r="D208" s="2"/>
+      <c r="B208" s="55"/>
+      <c r="C208" s="55"/>
+      <c r="D208" s="55"/>
       <c r="E208" s="2"/>
       <c r="F208" s="2"/>
       <c r="G208" s="2"/>
@@ -4573,11 +4895,11 @@
       <c r="O208" s="2"/>
       <c r="P208" s="2"/>
     </row>
-    <row r="209" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A209" s="2"/>
-      <c r="B209" s="2"/>
-      <c r="C209" s="2"/>
-      <c r="D209" s="2"/>
+      <c r="B209" s="55"/>
+      <c r="C209" s="55"/>
+      <c r="D209" s="55"/>
       <c r="E209" s="2"/>
       <c r="F209" s="2"/>
       <c r="G209" s="2"/>
@@ -4591,11 +4913,11 @@
       <c r="O209" s="2"/>
       <c r="P209" s="2"/>
     </row>
-    <row r="210" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A210" s="2"/>
-      <c r="B210" s="2"/>
-      <c r="C210" s="2"/>
-      <c r="D210" s="2"/>
+      <c r="B210" s="55"/>
+      <c r="C210" s="55"/>
+      <c r="D210" s="55"/>
       <c r="E210" s="2"/>
       <c r="F210" s="2"/>
       <c r="G210" s="2"/>
@@ -4609,11 +4931,11 @@
       <c r="O210" s="2"/>
       <c r="P210" s="2"/>
     </row>
-    <row r="211" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A211" s="2"/>
-      <c r="B211" s="2"/>
-      <c r="C211" s="2"/>
-      <c r="D211" s="2"/>
+      <c r="B211" s="55"/>
+      <c r="C211" s="55"/>
+      <c r="D211" s="55"/>
       <c r="E211" s="2"/>
       <c r="F211" s="2"/>
       <c r="G211" s="2"/>
@@ -4627,11 +4949,11 @@
       <c r="O211" s="2"/>
       <c r="P211" s="2"/>
     </row>
-    <row r="212" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A212" s="2"/>
-      <c r="B212" s="2"/>
-      <c r="C212" s="2"/>
-      <c r="D212" s="2"/>
+      <c r="B212" s="55"/>
+      <c r="C212" s="55"/>
+      <c r="D212" s="55"/>
       <c r="E212" s="2"/>
       <c r="F212" s="2"/>
       <c r="G212" s="2"/>
@@ -4645,11 +4967,11 @@
       <c r="O212" s="2"/>
       <c r="P212" s="2"/>
     </row>
-    <row r="213" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A213" s="2"/>
-      <c r="B213" s="2"/>
-      <c r="C213" s="2"/>
-      <c r="D213" s="2"/>
+      <c r="B213" s="55"/>
+      <c r="C213" s="55"/>
+      <c r="D213" s="55"/>
       <c r="E213" s="2"/>
       <c r="F213" s="2"/>
       <c r="G213" s="2"/>
@@ -4663,11 +4985,11 @@
       <c r="O213" s="2"/>
       <c r="P213" s="2"/>
     </row>
-    <row r="214" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A214" s="2"/>
-      <c r="B214" s="2"/>
-      <c r="C214" s="2"/>
-      <c r="D214" s="2"/>
+      <c r="B214" s="55"/>
+      <c r="C214" s="55"/>
+      <c r="D214" s="55"/>
       <c r="E214" s="2"/>
       <c r="F214" s="2"/>
       <c r="G214" s="2"/>
@@ -4681,11 +5003,11 @@
       <c r="O214" s="2"/>
       <c r="P214" s="2"/>
     </row>
-    <row r="215" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:16" ht="16" x14ac:dyDescent="0.15">
       <c r="A215" s="2"/>
-      <c r="B215" s="2"/>
-      <c r="C215" s="2"/>
-      <c r="D215" s="2"/>
+      <c r="B215" s="55"/>
+      <c r="C215" s="55"/>
+      <c r="D215" s="55"/>
       <c r="E215" s="2"/>
       <c r="F215" s="2"/>
       <c r="G215" s="2"/>
@@ -4713,152 +5035,160 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06401FC5-5005-49A2-9140-33193ABED079}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:4" ht="23" x14ac:dyDescent="0.15">
+      <c r="A1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-    </row>
-    <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+    </row>
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="13">
+    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.15">
+      <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="13"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
+      <c r="A4" s="11">
+        <v>1</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="13"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="13"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="13"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="13"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="13"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="13"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="13"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="13"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="13"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="13"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="13"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="14"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4870,184 +5200,294 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{253E7184-E062-40F0-A428-AA79917B4B7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.75" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="5.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="109" style="7" customWidth="1"/>
+    <col min="4" max="4" width="42.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.15">
+      <c r="A1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="13">
+      <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="13"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
+      <c r="A4" s="11">
+        <v>1</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
+      <c r="A5" s="11">
+        <v>2</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
+      <c r="A6" s="11">
+        <v>3</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="13"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
+      <c r="A7" s="11">
+        <v>4</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="13"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+      <c r="A8" s="11">
+        <v>5</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="13"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
+      <c r="A9" s="11">
+        <v>6</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="A10" s="11">
+        <v>7</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="13"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
+      <c r="A11" s="11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="13"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
+      <c r="A12" s="11">
+        <v>9</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="13"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
+      <c r="A13" s="11">
+        <v>10</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="13"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
+      <c r="A14" s="11">
+        <v>11</v>
+      </c>
+      <c r="B14" s="33"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="13"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
+      <c r="A15" s="11">
+        <v>12</v>
+      </c>
+      <c r="B15" s="33"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="13"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
+      <c r="A16" s="11">
+        <v>13</v>
+      </c>
+      <c r="B16" s="33"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="13"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
+      <c r="A17" s="11">
+        <v>14</v>
+      </c>
+      <c r="B17" s="33"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="13"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
+      <c r="A18" s="11">
+        <v>15</v>
+      </c>
+      <c r="B18" s="33"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="14"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="15"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5060,181 +5500,249 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949143DB-CAF6-450C-9F5A-9FA2FAF2207A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.33203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="61.83203125" customWidth="1"/>
+    <col min="5" max="5" width="38.83203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.15">
+      <c r="A1" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-    </row>
-    <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="18" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="13">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="35" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="13"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="22"/>
-    </row>
-    <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="22"/>
-    </row>
-    <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="22"/>
-    </row>
-    <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="13"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="22"/>
-    </row>
-    <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="13"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="22"/>
-    </row>
-    <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="13"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="22"/>
-    </row>
-    <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="22"/>
-    </row>
-    <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="13"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="22"/>
-    </row>
-    <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="13"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="22"/>
-    </row>
-    <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="13"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="22"/>
-    </row>
-    <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="13"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="22"/>
-    </row>
-    <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="13"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="22"/>
-    </row>
-    <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="13"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="22"/>
-    </row>
-    <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="13"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="22"/>
-    </row>
-    <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="13"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="22"/>
-    </row>
-    <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="14"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="23"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="11">
+        <v>1</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="11">
+        <v>2</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="11">
+        <v>3</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="11">
+        <v>4</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="59" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="11">
+        <v>5</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="11">
+        <v>6</v>
+      </c>
+      <c r="B9" s="33"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="45"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="11">
+        <v>7</v>
+      </c>
+      <c r="B10" s="33"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="45"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="33"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="45"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="11">
+        <v>9</v>
+      </c>
+      <c r="B12" s="33"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="45"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="11">
+        <v>10</v>
+      </c>
+      <c r="B13" s="33"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="45"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="11">
+        <v>11</v>
+      </c>
+      <c r="B14" s="33"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="45"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="11">
+        <v>12</v>
+      </c>
+      <c r="B15" s="33"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="45"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="11">
+        <v>13</v>
+      </c>
+      <c r="B16" s="33"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="45"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="11">
+        <v>14</v>
+      </c>
+      <c r="B17" s="33"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="45"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="11"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="45"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="12"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="46"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/开发和测试过程数据统计对照表.xlsx
+++ b/开发和测试过程数据统计对照表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Git\SE\Team109\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E98B9B5-B338-4DCB-9043-7ADD8FF4E940}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C650A6-436D-46B3-A9D0-839B68616365}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="对照表" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="213">
   <si>
     <t>2019春软件工程嵌入式开发和测试过程数据统计对照表</t>
   </si>
@@ -609,10 +609,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>009</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>015</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -622,6 +618,165 @@
   </si>
   <si>
     <t>针对views中的前端分页器index进行测试</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>ff2c8d4</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交不含数据库操作的日志模块</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>592,296 additions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0 deletions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>8b256b7</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>将上一个模块中的venv文件夹删去</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 additions and 591,678 deletions</t>
+  </si>
+  <si>
+    <t>7b8ef43</t>
+  </si>
+  <si>
+    <t>增加了查找重复的功能</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>952 additions and 73 deletions.</t>
+  </si>
+  <si>
+    <t>4175d7f</t>
+  </si>
+  <si>
+    <t>完善功能，增加小的单元测试</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>272 additions and 674 deletions.</t>
+  </si>
+  <si>
+    <t>7cc2c87</t>
+  </si>
+  <si>
+    <t>更改了views和models，删去小的测试部分</t>
+  </si>
+  <si>
+    <t>44 additions and 802 deletions.</t>
+  </si>
+  <si>
+    <t>bb544b9</t>
+  </si>
+  <si>
+    <t>更改了日志部分html，附带自己做html测试用文件</t>
+  </si>
+  <si>
+    <t>133 additions and 76 deletions.</t>
+  </si>
+  <si>
+    <t>e344ea5</t>
+  </si>
+  <si>
+    <t>增加了数据库models设定</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>80 additions and 406 deletions.</t>
+  </si>
+  <si>
+    <t>f85d714</t>
+  </si>
+  <si>
+    <t>增加了单元测试</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>62 additions and 0 deletions.</t>
+  </si>
+  <si>
+    <t>2c5577b</t>
+  </si>
+  <si>
+    <t>增加了新的单元测试</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>11 additions and 0 deletions.</t>
+  </si>
+  <si>
+    <t>30, 31, 32, 33, 34, 35, 36, 37, 38</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>016</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘博文</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>15，16</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -632,7 +787,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -721,6 +876,13 @@
       <sz val="12"/>
       <color rgb="FF24292E"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF24292E"/>
+      <name val="Microsoft YaHei Light"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -838,7 +1000,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -971,18 +1133,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1037,6 +1187,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1058,7 +1211,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1365,38 +1524,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P215"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.296875" style="52" customWidth="1"/>
-    <col min="2" max="2" width="14.19921875" style="73" customWidth="1"/>
-    <col min="3" max="3" width="18.69921875" style="73" customWidth="1"/>
-    <col min="4" max="4" width="16.296875" style="73" customWidth="1"/>
-    <col min="5" max="5" width="12.19921875" style="52" customWidth="1"/>
-    <col min="6" max="6" width="14.69921875" style="52" customWidth="1"/>
-    <col min="7" max="7" width="12.796875" style="52" customWidth="1"/>
-    <col min="8" max="8" width="16.296875" style="52" customWidth="1"/>
-    <col min="9" max="9" width="12.19921875" style="52" customWidth="1"/>
-    <col min="10" max="10" width="10.69921875" style="52" customWidth="1"/>
-    <col min="11" max="11" width="11" style="52" customWidth="1"/>
-    <col min="12" max="12" width="10.5" style="52" customWidth="1"/>
-    <col min="13" max="13" width="11.19921875" style="52" customWidth="1"/>
-    <col min="14" max="16" width="12.796875" style="52" customWidth="1"/>
-    <col min="17" max="16384" width="8.69921875" style="52"/>
+    <col min="1" max="1" width="16.296875" style="48" customWidth="1"/>
+    <col min="2" max="2" width="14.19921875" style="62" customWidth="1"/>
+    <col min="3" max="3" width="49" style="62" customWidth="1"/>
+    <col min="4" max="4" width="16.296875" style="62" customWidth="1"/>
+    <col min="5" max="5" width="12.19921875" style="48" customWidth="1"/>
+    <col min="6" max="6" width="14.69921875" style="48" customWidth="1"/>
+    <col min="7" max="7" width="12.796875" style="48" customWidth="1"/>
+    <col min="8" max="8" width="16.296875" style="48" customWidth="1"/>
+    <col min="9" max="9" width="12.19921875" style="48" customWidth="1"/>
+    <col min="10" max="10" width="10.69921875" style="48" customWidth="1"/>
+    <col min="11" max="11" width="11" style="48" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="48" customWidth="1"/>
+    <col min="13" max="13" width="11.19921875" style="48" customWidth="1"/>
+    <col min="14" max="16" width="12.796875" style="48" customWidth="1"/>
+    <col min="17" max="16384" width="8.69921875" style="48"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="22.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="34"/>
@@ -1599,14 +1758,18 @@
       <c r="P13" s="42"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="31">
+      <c r="A14" s="70">
         <v>4</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="71" t="s">
         <v>177</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
+      <c r="C14" s="72" t="s">
+        <v>209</v>
+      </c>
+      <c r="D14" s="72" t="s">
+        <v>212</v>
+      </c>
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
       <c r="G14" s="42"/>
@@ -1621,10 +1784,10 @@
       <c r="P14" s="42"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="47"/>
+      <c r="A15" s="70"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
       <c r="G15" s="42"/>
@@ -1639,10 +1802,10 @@
       <c r="P15" s="42"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="48"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="49"/>
+      <c r="A16" s="70"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
       <c r="E16" s="42"/>
       <c r="F16" s="42"/>
       <c r="G16" s="42"/>
@@ -1657,10 +1820,10 @@
       <c r="P16" s="42"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="48"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="49"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="45"/>
       <c r="E17" s="42"/>
       <c r="F17" s="42"/>
       <c r="G17" s="42"/>
@@ -1687,14 +1850,14 @@
       <c r="P18" s="42"/>
     </row>
     <row r="19" spans="1:16" ht="22.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="66" t="s">
+      <c r="A19" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
       <c r="G19" s="42"/>
       <c r="H19" s="42"/>
       <c r="I19" s="42"/>
@@ -1775,10 +1938,10 @@
       <c r="P22" s="42"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="48"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="49"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="45"/>
       <c r="E23" s="42"/>
       <c r="F23" s="42"/>
       <c r="G23" s="42"/>
@@ -1796,13 +1959,13 @@
       <c r="A24" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="67" t="s">
+      <c r="B24" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="69"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="66"/>
       <c r="G24" s="42"/>
       <c r="H24" s="42"/>
       <c r="I24" s="42"/>
@@ -1818,13 +1981,13 @@
       <c r="A25" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="67" t="s">
+      <c r="B25" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="68"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="69"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="66"/>
       <c r="G25" s="42"/>
       <c r="H25" s="42"/>
       <c r="I25" s="42"/>
@@ -1838,9 +2001,9 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="42"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
       <c r="E26" s="42"/>
       <c r="F26" s="42"/>
       <c r="G26" s="42"/>
@@ -1856,9 +2019,9 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="42"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
       <c r="E27" s="42"/>
       <c r="F27" s="42"/>
       <c r="G27" s="42"/>
@@ -1874,9 +2037,9 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="42"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
       <c r="E28" s="42"/>
       <c r="F28" s="42"/>
       <c r="G28" s="42"/>
@@ -1892,9 +2055,9 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="42"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
       <c r="E29" s="42"/>
       <c r="F29" s="42"/>
       <c r="G29" s="42"/>
@@ -1910,9 +2073,9 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="42"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
       <c r="E30" s="42"/>
       <c r="F30" s="42"/>
       <c r="G30" s="42"/>
@@ -1928,9 +2091,9 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="42"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
       <c r="E31" s="42"/>
       <c r="F31" s="42"/>
       <c r="G31" s="42"/>
@@ -1946,9 +2109,9 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="42"/>
-      <c r="B32" s="51"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
       <c r="E32" s="42"/>
       <c r="F32" s="42"/>
       <c r="G32" s="42"/>
@@ -1964,9 +2127,9 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="42"/>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
       <c r="E33" s="42"/>
       <c r="F33" s="42"/>
       <c r="G33" s="42"/>
@@ -1982,9 +2145,9 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="42"/>
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
       <c r="E34" s="42"/>
       <c r="F34" s="42"/>
       <c r="G34" s="42"/>
@@ -2000,9 +2163,9 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="42"/>
-      <c r="B35" s="51"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
       <c r="E35" s="42"/>
       <c r="F35" s="42"/>
       <c r="G35" s="42"/>
@@ -2018,9 +2181,9 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="42"/>
-      <c r="B36" s="51"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
       <c r="E36" s="42"/>
       <c r="F36" s="42"/>
       <c r="G36" s="42"/>
@@ -2036,9 +2199,9 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="42"/>
-      <c r="B37" s="51"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
       <c r="E37" s="42"/>
       <c r="F37" s="42"/>
       <c r="G37" s="42"/>
@@ -2054,9 +2217,9 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="42"/>
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
       <c r="E38" s="42"/>
       <c r="F38" s="42"/>
       <c r="G38" s="42"/>
@@ -2072,9 +2235,9 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="42"/>
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
       <c r="E39" s="42"/>
       <c r="F39" s="42"/>
       <c r="G39" s="42"/>
@@ -2090,9 +2253,9 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="42"/>
-      <c r="B40" s="51"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
       <c r="E40" s="42"/>
       <c r="F40" s="42"/>
       <c r="G40" s="42"/>
@@ -2108,9 +2271,9 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="42"/>
-      <c r="B41" s="51"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
       <c r="E41" s="42"/>
       <c r="F41" s="42"/>
       <c r="G41" s="42"/>
@@ -2126,9 +2289,9 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="42"/>
-      <c r="B42" s="51"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
       <c r="E42" s="42"/>
       <c r="F42" s="42"/>
       <c r="G42" s="42"/>
@@ -2144,9 +2307,9 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="42"/>
-      <c r="B43" s="51"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="47"/>
       <c r="E43" s="42"/>
       <c r="F43" s="42"/>
       <c r="G43" s="42"/>
@@ -2162,9 +2325,9 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="42"/>
-      <c r="B44" s="51"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
       <c r="E44" s="42"/>
       <c r="F44" s="42"/>
       <c r="G44" s="42"/>
@@ -2180,9 +2343,9 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="42"/>
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="47"/>
       <c r="E45" s="42"/>
       <c r="F45" s="42"/>
       <c r="G45" s="42"/>
@@ -2198,9 +2361,9 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="42"/>
-      <c r="B46" s="51"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="47"/>
       <c r="E46" s="42"/>
       <c r="F46" s="42"/>
       <c r="G46" s="42"/>
@@ -2216,9 +2379,9 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="42"/>
-      <c r="B47" s="51"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
       <c r="E47" s="42"/>
       <c r="F47" s="42"/>
       <c r="G47" s="42"/>
@@ -2234,9 +2397,9 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="42"/>
-      <c r="B48" s="51"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
       <c r="E48" s="42"/>
       <c r="F48" s="42"/>
       <c r="G48" s="42"/>
@@ -2252,9 +2415,9 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="42"/>
-      <c r="B49" s="51"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="51"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="47"/>
       <c r="E49" s="42"/>
       <c r="F49" s="42"/>
       <c r="G49" s="42"/>
@@ -2270,9 +2433,9 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="42"/>
-      <c r="B50" s="51"/>
-      <c r="C50" s="51"/>
-      <c r="D50" s="51"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="47"/>
       <c r="E50" s="42"/>
       <c r="F50" s="42"/>
       <c r="G50" s="42"/>
@@ -2288,9 +2451,9 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="42"/>
-      <c r="B51" s="51"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="47"/>
       <c r="E51" s="42"/>
       <c r="F51" s="42"/>
       <c r="G51" s="42"/>
@@ -2306,9 +2469,9 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="42"/>
-      <c r="B52" s="51"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="47"/>
+      <c r="D52" s="47"/>
       <c r="E52" s="42"/>
       <c r="F52" s="42"/>
       <c r="G52" s="42"/>
@@ -2324,9 +2487,9 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="42"/>
-      <c r="B53" s="51"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="51"/>
+      <c r="B53" s="47"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="47"/>
       <c r="E53" s="42"/>
       <c r="F53" s="42"/>
       <c r="G53" s="42"/>
@@ -2342,9 +2505,9 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="42"/>
-      <c r="B54" s="51"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="51"/>
+      <c r="B54" s="47"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="47"/>
       <c r="E54" s="42"/>
       <c r="F54" s="42"/>
       <c r="G54" s="42"/>
@@ -2360,9 +2523,9 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="42"/>
-      <c r="B55" s="51"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51"/>
+      <c r="B55" s="47"/>
+      <c r="C55" s="47"/>
+      <c r="D55" s="47"/>
       <c r="E55" s="42"/>
       <c r="F55" s="42"/>
       <c r="G55" s="42"/>
@@ -2378,9 +2541,9 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="42"/>
-      <c r="B56" s="51"/>
-      <c r="C56" s="51"/>
-      <c r="D56" s="51"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="47"/>
+      <c r="D56" s="47"/>
       <c r="E56" s="42"/>
       <c r="F56" s="42"/>
       <c r="G56" s="42"/>
@@ -2396,9 +2559,9 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="42"/>
-      <c r="B57" s="51"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="47"/>
       <c r="E57" s="42"/>
       <c r="F57" s="42"/>
       <c r="G57" s="42"/>
@@ -2414,9 +2577,9 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="42"/>
-      <c r="B58" s="51"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="51"/>
+      <c r="B58" s="47"/>
+      <c r="C58" s="47"/>
+      <c r="D58" s="47"/>
       <c r="E58" s="42"/>
       <c r="F58" s="42"/>
       <c r="G58" s="42"/>
@@ -2432,9 +2595,9 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="42"/>
-      <c r="B59" s="51"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="51"/>
+      <c r="B59" s="47"/>
+      <c r="C59" s="47"/>
+      <c r="D59" s="47"/>
       <c r="E59" s="42"/>
       <c r="F59" s="42"/>
       <c r="G59" s="42"/>
@@ -2450,9 +2613,9 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="42"/>
-      <c r="B60" s="51"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="51"/>
+      <c r="B60" s="47"/>
+      <c r="C60" s="47"/>
+      <c r="D60" s="47"/>
       <c r="E60" s="42"/>
       <c r="F60" s="42"/>
       <c r="G60" s="42"/>
@@ -2468,9 +2631,9 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="42"/>
-      <c r="B61" s="51"/>
-      <c r="C61" s="51"/>
-      <c r="D61" s="51"/>
+      <c r="B61" s="47"/>
+      <c r="C61" s="47"/>
+      <c r="D61" s="47"/>
       <c r="E61" s="42"/>
       <c r="F61" s="42"/>
       <c r="G61" s="42"/>
@@ -2486,9 +2649,9 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="42"/>
-      <c r="B62" s="51"/>
-      <c r="C62" s="51"/>
-      <c r="D62" s="51"/>
+      <c r="B62" s="47"/>
+      <c r="C62" s="47"/>
+      <c r="D62" s="47"/>
       <c r="E62" s="42"/>
       <c r="F62" s="42"/>
       <c r="G62" s="42"/>
@@ -2504,9 +2667,9 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="42"/>
-      <c r="B63" s="51"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51"/>
+      <c r="B63" s="47"/>
+      <c r="C63" s="47"/>
+      <c r="D63" s="47"/>
       <c r="E63" s="42"/>
       <c r="F63" s="42"/>
       <c r="G63" s="42"/>
@@ -2522,9 +2685,9 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="42"/>
-      <c r="B64" s="51"/>
-      <c r="C64" s="51"/>
-      <c r="D64" s="51"/>
+      <c r="B64" s="47"/>
+      <c r="C64" s="47"/>
+      <c r="D64" s="47"/>
       <c r="E64" s="42"/>
       <c r="F64" s="42"/>
       <c r="G64" s="42"/>
@@ -2540,9 +2703,9 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="42"/>
-      <c r="B65" s="51"/>
-      <c r="C65" s="51"/>
-      <c r="D65" s="51"/>
+      <c r="B65" s="47"/>
+      <c r="C65" s="47"/>
+      <c r="D65" s="47"/>
       <c r="E65" s="42"/>
       <c r="F65" s="42"/>
       <c r="G65" s="42"/>
@@ -2558,9 +2721,9 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="42"/>
-      <c r="B66" s="51"/>
-      <c r="C66" s="51"/>
-      <c r="D66" s="51"/>
+      <c r="B66" s="47"/>
+      <c r="C66" s="47"/>
+      <c r="D66" s="47"/>
       <c r="E66" s="42"/>
       <c r="F66" s="42"/>
       <c r="G66" s="42"/>
@@ -2576,9 +2739,9 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="42"/>
-      <c r="B67" s="51"/>
-      <c r="C67" s="51"/>
-      <c r="D67" s="51"/>
+      <c r="B67" s="47"/>
+      <c r="C67" s="47"/>
+      <c r="D67" s="47"/>
       <c r="E67" s="42"/>
       <c r="F67" s="42"/>
       <c r="G67" s="42"/>
@@ -2594,9 +2757,9 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="42"/>
-      <c r="B68" s="51"/>
-      <c r="C68" s="51"/>
-      <c r="D68" s="51"/>
+      <c r="B68" s="47"/>
+      <c r="C68" s="47"/>
+      <c r="D68" s="47"/>
       <c r="E68" s="42"/>
       <c r="F68" s="42"/>
       <c r="G68" s="42"/>
@@ -2612,9 +2775,9 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="42"/>
-      <c r="B69" s="51"/>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
+      <c r="B69" s="47"/>
+      <c r="C69" s="47"/>
+      <c r="D69" s="47"/>
       <c r="E69" s="42"/>
       <c r="F69" s="42"/>
       <c r="G69" s="42"/>
@@ -2630,9 +2793,9 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="42"/>
-      <c r="B70" s="51"/>
-      <c r="C70" s="51"/>
-      <c r="D70" s="51"/>
+      <c r="B70" s="47"/>
+      <c r="C70" s="47"/>
+      <c r="D70" s="47"/>
       <c r="E70" s="42"/>
       <c r="F70" s="42"/>
       <c r="G70" s="42"/>
@@ -2648,9 +2811,9 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="42"/>
-      <c r="B71" s="51"/>
-      <c r="C71" s="51"/>
-      <c r="D71" s="51"/>
+      <c r="B71" s="47"/>
+      <c r="C71" s="47"/>
+      <c r="D71" s="47"/>
       <c r="E71" s="42"/>
       <c r="F71" s="42"/>
       <c r="G71" s="42"/>
@@ -2666,9 +2829,9 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="42"/>
-      <c r="B72" s="51"/>
-      <c r="C72" s="51"/>
-      <c r="D72" s="51"/>
+      <c r="B72" s="47"/>
+      <c r="C72" s="47"/>
+      <c r="D72" s="47"/>
       <c r="E72" s="42"/>
       <c r="F72" s="42"/>
       <c r="G72" s="42"/>
@@ -2684,9 +2847,9 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="42"/>
-      <c r="B73" s="51"/>
-      <c r="C73" s="51"/>
-      <c r="D73" s="51"/>
+      <c r="B73" s="47"/>
+      <c r="C73" s="47"/>
+      <c r="D73" s="47"/>
       <c r="E73" s="42"/>
       <c r="F73" s="42"/>
       <c r="G73" s="42"/>
@@ -2702,9 +2865,9 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="42"/>
-      <c r="B74" s="51"/>
-      <c r="C74" s="51"/>
-      <c r="D74" s="51"/>
+      <c r="B74" s="47"/>
+      <c r="C74" s="47"/>
+      <c r="D74" s="47"/>
       <c r="E74" s="42"/>
       <c r="F74" s="42"/>
       <c r="G74" s="42"/>
@@ -2720,9 +2883,9 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="42"/>
-      <c r="B75" s="51"/>
-      <c r="C75" s="51"/>
-      <c r="D75" s="51"/>
+      <c r="B75" s="47"/>
+      <c r="C75" s="47"/>
+      <c r="D75" s="47"/>
       <c r="E75" s="42"/>
       <c r="F75" s="42"/>
       <c r="G75" s="42"/>
@@ -2738,9 +2901,9 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="42"/>
-      <c r="B76" s="51"/>
-      <c r="C76" s="51"/>
-      <c r="D76" s="51"/>
+      <c r="B76" s="47"/>
+      <c r="C76" s="47"/>
+      <c r="D76" s="47"/>
       <c r="E76" s="42"/>
       <c r="F76" s="42"/>
       <c r="G76" s="42"/>
@@ -2756,9 +2919,9 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="42"/>
-      <c r="B77" s="51"/>
-      <c r="C77" s="51"/>
-      <c r="D77" s="51"/>
+      <c r="B77" s="47"/>
+      <c r="C77" s="47"/>
+      <c r="D77" s="47"/>
       <c r="E77" s="42"/>
       <c r="F77" s="42"/>
       <c r="G77" s="42"/>
@@ -2774,9 +2937,9 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="42"/>
-      <c r="B78" s="51"/>
-      <c r="C78" s="51"/>
-      <c r="D78" s="51"/>
+      <c r="B78" s="47"/>
+      <c r="C78" s="47"/>
+      <c r="D78" s="47"/>
       <c r="E78" s="42"/>
       <c r="F78" s="42"/>
       <c r="G78" s="42"/>
@@ -2792,9 +2955,9 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="42"/>
-      <c r="B79" s="51"/>
-      <c r="C79" s="51"/>
-      <c r="D79" s="51"/>
+      <c r="B79" s="47"/>
+      <c r="C79" s="47"/>
+      <c r="D79" s="47"/>
       <c r="E79" s="42"/>
       <c r="F79" s="42"/>
       <c r="G79" s="42"/>
@@ -2810,9 +2973,9 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="42"/>
-      <c r="B80" s="51"/>
-      <c r="C80" s="51"/>
-      <c r="D80" s="51"/>
+      <c r="B80" s="47"/>
+      <c r="C80" s="47"/>
+      <c r="D80" s="47"/>
       <c r="E80" s="42"/>
       <c r="F80" s="42"/>
       <c r="G80" s="42"/>
@@ -2828,9 +2991,9 @@
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="42"/>
-      <c r="B81" s="51"/>
-      <c r="C81" s="51"/>
-      <c r="D81" s="51"/>
+      <c r="B81" s="47"/>
+      <c r="C81" s="47"/>
+      <c r="D81" s="47"/>
       <c r="E81" s="42"/>
       <c r="F81" s="42"/>
       <c r="G81" s="42"/>
@@ -2846,9 +3009,9 @@
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="42"/>
-      <c r="B82" s="51"/>
-      <c r="C82" s="51"/>
-      <c r="D82" s="51"/>
+      <c r="B82" s="47"/>
+      <c r="C82" s="47"/>
+      <c r="D82" s="47"/>
       <c r="E82" s="42"/>
       <c r="F82" s="42"/>
       <c r="G82" s="42"/>
@@ -2864,9 +3027,9 @@
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="42"/>
-      <c r="B83" s="51"/>
-      <c r="C83" s="51"/>
-      <c r="D83" s="51"/>
+      <c r="B83" s="47"/>
+      <c r="C83" s="47"/>
+      <c r="D83" s="47"/>
       <c r="E83" s="42"/>
       <c r="F83" s="42"/>
       <c r="G83" s="42"/>
@@ -2882,9 +3045,9 @@
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="42"/>
-      <c r="B84" s="51"/>
-      <c r="C84" s="51"/>
-      <c r="D84" s="51"/>
+      <c r="B84" s="47"/>
+      <c r="C84" s="47"/>
+      <c r="D84" s="47"/>
       <c r="E84" s="42"/>
       <c r="F84" s="42"/>
       <c r="G84" s="42"/>
@@ -2900,9 +3063,9 @@
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="42"/>
-      <c r="B85" s="51"/>
-      <c r="C85" s="51"/>
-      <c r="D85" s="51"/>
+      <c r="B85" s="47"/>
+      <c r="C85" s="47"/>
+      <c r="D85" s="47"/>
       <c r="E85" s="42"/>
       <c r="F85" s="42"/>
       <c r="G85" s="42"/>
@@ -2918,9 +3081,9 @@
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="42"/>
-      <c r="B86" s="51"/>
-      <c r="C86" s="51"/>
-      <c r="D86" s="51"/>
+      <c r="B86" s="47"/>
+      <c r="C86" s="47"/>
+      <c r="D86" s="47"/>
       <c r="E86" s="42"/>
       <c r="F86" s="42"/>
       <c r="G86" s="42"/>
@@ -2936,9 +3099,9 @@
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="42"/>
-      <c r="B87" s="51"/>
-      <c r="C87" s="51"/>
-      <c r="D87" s="51"/>
+      <c r="B87" s="47"/>
+      <c r="C87" s="47"/>
+      <c r="D87" s="47"/>
       <c r="E87" s="42"/>
       <c r="F87" s="42"/>
       <c r="G87" s="42"/>
@@ -2954,9 +3117,9 @@
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="42"/>
-      <c r="B88" s="51"/>
-      <c r="C88" s="51"/>
-      <c r="D88" s="51"/>
+      <c r="B88" s="47"/>
+      <c r="C88" s="47"/>
+      <c r="D88" s="47"/>
       <c r="E88" s="42"/>
       <c r="F88" s="42"/>
       <c r="G88" s="42"/>
@@ -2972,9 +3135,9 @@
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="42"/>
-      <c r="B89" s="51"/>
-      <c r="C89" s="51"/>
-      <c r="D89" s="51"/>
+      <c r="B89" s="47"/>
+      <c r="C89" s="47"/>
+      <c r="D89" s="47"/>
       <c r="E89" s="42"/>
       <c r="F89" s="42"/>
       <c r="G89" s="42"/>
@@ -2990,9 +3153,9 @@
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="42"/>
-      <c r="B90" s="51"/>
-      <c r="C90" s="51"/>
-      <c r="D90" s="51"/>
+      <c r="B90" s="47"/>
+      <c r="C90" s="47"/>
+      <c r="D90" s="47"/>
       <c r="E90" s="42"/>
       <c r="F90" s="42"/>
       <c r="G90" s="42"/>
@@ -3008,9 +3171,9 @@
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="42"/>
-      <c r="B91" s="51"/>
-      <c r="C91" s="51"/>
-      <c r="D91" s="51"/>
+      <c r="B91" s="47"/>
+      <c r="C91" s="47"/>
+      <c r="D91" s="47"/>
       <c r="E91" s="42"/>
       <c r="F91" s="42"/>
       <c r="G91" s="42"/>
@@ -3026,9 +3189,9 @@
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="42"/>
-      <c r="B92" s="51"/>
-      <c r="C92" s="51"/>
-      <c r="D92" s="51"/>
+      <c r="B92" s="47"/>
+      <c r="C92" s="47"/>
+      <c r="D92" s="47"/>
       <c r="E92" s="42"/>
       <c r="F92" s="42"/>
       <c r="G92" s="42"/>
@@ -3044,9 +3207,9 @@
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="42"/>
-      <c r="B93" s="51"/>
-      <c r="C93" s="51"/>
-      <c r="D93" s="51"/>
+      <c r="B93" s="47"/>
+      <c r="C93" s="47"/>
+      <c r="D93" s="47"/>
       <c r="E93" s="42"/>
       <c r="F93" s="42"/>
       <c r="G93" s="42"/>
@@ -3062,9 +3225,9 @@
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="42"/>
-      <c r="B94" s="51"/>
-      <c r="C94" s="51"/>
-      <c r="D94" s="51"/>
+      <c r="B94" s="47"/>
+      <c r="C94" s="47"/>
+      <c r="D94" s="47"/>
       <c r="E94" s="42"/>
       <c r="F94" s="42"/>
       <c r="G94" s="42"/>
@@ -3080,9 +3243,9 @@
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="42"/>
-      <c r="B95" s="51"/>
-      <c r="C95" s="51"/>
-      <c r="D95" s="51"/>
+      <c r="B95" s="47"/>
+      <c r="C95" s="47"/>
+      <c r="D95" s="47"/>
       <c r="E95" s="42"/>
       <c r="F95" s="42"/>
       <c r="G95" s="42"/>
@@ -3098,9 +3261,9 @@
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="42"/>
-      <c r="B96" s="51"/>
-      <c r="C96" s="51"/>
-      <c r="D96" s="51"/>
+      <c r="B96" s="47"/>
+      <c r="C96" s="47"/>
+      <c r="D96" s="47"/>
       <c r="E96" s="42"/>
       <c r="F96" s="42"/>
       <c r="G96" s="42"/>
@@ -3116,9 +3279,9 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="42"/>
-      <c r="B97" s="51"/>
-      <c r="C97" s="51"/>
-      <c r="D97" s="51"/>
+      <c r="B97" s="47"/>
+      <c r="C97" s="47"/>
+      <c r="D97" s="47"/>
       <c r="E97" s="42"/>
       <c r="F97" s="42"/>
       <c r="G97" s="42"/>
@@ -3134,9 +3297,9 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="42"/>
-      <c r="B98" s="51"/>
-      <c r="C98" s="51"/>
-      <c r="D98" s="51"/>
+      <c r="B98" s="47"/>
+      <c r="C98" s="47"/>
+      <c r="D98" s="47"/>
       <c r="E98" s="42"/>
       <c r="F98" s="42"/>
       <c r="G98" s="42"/>
@@ -3152,9 +3315,9 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="42"/>
-      <c r="B99" s="51"/>
-      <c r="C99" s="51"/>
-      <c r="D99" s="51"/>
+      <c r="B99" s="47"/>
+      <c r="C99" s="47"/>
+      <c r="D99" s="47"/>
       <c r="E99" s="42"/>
       <c r="F99" s="42"/>
       <c r="G99" s="42"/>
@@ -3170,9 +3333,9 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="42"/>
-      <c r="B100" s="51"/>
-      <c r="C100" s="51"/>
-      <c r="D100" s="51"/>
+      <c r="B100" s="47"/>
+      <c r="C100" s="47"/>
+      <c r="D100" s="47"/>
       <c r="E100" s="42"/>
       <c r="F100" s="42"/>
       <c r="G100" s="42"/>
@@ -3188,9 +3351,9 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="42"/>
-      <c r="B101" s="51"/>
-      <c r="C101" s="51"/>
-      <c r="D101" s="51"/>
+      <c r="B101" s="47"/>
+      <c r="C101" s="47"/>
+      <c r="D101" s="47"/>
       <c r="E101" s="42"/>
       <c r="F101" s="42"/>
       <c r="G101" s="42"/>
@@ -3206,9 +3369,9 @@
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="42"/>
-      <c r="B102" s="51"/>
-      <c r="C102" s="51"/>
-      <c r="D102" s="51"/>
+      <c r="B102" s="47"/>
+      <c r="C102" s="47"/>
+      <c r="D102" s="47"/>
       <c r="E102" s="42"/>
       <c r="F102" s="42"/>
       <c r="G102" s="42"/>
@@ -3224,9 +3387,9 @@
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="42"/>
-      <c r="B103" s="51"/>
-      <c r="C103" s="51"/>
-      <c r="D103" s="51"/>
+      <c r="B103" s="47"/>
+      <c r="C103" s="47"/>
+      <c r="D103" s="47"/>
       <c r="E103" s="42"/>
       <c r="F103" s="42"/>
       <c r="G103" s="42"/>
@@ -3242,9 +3405,9 @@
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="42"/>
-      <c r="B104" s="51"/>
-      <c r="C104" s="51"/>
-      <c r="D104" s="51"/>
+      <c r="B104" s="47"/>
+      <c r="C104" s="47"/>
+      <c r="D104" s="47"/>
       <c r="E104" s="42"/>
       <c r="F104" s="42"/>
       <c r="G104" s="42"/>
@@ -3260,9 +3423,9 @@
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="42"/>
-      <c r="B105" s="51"/>
-      <c r="C105" s="51"/>
-      <c r="D105" s="51"/>
+      <c r="B105" s="47"/>
+      <c r="C105" s="47"/>
+      <c r="D105" s="47"/>
       <c r="E105" s="42"/>
       <c r="F105" s="42"/>
       <c r="G105" s="42"/>
@@ -3278,9 +3441,9 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" s="42"/>
-      <c r="B106" s="51"/>
-      <c r="C106" s="51"/>
-      <c r="D106" s="51"/>
+      <c r="B106" s="47"/>
+      <c r="C106" s="47"/>
+      <c r="D106" s="47"/>
       <c r="E106" s="42"/>
       <c r="F106" s="42"/>
       <c r="G106" s="42"/>
@@ -3296,9 +3459,9 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="42"/>
-      <c r="B107" s="51"/>
-      <c r="C107" s="51"/>
-      <c r="D107" s="51"/>
+      <c r="B107" s="47"/>
+      <c r="C107" s="47"/>
+      <c r="D107" s="47"/>
       <c r="E107" s="42"/>
       <c r="F107" s="42"/>
       <c r="G107" s="42"/>
@@ -3314,9 +3477,9 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" s="42"/>
-      <c r="B108" s="51"/>
-      <c r="C108" s="51"/>
-      <c r="D108" s="51"/>
+      <c r="B108" s="47"/>
+      <c r="C108" s="47"/>
+      <c r="D108" s="47"/>
       <c r="E108" s="42"/>
       <c r="F108" s="42"/>
       <c r="G108" s="42"/>
@@ -3332,9 +3495,9 @@
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="42"/>
-      <c r="B109" s="51"/>
-      <c r="C109" s="51"/>
-      <c r="D109" s="51"/>
+      <c r="B109" s="47"/>
+      <c r="C109" s="47"/>
+      <c r="D109" s="47"/>
       <c r="E109" s="42"/>
       <c r="F109" s="42"/>
       <c r="G109" s="42"/>
@@ -3350,9 +3513,9 @@
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="42"/>
-      <c r="B110" s="51"/>
-      <c r="C110" s="51"/>
-      <c r="D110" s="51"/>
+      <c r="B110" s="47"/>
+      <c r="C110" s="47"/>
+      <c r="D110" s="47"/>
       <c r="E110" s="42"/>
       <c r="F110" s="42"/>
       <c r="G110" s="42"/>
@@ -3368,9 +3531,9 @@
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="42"/>
-      <c r="B111" s="51"/>
-      <c r="C111" s="51"/>
-      <c r="D111" s="51"/>
+      <c r="B111" s="47"/>
+      <c r="C111" s="47"/>
+      <c r="D111" s="47"/>
       <c r="E111" s="42"/>
       <c r="F111" s="42"/>
       <c r="G111" s="42"/>
@@ -3386,9 +3549,9 @@
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="42"/>
-      <c r="B112" s="51"/>
-      <c r="C112" s="51"/>
-      <c r="D112" s="51"/>
+      <c r="B112" s="47"/>
+      <c r="C112" s="47"/>
+      <c r="D112" s="47"/>
       <c r="E112" s="42"/>
       <c r="F112" s="42"/>
       <c r="G112" s="42"/>
@@ -3404,9 +3567,9 @@
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="42"/>
-      <c r="B113" s="51"/>
-      <c r="C113" s="51"/>
-      <c r="D113" s="51"/>
+      <c r="B113" s="47"/>
+      <c r="C113" s="47"/>
+      <c r="D113" s="47"/>
       <c r="E113" s="42"/>
       <c r="F113" s="42"/>
       <c r="G113" s="42"/>
@@ -3422,9 +3585,9 @@
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="42"/>
-      <c r="B114" s="51"/>
-      <c r="C114" s="51"/>
-      <c r="D114" s="51"/>
+      <c r="B114" s="47"/>
+      <c r="C114" s="47"/>
+      <c r="D114" s="47"/>
       <c r="E114" s="42"/>
       <c r="F114" s="42"/>
       <c r="G114" s="42"/>
@@ -3440,9 +3603,9 @@
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="42"/>
-      <c r="B115" s="51"/>
-      <c r="C115" s="51"/>
-      <c r="D115" s="51"/>
+      <c r="B115" s="47"/>
+      <c r="C115" s="47"/>
+      <c r="D115" s="47"/>
       <c r="E115" s="42"/>
       <c r="F115" s="42"/>
       <c r="G115" s="42"/>
@@ -3458,9 +3621,9 @@
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" s="42"/>
-      <c r="B116" s="51"/>
-      <c r="C116" s="51"/>
-      <c r="D116" s="51"/>
+      <c r="B116" s="47"/>
+      <c r="C116" s="47"/>
+      <c r="D116" s="47"/>
       <c r="E116" s="42"/>
       <c r="F116" s="42"/>
       <c r="G116" s="42"/>
@@ -3476,9 +3639,9 @@
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" s="42"/>
-      <c r="B117" s="51"/>
-      <c r="C117" s="51"/>
-      <c r="D117" s="51"/>
+      <c r="B117" s="47"/>
+      <c r="C117" s="47"/>
+      <c r="D117" s="47"/>
       <c r="E117" s="42"/>
       <c r="F117" s="42"/>
       <c r="G117" s="42"/>
@@ -3494,9 +3657,9 @@
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" s="42"/>
-      <c r="B118" s="51"/>
-      <c r="C118" s="51"/>
-      <c r="D118" s="51"/>
+      <c r="B118" s="47"/>
+      <c r="C118" s="47"/>
+      <c r="D118" s="47"/>
       <c r="E118" s="42"/>
       <c r="F118" s="42"/>
       <c r="G118" s="42"/>
@@ -3512,9 +3675,9 @@
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" s="42"/>
-      <c r="B119" s="51"/>
-      <c r="C119" s="51"/>
-      <c r="D119" s="51"/>
+      <c r="B119" s="47"/>
+      <c r="C119" s="47"/>
+      <c r="D119" s="47"/>
       <c r="E119" s="42"/>
       <c r="F119" s="42"/>
       <c r="G119" s="42"/>
@@ -3530,9 +3693,9 @@
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" s="42"/>
-      <c r="B120" s="51"/>
-      <c r="C120" s="51"/>
-      <c r="D120" s="51"/>
+      <c r="B120" s="47"/>
+      <c r="C120" s="47"/>
+      <c r="D120" s="47"/>
       <c r="E120" s="42"/>
       <c r="F120" s="42"/>
       <c r="G120" s="42"/>
@@ -3548,9 +3711,9 @@
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" s="42"/>
-      <c r="B121" s="51"/>
-      <c r="C121" s="51"/>
-      <c r="D121" s="51"/>
+      <c r="B121" s="47"/>
+      <c r="C121" s="47"/>
+      <c r="D121" s="47"/>
       <c r="E121" s="42"/>
       <c r="F121" s="42"/>
       <c r="G121" s="42"/>
@@ -3566,9 +3729,9 @@
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" s="42"/>
-      <c r="B122" s="51"/>
-      <c r="C122" s="51"/>
-      <c r="D122" s="51"/>
+      <c r="B122" s="47"/>
+      <c r="C122" s="47"/>
+      <c r="D122" s="47"/>
       <c r="E122" s="42"/>
       <c r="F122" s="42"/>
       <c r="G122" s="42"/>
@@ -3584,9 +3747,9 @@
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" s="42"/>
-      <c r="B123" s="51"/>
-      <c r="C123" s="51"/>
-      <c r="D123" s="51"/>
+      <c r="B123" s="47"/>
+      <c r="C123" s="47"/>
+      <c r="D123" s="47"/>
       <c r="E123" s="42"/>
       <c r="F123" s="42"/>
       <c r="G123" s="42"/>
@@ -3602,9 +3765,9 @@
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" s="42"/>
-      <c r="B124" s="51"/>
-      <c r="C124" s="51"/>
-      <c r="D124" s="51"/>
+      <c r="B124" s="47"/>
+      <c r="C124" s="47"/>
+      <c r="D124" s="47"/>
       <c r="E124" s="42"/>
       <c r="F124" s="42"/>
       <c r="G124" s="42"/>
@@ -3620,9 +3783,9 @@
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" s="42"/>
-      <c r="B125" s="51"/>
-      <c r="C125" s="51"/>
-      <c r="D125" s="51"/>
+      <c r="B125" s="47"/>
+      <c r="C125" s="47"/>
+      <c r="D125" s="47"/>
       <c r="E125" s="42"/>
       <c r="F125" s="42"/>
       <c r="G125" s="42"/>
@@ -3638,9 +3801,9 @@
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" s="42"/>
-      <c r="B126" s="51"/>
-      <c r="C126" s="51"/>
-      <c r="D126" s="51"/>
+      <c r="B126" s="47"/>
+      <c r="C126" s="47"/>
+      <c r="D126" s="47"/>
       <c r="E126" s="42"/>
       <c r="F126" s="42"/>
       <c r="G126" s="42"/>
@@ -3656,9 +3819,9 @@
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" s="42"/>
-      <c r="B127" s="51"/>
-      <c r="C127" s="51"/>
-      <c r="D127" s="51"/>
+      <c r="B127" s="47"/>
+      <c r="C127" s="47"/>
+      <c r="D127" s="47"/>
       <c r="E127" s="42"/>
       <c r="F127" s="42"/>
       <c r="G127" s="42"/>
@@ -3674,9 +3837,9 @@
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" s="42"/>
-      <c r="B128" s="51"/>
-      <c r="C128" s="51"/>
-      <c r="D128" s="51"/>
+      <c r="B128" s="47"/>
+      <c r="C128" s="47"/>
+      <c r="D128" s="47"/>
       <c r="E128" s="42"/>
       <c r="F128" s="42"/>
       <c r="G128" s="42"/>
@@ -3692,9 +3855,9 @@
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" s="42"/>
-      <c r="B129" s="51"/>
-      <c r="C129" s="51"/>
-      <c r="D129" s="51"/>
+      <c r="B129" s="47"/>
+      <c r="C129" s="47"/>
+      <c r="D129" s="47"/>
       <c r="E129" s="42"/>
       <c r="F129" s="42"/>
       <c r="G129" s="42"/>
@@ -3710,9 +3873,9 @@
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" s="42"/>
-      <c r="B130" s="51"/>
-      <c r="C130" s="51"/>
-      <c r="D130" s="51"/>
+      <c r="B130" s="47"/>
+      <c r="C130" s="47"/>
+      <c r="D130" s="47"/>
       <c r="E130" s="42"/>
       <c r="F130" s="42"/>
       <c r="G130" s="42"/>
@@ -3728,9 +3891,9 @@
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" s="42"/>
-      <c r="B131" s="51"/>
-      <c r="C131" s="51"/>
-      <c r="D131" s="51"/>
+      <c r="B131" s="47"/>
+      <c r="C131" s="47"/>
+      <c r="D131" s="47"/>
       <c r="E131" s="42"/>
       <c r="F131" s="42"/>
       <c r="G131" s="42"/>
@@ -3746,9 +3909,9 @@
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" s="42"/>
-      <c r="B132" s="51"/>
-      <c r="C132" s="51"/>
-      <c r="D132" s="51"/>
+      <c r="B132" s="47"/>
+      <c r="C132" s="47"/>
+      <c r="D132" s="47"/>
       <c r="E132" s="42"/>
       <c r="F132" s="42"/>
       <c r="G132" s="42"/>
@@ -3764,9 +3927,9 @@
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" s="42"/>
-      <c r="B133" s="51"/>
-      <c r="C133" s="51"/>
-      <c r="D133" s="51"/>
+      <c r="B133" s="47"/>
+      <c r="C133" s="47"/>
+      <c r="D133" s="47"/>
       <c r="E133" s="42"/>
       <c r="F133" s="42"/>
       <c r="G133" s="42"/>
@@ -3782,9 +3945,9 @@
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" s="42"/>
-      <c r="B134" s="51"/>
-      <c r="C134" s="51"/>
-      <c r="D134" s="51"/>
+      <c r="B134" s="47"/>
+      <c r="C134" s="47"/>
+      <c r="D134" s="47"/>
       <c r="E134" s="42"/>
       <c r="F134" s="42"/>
       <c r="G134" s="42"/>
@@ -3800,9 +3963,9 @@
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" s="42"/>
-      <c r="B135" s="51"/>
-      <c r="C135" s="51"/>
-      <c r="D135" s="51"/>
+      <c r="B135" s="47"/>
+      <c r="C135" s="47"/>
+      <c r="D135" s="47"/>
       <c r="E135" s="42"/>
       <c r="F135" s="42"/>
       <c r="G135" s="42"/>
@@ -3818,9 +3981,9 @@
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" s="42"/>
-      <c r="B136" s="51"/>
-      <c r="C136" s="51"/>
-      <c r="D136" s="51"/>
+      <c r="B136" s="47"/>
+      <c r="C136" s="47"/>
+      <c r="D136" s="47"/>
       <c r="E136" s="42"/>
       <c r="F136" s="42"/>
       <c r="G136" s="42"/>
@@ -3836,9 +3999,9 @@
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" s="42"/>
-      <c r="B137" s="51"/>
-      <c r="C137" s="51"/>
-      <c r="D137" s="51"/>
+      <c r="B137" s="47"/>
+      <c r="C137" s="47"/>
+      <c r="D137" s="47"/>
       <c r="E137" s="42"/>
       <c r="F137" s="42"/>
       <c r="G137" s="42"/>
@@ -3854,9 +4017,9 @@
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" s="42"/>
-      <c r="B138" s="51"/>
-      <c r="C138" s="51"/>
-      <c r="D138" s="51"/>
+      <c r="B138" s="47"/>
+      <c r="C138" s="47"/>
+      <c r="D138" s="47"/>
       <c r="E138" s="42"/>
       <c r="F138" s="42"/>
       <c r="G138" s="42"/>
@@ -3872,9 +4035,9 @@
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" s="42"/>
-      <c r="B139" s="51"/>
-      <c r="C139" s="51"/>
-      <c r="D139" s="51"/>
+      <c r="B139" s="47"/>
+      <c r="C139" s="47"/>
+      <c r="D139" s="47"/>
       <c r="E139" s="42"/>
       <c r="F139" s="42"/>
       <c r="G139" s="42"/>
@@ -3890,9 +4053,9 @@
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" s="42"/>
-      <c r="B140" s="51"/>
-      <c r="C140" s="51"/>
-      <c r="D140" s="51"/>
+      <c r="B140" s="47"/>
+      <c r="C140" s="47"/>
+      <c r="D140" s="47"/>
       <c r="E140" s="42"/>
       <c r="F140" s="42"/>
       <c r="G140" s="42"/>
@@ -3908,9 +4071,9 @@
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" s="42"/>
-      <c r="B141" s="51"/>
-      <c r="C141" s="51"/>
-      <c r="D141" s="51"/>
+      <c r="B141" s="47"/>
+      <c r="C141" s="47"/>
+      <c r="D141" s="47"/>
       <c r="E141" s="42"/>
       <c r="F141" s="42"/>
       <c r="G141" s="42"/>
@@ -3926,9 +4089,9 @@
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" s="42"/>
-      <c r="B142" s="51"/>
-      <c r="C142" s="51"/>
-      <c r="D142" s="51"/>
+      <c r="B142" s="47"/>
+      <c r="C142" s="47"/>
+      <c r="D142" s="47"/>
       <c r="E142" s="42"/>
       <c r="F142" s="42"/>
       <c r="G142" s="42"/>
@@ -3944,9 +4107,9 @@
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" s="42"/>
-      <c r="B143" s="51"/>
-      <c r="C143" s="51"/>
-      <c r="D143" s="51"/>
+      <c r="B143" s="47"/>
+      <c r="C143" s="47"/>
+      <c r="D143" s="47"/>
       <c r="E143" s="42"/>
       <c r="F143" s="42"/>
       <c r="G143" s="42"/>
@@ -3962,9 +4125,9 @@
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" s="42"/>
-      <c r="B144" s="51"/>
-      <c r="C144" s="51"/>
-      <c r="D144" s="51"/>
+      <c r="B144" s="47"/>
+      <c r="C144" s="47"/>
+      <c r="D144" s="47"/>
       <c r="E144" s="42"/>
       <c r="F144" s="42"/>
       <c r="G144" s="42"/>
@@ -3980,9 +4143,9 @@
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" s="42"/>
-      <c r="B145" s="51"/>
-      <c r="C145" s="51"/>
-      <c r="D145" s="51"/>
+      <c r="B145" s="47"/>
+      <c r="C145" s="47"/>
+      <c r="D145" s="47"/>
       <c r="E145" s="42"/>
       <c r="F145" s="42"/>
       <c r="G145" s="42"/>
@@ -3998,9 +4161,9 @@
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" s="42"/>
-      <c r="B146" s="51"/>
-      <c r="C146" s="51"/>
-      <c r="D146" s="51"/>
+      <c r="B146" s="47"/>
+      <c r="C146" s="47"/>
+      <c r="D146" s="47"/>
       <c r="E146" s="42"/>
       <c r="F146" s="42"/>
       <c r="G146" s="42"/>
@@ -4016,9 +4179,9 @@
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" s="42"/>
-      <c r="B147" s="51"/>
-      <c r="C147" s="51"/>
-      <c r="D147" s="51"/>
+      <c r="B147" s="47"/>
+      <c r="C147" s="47"/>
+      <c r="D147" s="47"/>
       <c r="E147" s="42"/>
       <c r="F147" s="42"/>
       <c r="G147" s="42"/>
@@ -4034,9 +4197,9 @@
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" s="42"/>
-      <c r="B148" s="51"/>
-      <c r="C148" s="51"/>
-      <c r="D148" s="51"/>
+      <c r="B148" s="47"/>
+      <c r="C148" s="47"/>
+      <c r="D148" s="47"/>
       <c r="E148" s="42"/>
       <c r="F148" s="42"/>
       <c r="G148" s="42"/>
@@ -4052,9 +4215,9 @@
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" s="42"/>
-      <c r="B149" s="51"/>
-      <c r="C149" s="51"/>
-      <c r="D149" s="51"/>
+      <c r="B149" s="47"/>
+      <c r="C149" s="47"/>
+      <c r="D149" s="47"/>
       <c r="E149" s="42"/>
       <c r="F149" s="42"/>
       <c r="G149" s="42"/>
@@ -4070,9 +4233,9 @@
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" s="42"/>
-      <c r="B150" s="51"/>
-      <c r="C150" s="51"/>
-      <c r="D150" s="51"/>
+      <c r="B150" s="47"/>
+      <c r="C150" s="47"/>
+      <c r="D150" s="47"/>
       <c r="E150" s="42"/>
       <c r="F150" s="42"/>
       <c r="G150" s="42"/>
@@ -4088,9 +4251,9 @@
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" s="42"/>
-      <c r="B151" s="51"/>
-      <c r="C151" s="51"/>
-      <c r="D151" s="51"/>
+      <c r="B151" s="47"/>
+      <c r="C151" s="47"/>
+      <c r="D151" s="47"/>
       <c r="E151" s="42"/>
       <c r="F151" s="42"/>
       <c r="G151" s="42"/>
@@ -4106,9 +4269,9 @@
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" s="42"/>
-      <c r="B152" s="51"/>
-      <c r="C152" s="51"/>
-      <c r="D152" s="51"/>
+      <c r="B152" s="47"/>
+      <c r="C152" s="47"/>
+      <c r="D152" s="47"/>
       <c r="E152" s="42"/>
       <c r="F152" s="42"/>
       <c r="G152" s="42"/>
@@ -4124,9 +4287,9 @@
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" s="42"/>
-      <c r="B153" s="51"/>
-      <c r="C153" s="51"/>
-      <c r="D153" s="51"/>
+      <c r="B153" s="47"/>
+      <c r="C153" s="47"/>
+      <c r="D153" s="47"/>
       <c r="E153" s="42"/>
       <c r="F153" s="42"/>
       <c r="G153" s="42"/>
@@ -4142,9 +4305,9 @@
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" s="42"/>
-      <c r="B154" s="51"/>
-      <c r="C154" s="51"/>
-      <c r="D154" s="51"/>
+      <c r="B154" s="47"/>
+      <c r="C154" s="47"/>
+      <c r="D154" s="47"/>
       <c r="E154" s="42"/>
       <c r="F154" s="42"/>
       <c r="G154" s="42"/>
@@ -4160,9 +4323,9 @@
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" s="42"/>
-      <c r="B155" s="51"/>
-      <c r="C155" s="51"/>
-      <c r="D155" s="51"/>
+      <c r="B155" s="47"/>
+      <c r="C155" s="47"/>
+      <c r="D155" s="47"/>
       <c r="E155" s="42"/>
       <c r="F155" s="42"/>
       <c r="G155" s="42"/>
@@ -4178,9 +4341,9 @@
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" s="42"/>
-      <c r="B156" s="51"/>
-      <c r="C156" s="51"/>
-      <c r="D156" s="51"/>
+      <c r="B156" s="47"/>
+      <c r="C156" s="47"/>
+      <c r="D156" s="47"/>
       <c r="E156" s="42"/>
       <c r="F156" s="42"/>
       <c r="G156" s="42"/>
@@ -4196,9 +4359,9 @@
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" s="42"/>
-      <c r="B157" s="51"/>
-      <c r="C157" s="51"/>
-      <c r="D157" s="51"/>
+      <c r="B157" s="47"/>
+      <c r="C157" s="47"/>
+      <c r="D157" s="47"/>
       <c r="E157" s="42"/>
       <c r="F157" s="42"/>
       <c r="G157" s="42"/>
@@ -4214,9 +4377,9 @@
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" s="42"/>
-      <c r="B158" s="51"/>
-      <c r="C158" s="51"/>
-      <c r="D158" s="51"/>
+      <c r="B158" s="47"/>
+      <c r="C158" s="47"/>
+      <c r="D158" s="47"/>
       <c r="E158" s="42"/>
       <c r="F158" s="42"/>
       <c r="G158" s="42"/>
@@ -4232,9 +4395,9 @@
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" s="42"/>
-      <c r="B159" s="51"/>
-      <c r="C159" s="51"/>
-      <c r="D159" s="51"/>
+      <c r="B159" s="47"/>
+      <c r="C159" s="47"/>
+      <c r="D159" s="47"/>
       <c r="E159" s="42"/>
       <c r="F159" s="42"/>
       <c r="G159" s="42"/>
@@ -4250,9 +4413,9 @@
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160" s="42"/>
-      <c r="B160" s="51"/>
-      <c r="C160" s="51"/>
-      <c r="D160" s="51"/>
+      <c r="B160" s="47"/>
+      <c r="C160" s="47"/>
+      <c r="D160" s="47"/>
       <c r="E160" s="42"/>
       <c r="F160" s="42"/>
       <c r="G160" s="42"/>
@@ -4268,9 +4431,9 @@
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161" s="42"/>
-      <c r="B161" s="51"/>
-      <c r="C161" s="51"/>
-      <c r="D161" s="51"/>
+      <c r="B161" s="47"/>
+      <c r="C161" s="47"/>
+      <c r="D161" s="47"/>
       <c r="E161" s="42"/>
       <c r="F161" s="42"/>
       <c r="G161" s="42"/>
@@ -4286,9 +4449,9 @@
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162" s="42"/>
-      <c r="B162" s="51"/>
-      <c r="C162" s="51"/>
-      <c r="D162" s="51"/>
+      <c r="B162" s="47"/>
+      <c r="C162" s="47"/>
+      <c r="D162" s="47"/>
       <c r="E162" s="42"/>
       <c r="F162" s="42"/>
       <c r="G162" s="42"/>
@@ -4304,9 +4467,9 @@
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163" s="42"/>
-      <c r="B163" s="51"/>
-      <c r="C163" s="51"/>
-      <c r="D163" s="51"/>
+      <c r="B163" s="47"/>
+      <c r="C163" s="47"/>
+      <c r="D163" s="47"/>
       <c r="E163" s="42"/>
       <c r="F163" s="42"/>
       <c r="G163" s="42"/>
@@ -4322,9 +4485,9 @@
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164" s="42"/>
-      <c r="B164" s="51"/>
-      <c r="C164" s="51"/>
-      <c r="D164" s="51"/>
+      <c r="B164" s="47"/>
+      <c r="C164" s="47"/>
+      <c r="D164" s="47"/>
       <c r="E164" s="42"/>
       <c r="F164" s="42"/>
       <c r="G164" s="42"/>
@@ -4340,9 +4503,9 @@
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A165" s="42"/>
-      <c r="B165" s="51"/>
-      <c r="C165" s="51"/>
-      <c r="D165" s="51"/>
+      <c r="B165" s="47"/>
+      <c r="C165" s="47"/>
+      <c r="D165" s="47"/>
       <c r="E165" s="42"/>
       <c r="F165" s="42"/>
       <c r="G165" s="42"/>
@@ -4358,9 +4521,9 @@
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A166" s="42"/>
-      <c r="B166" s="51"/>
-      <c r="C166" s="51"/>
-      <c r="D166" s="51"/>
+      <c r="B166" s="47"/>
+      <c r="C166" s="47"/>
+      <c r="D166" s="47"/>
       <c r="E166" s="42"/>
       <c r="F166" s="42"/>
       <c r="G166" s="42"/>
@@ -4376,9 +4539,9 @@
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A167" s="42"/>
-      <c r="B167" s="51"/>
-      <c r="C167" s="51"/>
-      <c r="D167" s="51"/>
+      <c r="B167" s="47"/>
+      <c r="C167" s="47"/>
+      <c r="D167" s="47"/>
       <c r="E167" s="42"/>
       <c r="F167" s="42"/>
       <c r="G167" s="42"/>
@@ -4394,9 +4557,9 @@
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A168" s="42"/>
-      <c r="B168" s="51"/>
-      <c r="C168" s="51"/>
-      <c r="D168" s="51"/>
+      <c r="B168" s="47"/>
+      <c r="C168" s="47"/>
+      <c r="D168" s="47"/>
       <c r="E168" s="42"/>
       <c r="F168" s="42"/>
       <c r="G168" s="42"/>
@@ -4412,9 +4575,9 @@
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A169" s="42"/>
-      <c r="B169" s="51"/>
-      <c r="C169" s="51"/>
-      <c r="D169" s="51"/>
+      <c r="B169" s="47"/>
+      <c r="C169" s="47"/>
+      <c r="D169" s="47"/>
       <c r="E169" s="42"/>
       <c r="F169" s="42"/>
       <c r="G169" s="42"/>
@@ -4430,9 +4593,9 @@
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A170" s="42"/>
-      <c r="B170" s="51"/>
-      <c r="C170" s="51"/>
-      <c r="D170" s="51"/>
+      <c r="B170" s="47"/>
+      <c r="C170" s="47"/>
+      <c r="D170" s="47"/>
       <c r="E170" s="42"/>
       <c r="F170" s="42"/>
       <c r="G170" s="42"/>
@@ -4448,9 +4611,9 @@
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A171" s="42"/>
-      <c r="B171" s="51"/>
-      <c r="C171" s="51"/>
-      <c r="D171" s="51"/>
+      <c r="B171" s="47"/>
+      <c r="C171" s="47"/>
+      <c r="D171" s="47"/>
       <c r="E171" s="42"/>
       <c r="F171" s="42"/>
       <c r="G171" s="42"/>
@@ -4466,9 +4629,9 @@
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A172" s="42"/>
-      <c r="B172" s="51"/>
-      <c r="C172" s="51"/>
-      <c r="D172" s="51"/>
+      <c r="B172" s="47"/>
+      <c r="C172" s="47"/>
+      <c r="D172" s="47"/>
       <c r="E172" s="42"/>
       <c r="F172" s="42"/>
       <c r="G172" s="42"/>
@@ -4484,9 +4647,9 @@
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A173" s="42"/>
-      <c r="B173" s="51"/>
-      <c r="C173" s="51"/>
-      <c r="D173" s="51"/>
+      <c r="B173" s="47"/>
+      <c r="C173" s="47"/>
+      <c r="D173" s="47"/>
       <c r="E173" s="42"/>
       <c r="F173" s="42"/>
       <c r="G173" s="42"/>
@@ -4502,9 +4665,9 @@
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A174" s="42"/>
-      <c r="B174" s="51"/>
-      <c r="C174" s="51"/>
-      <c r="D174" s="51"/>
+      <c r="B174" s="47"/>
+      <c r="C174" s="47"/>
+      <c r="D174" s="47"/>
       <c r="E174" s="42"/>
       <c r="F174" s="42"/>
       <c r="G174" s="42"/>
@@ -4520,9 +4683,9 @@
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A175" s="42"/>
-      <c r="B175" s="51"/>
-      <c r="C175" s="51"/>
-      <c r="D175" s="51"/>
+      <c r="B175" s="47"/>
+      <c r="C175" s="47"/>
+      <c r="D175" s="47"/>
       <c r="E175" s="42"/>
       <c r="F175" s="42"/>
       <c r="G175" s="42"/>
@@ -4538,9 +4701,9 @@
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A176" s="42"/>
-      <c r="B176" s="51"/>
-      <c r="C176" s="51"/>
-      <c r="D176" s="51"/>
+      <c r="B176" s="47"/>
+      <c r="C176" s="47"/>
+      <c r="D176" s="47"/>
       <c r="E176" s="42"/>
       <c r="F176" s="42"/>
       <c r="G176" s="42"/>
@@ -4556,9 +4719,9 @@
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A177" s="42"/>
-      <c r="B177" s="51"/>
-      <c r="C177" s="51"/>
-      <c r="D177" s="51"/>
+      <c r="B177" s="47"/>
+      <c r="C177" s="47"/>
+      <c r="D177" s="47"/>
       <c r="E177" s="42"/>
       <c r="F177" s="42"/>
       <c r="G177" s="42"/>
@@ -4574,9 +4737,9 @@
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A178" s="42"/>
-      <c r="B178" s="51"/>
-      <c r="C178" s="51"/>
-      <c r="D178" s="51"/>
+      <c r="B178" s="47"/>
+      <c r="C178" s="47"/>
+      <c r="D178" s="47"/>
       <c r="E178" s="42"/>
       <c r="F178" s="42"/>
       <c r="G178" s="42"/>
@@ -4592,9 +4755,9 @@
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A179" s="42"/>
-      <c r="B179" s="51"/>
-      <c r="C179" s="51"/>
-      <c r="D179" s="51"/>
+      <c r="B179" s="47"/>
+      <c r="C179" s="47"/>
+      <c r="D179" s="47"/>
       <c r="E179" s="42"/>
       <c r="F179" s="42"/>
       <c r="G179" s="42"/>
@@ -4610,9 +4773,9 @@
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A180" s="42"/>
-      <c r="B180" s="51"/>
-      <c r="C180" s="51"/>
-      <c r="D180" s="51"/>
+      <c r="B180" s="47"/>
+      <c r="C180" s="47"/>
+      <c r="D180" s="47"/>
       <c r="E180" s="42"/>
       <c r="F180" s="42"/>
       <c r="G180" s="42"/>
@@ -4628,9 +4791,9 @@
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A181" s="42"/>
-      <c r="B181" s="51"/>
-      <c r="C181" s="51"/>
-      <c r="D181" s="51"/>
+      <c r="B181" s="47"/>
+      <c r="C181" s="47"/>
+      <c r="D181" s="47"/>
       <c r="E181" s="42"/>
       <c r="F181" s="42"/>
       <c r="G181" s="42"/>
@@ -4646,9 +4809,9 @@
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A182" s="42"/>
-      <c r="B182" s="51"/>
-      <c r="C182" s="51"/>
-      <c r="D182" s="51"/>
+      <c r="B182" s="47"/>
+      <c r="C182" s="47"/>
+      <c r="D182" s="47"/>
       <c r="E182" s="42"/>
       <c r="F182" s="42"/>
       <c r="G182" s="42"/>
@@ -4664,9 +4827,9 @@
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A183" s="42"/>
-      <c r="B183" s="51"/>
-      <c r="C183" s="51"/>
-      <c r="D183" s="51"/>
+      <c r="B183" s="47"/>
+      <c r="C183" s="47"/>
+      <c r="D183" s="47"/>
       <c r="E183" s="42"/>
       <c r="F183" s="42"/>
       <c r="G183" s="42"/>
@@ -4682,9 +4845,9 @@
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A184" s="42"/>
-      <c r="B184" s="51"/>
-      <c r="C184" s="51"/>
-      <c r="D184" s="51"/>
+      <c r="B184" s="47"/>
+      <c r="C184" s="47"/>
+      <c r="D184" s="47"/>
       <c r="E184" s="42"/>
       <c r="F184" s="42"/>
       <c r="G184" s="42"/>
@@ -4700,9 +4863,9 @@
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A185" s="42"/>
-      <c r="B185" s="51"/>
-      <c r="C185" s="51"/>
-      <c r="D185" s="51"/>
+      <c r="B185" s="47"/>
+      <c r="C185" s="47"/>
+      <c r="D185" s="47"/>
       <c r="E185" s="42"/>
       <c r="F185" s="42"/>
       <c r="G185" s="42"/>
@@ -4718,9 +4881,9 @@
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A186" s="42"/>
-      <c r="B186" s="51"/>
-      <c r="C186" s="51"/>
-      <c r="D186" s="51"/>
+      <c r="B186" s="47"/>
+      <c r="C186" s="47"/>
+      <c r="D186" s="47"/>
       <c r="E186" s="42"/>
       <c r="F186" s="42"/>
       <c r="G186" s="42"/>
@@ -4736,9 +4899,9 @@
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A187" s="42"/>
-      <c r="B187" s="51"/>
-      <c r="C187" s="51"/>
-      <c r="D187" s="51"/>
+      <c r="B187" s="47"/>
+      <c r="C187" s="47"/>
+      <c r="D187" s="47"/>
       <c r="E187" s="42"/>
       <c r="F187" s="42"/>
       <c r="G187" s="42"/>
@@ -4754,9 +4917,9 @@
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A188" s="42"/>
-      <c r="B188" s="51"/>
-      <c r="C188" s="51"/>
-      <c r="D188" s="51"/>
+      <c r="B188" s="47"/>
+      <c r="C188" s="47"/>
+      <c r="D188" s="47"/>
       <c r="E188" s="42"/>
       <c r="F188" s="42"/>
       <c r="G188" s="42"/>
@@ -4772,9 +4935,9 @@
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A189" s="42"/>
-      <c r="B189" s="51"/>
-      <c r="C189" s="51"/>
-      <c r="D189" s="51"/>
+      <c r="B189" s="47"/>
+      <c r="C189" s="47"/>
+      <c r="D189" s="47"/>
       <c r="E189" s="42"/>
       <c r="F189" s="42"/>
       <c r="G189" s="42"/>
@@ -4790,9 +4953,9 @@
     </row>
     <row r="190" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A190" s="42"/>
-      <c r="B190" s="51"/>
-      <c r="C190" s="51"/>
-      <c r="D190" s="51"/>
+      <c r="B190" s="47"/>
+      <c r="C190" s="47"/>
+      <c r="D190" s="47"/>
       <c r="E190" s="42"/>
       <c r="F190" s="42"/>
       <c r="G190" s="42"/>
@@ -4808,9 +4971,9 @@
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A191" s="42"/>
-      <c r="B191" s="51"/>
-      <c r="C191" s="51"/>
-      <c r="D191" s="51"/>
+      <c r="B191" s="47"/>
+      <c r="C191" s="47"/>
+      <c r="D191" s="47"/>
       <c r="E191" s="42"/>
       <c r="F191" s="42"/>
       <c r="G191" s="42"/>
@@ -4826,9 +4989,9 @@
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A192" s="42"/>
-      <c r="B192" s="51"/>
-      <c r="C192" s="51"/>
-      <c r="D192" s="51"/>
+      <c r="B192" s="47"/>
+      <c r="C192" s="47"/>
+      <c r="D192" s="47"/>
       <c r="E192" s="42"/>
       <c r="F192" s="42"/>
       <c r="G192" s="42"/>
@@ -4844,9 +5007,9 @@
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A193" s="42"/>
-      <c r="B193" s="51"/>
-      <c r="C193" s="51"/>
-      <c r="D193" s="51"/>
+      <c r="B193" s="47"/>
+      <c r="C193" s="47"/>
+      <c r="D193" s="47"/>
       <c r="E193" s="42"/>
       <c r="F193" s="42"/>
       <c r="G193" s="42"/>
@@ -4862,9 +5025,9 @@
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A194" s="42"/>
-      <c r="B194" s="51"/>
-      <c r="C194" s="51"/>
-      <c r="D194" s="51"/>
+      <c r="B194" s="47"/>
+      <c r="C194" s="47"/>
+      <c r="D194" s="47"/>
       <c r="E194" s="42"/>
       <c r="F194" s="42"/>
       <c r="G194" s="42"/>
@@ -4880,9 +5043,9 @@
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A195" s="42"/>
-      <c r="B195" s="51"/>
-      <c r="C195" s="51"/>
-      <c r="D195" s="51"/>
+      <c r="B195" s="47"/>
+      <c r="C195" s="47"/>
+      <c r="D195" s="47"/>
       <c r="E195" s="42"/>
       <c r="F195" s="42"/>
       <c r="G195" s="42"/>
@@ -4898,9 +5061,9 @@
     </row>
     <row r="196" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A196" s="42"/>
-      <c r="B196" s="51"/>
-      <c r="C196" s="51"/>
-      <c r="D196" s="51"/>
+      <c r="B196" s="47"/>
+      <c r="C196" s="47"/>
+      <c r="D196" s="47"/>
       <c r="E196" s="42"/>
       <c r="F196" s="42"/>
       <c r="G196" s="42"/>
@@ -4916,9 +5079,9 @@
     </row>
     <row r="197" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A197" s="42"/>
-      <c r="B197" s="51"/>
-      <c r="C197" s="51"/>
-      <c r="D197" s="51"/>
+      <c r="B197" s="47"/>
+      <c r="C197" s="47"/>
+      <c r="D197" s="47"/>
       <c r="E197" s="42"/>
       <c r="F197" s="42"/>
       <c r="G197" s="42"/>
@@ -4934,9 +5097,9 @@
     </row>
     <row r="198" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A198" s="42"/>
-      <c r="B198" s="51"/>
-      <c r="C198" s="51"/>
-      <c r="D198" s="51"/>
+      <c r="B198" s="47"/>
+      <c r="C198" s="47"/>
+      <c r="D198" s="47"/>
       <c r="E198" s="42"/>
       <c r="F198" s="42"/>
       <c r="G198" s="42"/>
@@ -4952,9 +5115,9 @@
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A199" s="42"/>
-      <c r="B199" s="51"/>
-      <c r="C199" s="51"/>
-      <c r="D199" s="51"/>
+      <c r="B199" s="47"/>
+      <c r="C199" s="47"/>
+      <c r="D199" s="47"/>
       <c r="E199" s="42"/>
       <c r="F199" s="42"/>
       <c r="G199" s="42"/>
@@ -4970,9 +5133,9 @@
     </row>
     <row r="200" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A200" s="42"/>
-      <c r="B200" s="51"/>
-      <c r="C200" s="51"/>
-      <c r="D200" s="51"/>
+      <c r="B200" s="47"/>
+      <c r="C200" s="47"/>
+      <c r="D200" s="47"/>
       <c r="E200" s="42"/>
       <c r="F200" s="42"/>
       <c r="G200" s="42"/>
@@ -4988,9 +5151,9 @@
     </row>
     <row r="201" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A201" s="42"/>
-      <c r="B201" s="51"/>
-      <c r="C201" s="51"/>
-      <c r="D201" s="51"/>
+      <c r="B201" s="47"/>
+      <c r="C201" s="47"/>
+      <c r="D201" s="47"/>
       <c r="E201" s="42"/>
       <c r="F201" s="42"/>
       <c r="G201" s="42"/>
@@ -5006,9 +5169,9 @@
     </row>
     <row r="202" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A202" s="42"/>
-      <c r="B202" s="51"/>
-      <c r="C202" s="51"/>
-      <c r="D202" s="51"/>
+      <c r="B202" s="47"/>
+      <c r="C202" s="47"/>
+      <c r="D202" s="47"/>
       <c r="E202" s="42"/>
       <c r="F202" s="42"/>
       <c r="G202" s="42"/>
@@ -5024,9 +5187,9 @@
     </row>
     <row r="203" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A203" s="42"/>
-      <c r="B203" s="51"/>
-      <c r="C203" s="51"/>
-      <c r="D203" s="51"/>
+      <c r="B203" s="47"/>
+      <c r="C203" s="47"/>
+      <c r="D203" s="47"/>
       <c r="E203" s="42"/>
       <c r="F203" s="42"/>
       <c r="G203" s="42"/>
@@ -5042,9 +5205,9 @@
     </row>
     <row r="204" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A204" s="42"/>
-      <c r="B204" s="51"/>
-      <c r="C204" s="51"/>
-      <c r="D204" s="51"/>
+      <c r="B204" s="47"/>
+      <c r="C204" s="47"/>
+      <c r="D204" s="47"/>
       <c r="E204" s="42"/>
       <c r="F204" s="42"/>
       <c r="G204" s="42"/>
@@ -5060,9 +5223,9 @@
     </row>
     <row r="205" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A205" s="42"/>
-      <c r="B205" s="51"/>
-      <c r="C205" s="51"/>
-      <c r="D205" s="51"/>
+      <c r="B205" s="47"/>
+      <c r="C205" s="47"/>
+      <c r="D205" s="47"/>
       <c r="E205" s="42"/>
       <c r="F205" s="42"/>
       <c r="G205" s="42"/>
@@ -5078,9 +5241,9 @@
     </row>
     <row r="206" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A206" s="42"/>
-      <c r="B206" s="51"/>
-      <c r="C206" s="51"/>
-      <c r="D206" s="51"/>
+      <c r="B206" s="47"/>
+      <c r="C206" s="47"/>
+      <c r="D206" s="47"/>
       <c r="E206" s="42"/>
       <c r="F206" s="42"/>
       <c r="G206" s="42"/>
@@ -5096,9 +5259,9 @@
     </row>
     <row r="207" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A207" s="42"/>
-      <c r="B207" s="51"/>
-      <c r="C207" s="51"/>
-      <c r="D207" s="51"/>
+      <c r="B207" s="47"/>
+      <c r="C207" s="47"/>
+      <c r="D207" s="47"/>
       <c r="E207" s="42"/>
       <c r="F207" s="42"/>
       <c r="G207" s="42"/>
@@ -5114,9 +5277,9 @@
     </row>
     <row r="208" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A208" s="42"/>
-      <c r="B208" s="51"/>
-      <c r="C208" s="51"/>
-      <c r="D208" s="51"/>
+      <c r="B208" s="47"/>
+      <c r="C208" s="47"/>
+      <c r="D208" s="47"/>
       <c r="E208" s="42"/>
       <c r="F208" s="42"/>
       <c r="G208" s="42"/>
@@ -5132,9 +5295,9 @@
     </row>
     <row r="209" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A209" s="42"/>
-      <c r="B209" s="51"/>
-      <c r="C209" s="51"/>
-      <c r="D209" s="51"/>
+      <c r="B209" s="47"/>
+      <c r="C209" s="47"/>
+      <c r="D209" s="47"/>
       <c r="E209" s="42"/>
       <c r="F209" s="42"/>
       <c r="G209" s="42"/>
@@ -5150,9 +5313,9 @@
     </row>
     <row r="210" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A210" s="42"/>
-      <c r="B210" s="51"/>
-      <c r="C210" s="51"/>
-      <c r="D210" s="51"/>
+      <c r="B210" s="47"/>
+      <c r="C210" s="47"/>
+      <c r="D210" s="47"/>
       <c r="E210" s="42"/>
       <c r="F210" s="42"/>
       <c r="G210" s="42"/>
@@ -5168,9 +5331,9 @@
     </row>
     <row r="211" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A211" s="42"/>
-      <c r="B211" s="51"/>
-      <c r="C211" s="51"/>
-      <c r="D211" s="51"/>
+      <c r="B211" s="47"/>
+      <c r="C211" s="47"/>
+      <c r="D211" s="47"/>
       <c r="E211" s="42"/>
       <c r="F211" s="42"/>
       <c r="G211" s="42"/>
@@ -5186,9 +5349,9 @@
     </row>
     <row r="212" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A212" s="42"/>
-      <c r="B212" s="51"/>
-      <c r="C212" s="51"/>
-      <c r="D212" s="51"/>
+      <c r="B212" s="47"/>
+      <c r="C212" s="47"/>
+      <c r="D212" s="47"/>
       <c r="E212" s="42"/>
       <c r="F212" s="42"/>
       <c r="G212" s="42"/>
@@ -5204,9 +5367,9 @@
     </row>
     <row r="213" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A213" s="42"/>
-      <c r="B213" s="51"/>
-      <c r="C213" s="51"/>
-      <c r="D213" s="51"/>
+      <c r="B213" s="47"/>
+      <c r="C213" s="47"/>
+      <c r="D213" s="47"/>
       <c r="E213" s="42"/>
       <c r="F213" s="42"/>
       <c r="G213" s="42"/>
@@ -5222,9 +5385,9 @@
     </row>
     <row r="214" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A214" s="42"/>
-      <c r="B214" s="51"/>
-      <c r="C214" s="51"/>
-      <c r="D214" s="51"/>
+      <c r="B214" s="47"/>
+      <c r="C214" s="47"/>
+      <c r="D214" s="47"/>
       <c r="E214" s="42"/>
       <c r="F214" s="42"/>
       <c r="G214" s="42"/>
@@ -5240,9 +5403,9 @@
     </row>
     <row r="215" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A215" s="42"/>
-      <c r="B215" s="51"/>
-      <c r="C215" s="51"/>
-      <c r="D215" s="51"/>
+      <c r="B215" s="47"/>
+      <c r="C215" s="47"/>
+      <c r="D215" s="47"/>
       <c r="E215" s="42"/>
       <c r="F215" s="42"/>
       <c r="G215" s="42"/>
@@ -5257,11 +5420,15 @@
       <c r="P215" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="B25:F25"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5286,12 +5453,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="22.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
     </row>
     <row r="2" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -5460,42 +5627,42 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.69921875" style="31" customWidth="1"/>
-    <col min="2" max="2" width="37" style="64" customWidth="1"/>
-    <col min="3" max="3" width="109" style="55" customWidth="1"/>
-    <col min="4" max="4" width="42.19921875" style="59" customWidth="1"/>
+    <col min="2" max="2" width="37" style="60" customWidth="1"/>
+    <col min="3" max="3" width="81.09765625" style="51" customWidth="1"/>
+    <col min="4" max="4" width="42.19921875" style="55" customWidth="1"/>
     <col min="5" max="5" width="22.19921875" style="32" customWidth="1"/>
     <col min="6" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="52" t="s">
         <v>43</v>
       </c>
       <c r="E2" s="31" t="s">
@@ -5506,13 +5673,13 @@
       <c r="A3" s="31">
         <v>1</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="53" t="s">
         <v>47</v>
       </c>
       <c r="E3" s="30" t="s">
@@ -5523,13 +5690,13 @@
       <c r="A4" s="31">
         <v>1</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="59" t="s">
         <v>49</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="54" t="s">
         <v>51</v>
       </c>
       <c r="E4" s="20" t="s">
@@ -5540,13 +5707,13 @@
       <c r="A5" s="31">
         <v>2</v>
       </c>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="59" t="s">
         <v>52</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="54" t="s">
         <v>54</v>
       </c>
       <c r="E5" s="20" t="s">
@@ -5557,13 +5724,13 @@
       <c r="A6" s="31">
         <v>3</v>
       </c>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="59" t="s">
         <v>55</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="54" t="s">
         <v>57</v>
       </c>
       <c r="E6" s="20" t="s">
@@ -5574,13 +5741,13 @@
       <c r="A7" s="31">
         <v>4</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="59" t="s">
         <v>58</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D7" s="54" t="s">
         <v>60</v>
       </c>
       <c r="E7" s="20" t="s">
@@ -5591,13 +5758,13 @@
       <c r="A8" s="31">
         <v>5</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="51" t="s">
         <v>61</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="54" t="s">
         <v>63</v>
       </c>
       <c r="E8" s="20" t="s">
@@ -5608,13 +5775,13 @@
       <c r="A9" s="31">
         <v>6</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="59" t="s">
         <v>64</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="58" t="s">
+      <c r="D9" s="54" t="s">
         <v>66</v>
       </c>
       <c r="E9" s="20" t="s">
@@ -5625,13 +5792,13 @@
       <c r="A10" s="31">
         <v>7</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="51" t="s">
         <v>67</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="58" t="s">
+      <c r="D10" s="54" t="s">
         <v>69</v>
       </c>
       <c r="E10" s="20" t="s">
@@ -5642,13 +5809,13 @@
       <c r="A11" s="31">
         <v>8</v>
       </c>
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="59" t="s">
         <v>70</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="58" t="s">
+      <c r="D11" s="54" t="s">
         <v>72</v>
       </c>
       <c r="E11" s="20" t="s">
@@ -5659,13 +5826,13 @@
       <c r="A12" s="31">
         <v>9</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="51" t="s">
         <v>73</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="54" t="s">
         <v>75</v>
       </c>
       <c r="E12" s="20" t="s">
@@ -5676,13 +5843,13 @@
       <c r="A13" s="31">
         <v>10</v>
       </c>
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="59" t="s">
         <v>76</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="54" t="s">
         <v>78</v>
       </c>
       <c r="E13" s="20" t="s">
@@ -5693,13 +5860,13 @@
       <c r="A14" s="31">
         <v>11</v>
       </c>
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="59" t="s">
         <v>79</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="58" t="s">
+      <c r="D14" s="54" t="s">
         <v>81</v>
       </c>
       <c r="E14" s="20" t="s">
@@ -5710,13 +5877,13 @@
       <c r="A15" s="31">
         <v>12</v>
       </c>
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="59" t="s">
         <v>82</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="54" t="s">
         <v>84</v>
       </c>
       <c r="E15" s="20" t="s">
@@ -5727,13 +5894,13 @@
       <c r="A16" s="31">
         <v>13</v>
       </c>
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="59" t="s">
         <v>85</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="58" t="s">
+      <c r="D16" s="54" t="s">
         <v>87</v>
       </c>
       <c r="E16" s="20" t="s">
@@ -5744,13 +5911,13 @@
       <c r="A17" s="31">
         <v>14</v>
       </c>
-      <c r="B17" s="63" t="s">
+      <c r="B17" s="59" t="s">
         <v>88</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="54" t="s">
         <v>90</v>
       </c>
       <c r="E17" s="20" t="s">
@@ -5761,13 +5928,13 @@
       <c r="A18" s="31">
         <v>15</v>
       </c>
-      <c r="B18" s="63" t="s">
+      <c r="B18" s="59" t="s">
         <v>91</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="58" t="s">
+      <c r="D18" s="54" t="s">
         <v>93</v>
       </c>
       <c r="E18" s="20" t="s">
@@ -5778,13 +5945,13 @@
       <c r="A19" s="31">
         <v>16</v>
       </c>
-      <c r="B19" s="63" t="s">
+      <c r="B19" s="59" t="s">
         <v>94</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="58" t="s">
+      <c r="D19" s="54" t="s">
         <v>96</v>
       </c>
       <c r="E19" s="20" t="s">
@@ -5795,13 +5962,13 @@
       <c r="A20" s="31">
         <v>17</v>
       </c>
-      <c r="B20" s="64" t="s">
+      <c r="B20" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="D20" s="59" t="s">
+      <c r="D20" s="55" t="s">
         <v>99</v>
       </c>
       <c r="E20" s="32" t="s">
@@ -5812,13 +5979,13 @@
       <c r="A21" s="31">
         <v>18</v>
       </c>
-      <c r="B21" s="64" t="s">
+      <c r="B21" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="55" t="s">
+      <c r="C21" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="59" t="s">
+      <c r="D21" s="55" t="s">
         <v>102</v>
       </c>
       <c r="E21" s="32" t="s">
@@ -5829,13 +5996,13 @@
       <c r="A22" s="31">
         <v>19</v>
       </c>
-      <c r="B22" s="64">
+      <c r="B22" s="60">
         <v>8409146</v>
       </c>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="D22" s="59" t="s">
+      <c r="D22" s="55" t="s">
         <v>104</v>
       </c>
       <c r="E22" s="32" t="s">
@@ -5846,13 +6013,13 @@
       <c r="A23" s="31">
         <v>20</v>
       </c>
-      <c r="B23" s="65" t="s">
+      <c r="B23" s="61" t="s">
         <v>129</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="D23" s="60" t="s">
+      <c r="D23" s="56" t="s">
         <v>156</v>
       </c>
       <c r="E23" s="32" t="s">
@@ -5863,13 +6030,13 @@
       <c r="A24" s="31">
         <v>21</v>
       </c>
-      <c r="B24" s="64" t="s">
+      <c r="B24" s="60" t="s">
         <v>131</v>
       </c>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="D24" s="60" t="s">
+      <c r="D24" s="56" t="s">
         <v>154</v>
       </c>
       <c r="E24" s="32" t="s">
@@ -5880,13 +6047,13 @@
       <c r="A25" s="31">
         <v>22</v>
       </c>
-      <c r="B25" s="65" t="s">
+      <c r="B25" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="D25" s="60" t="s">
+      <c r="D25" s="56" t="s">
         <v>155</v>
       </c>
       <c r="E25" s="32" t="s">
@@ -5897,13 +6064,13 @@
       <c r="A26" s="31">
         <v>23</v>
       </c>
-      <c r="B26" s="64" t="s">
+      <c r="B26" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="C26" s="55" t="s">
+      <c r="C26" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="D26" s="60" t="s">
+      <c r="D26" s="56" t="s">
         <v>138</v>
       </c>
       <c r="E26" s="32" t="s">
@@ -5914,13 +6081,13 @@
       <c r="A27" s="31">
         <v>24</v>
       </c>
-      <c r="B27" s="64" t="s">
+      <c r="B27" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="C27" s="55" t="s">
+      <c r="C27" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="D27" s="59" t="s">
+      <c r="D27" s="55" t="s">
         <v>140</v>
       </c>
       <c r="E27" s="32" t="s">
@@ -5931,13 +6098,13 @@
       <c r="A28" s="31">
         <v>25</v>
       </c>
-      <c r="B28" s="64" t="s">
+      <c r="B28" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="C28" s="55" t="s">
+      <c r="C28" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="D28" s="59" t="s">
+      <c r="D28" s="55" t="s">
         <v>143</v>
       </c>
       <c r="E28" s="32" t="s">
@@ -5948,13 +6115,13 @@
       <c r="A29" s="31">
         <v>26</v>
       </c>
-      <c r="B29" s="64" t="s">
+      <c r="B29" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="C29" s="55" t="s">
+      <c r="C29" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="D29" s="59" t="s">
+      <c r="D29" s="55" t="s">
         <v>147</v>
       </c>
       <c r="E29" s="32" t="s">
@@ -5965,13 +6132,13 @@
       <c r="A30" s="31">
         <v>27</v>
       </c>
-      <c r="B30" s="64" t="s">
+      <c r="B30" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="C30" s="55" t="s">
+      <c r="C30" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="D30" s="59" t="s">
+      <c r="D30" s="55" t="s">
         <v>149</v>
       </c>
       <c r="E30" s="32" t="s">
@@ -5982,13 +6149,13 @@
       <c r="A31" s="31">
         <v>28</v>
       </c>
-      <c r="B31" s="64" t="s">
+      <c r="B31" s="60" t="s">
         <v>152</v>
       </c>
-      <c r="C31" s="55" t="s">
+      <c r="C31" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="D31" s="59" t="s">
+      <c r="D31" s="55" t="s">
         <v>153</v>
       </c>
       <c r="E31" s="32" t="s">
@@ -5999,25 +6166,170 @@
       <c r="A32" s="31">
         <v>29</v>
       </c>
-      <c r="B32" s="64" t="s">
+      <c r="B32" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="C32" s="55" t="s">
+      <c r="C32" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="D32" s="59" t="s">
+      <c r="D32" s="55" t="s">
         <v>158</v>
       </c>
       <c r="E32" s="32" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D33" s="59" t="s">
-        <v>158</v>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="31">
+        <v>30</v>
+      </c>
+      <c r="B33" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="C33" s="51" t="s">
+        <v>183</v>
+      </c>
+      <c r="D33" s="55" t="s">
+        <v>184</v>
       </c>
       <c r="E33" s="32" t="s">
-        <v>130</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="31">
+        <v>31</v>
+      </c>
+      <c r="B34" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="C34" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="D34" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="31">
+        <v>32</v>
+      </c>
+      <c r="B35" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="C35" s="51" t="s">
+        <v>189</v>
+      </c>
+      <c r="D35" s="55" t="s">
+        <v>190</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="31">
+        <v>33</v>
+      </c>
+      <c r="B36" s="60" t="s">
+        <v>191</v>
+      </c>
+      <c r="C36" s="51" t="s">
+        <v>192</v>
+      </c>
+      <c r="D36" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="31">
+        <v>34</v>
+      </c>
+      <c r="B37" s="60" t="s">
+        <v>194</v>
+      </c>
+      <c r="C37" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="D37" s="55" t="s">
+        <v>196</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="31">
+        <v>35</v>
+      </c>
+      <c r="B38" s="60" t="s">
+        <v>197</v>
+      </c>
+      <c r="C38" s="51" t="s">
+        <v>198</v>
+      </c>
+      <c r="D38" s="55" t="s">
+        <v>199</v>
+      </c>
+      <c r="E38" s="32" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="31">
+        <v>36</v>
+      </c>
+      <c r="B39" s="60" t="s">
+        <v>200</v>
+      </c>
+      <c r="C39" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="D39" s="55" t="s">
+        <v>202</v>
+      </c>
+      <c r="E39" s="32" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="31">
+        <v>37</v>
+      </c>
+      <c r="B40" s="60" t="s">
+        <v>203</v>
+      </c>
+      <c r="C40" s="51" t="s">
+        <v>204</v>
+      </c>
+      <c r="D40" s="55" t="s">
+        <v>205</v>
+      </c>
+      <c r="E40" s="32" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="31">
+        <v>38</v>
+      </c>
+      <c r="B41" s="60" t="s">
+        <v>206</v>
+      </c>
+      <c r="C41" s="51" t="s">
+        <v>207</v>
+      </c>
+      <c r="D41" s="55" t="s">
+        <v>208</v>
+      </c>
+      <c r="E41" s="32" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -6034,8 +6346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -6048,13 +6360,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -6192,31 +6504,33 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
-        <v>7</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>181</v>
+        <v>8</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>122</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="E10" s="32"/>
+      <c r="E10" s="18" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="31">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>11</v>
@@ -6224,16 +6538,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="31">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>11</v>
@@ -6241,30 +6555,30 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="31">
+        <v>11</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" s="32" t="s">
         <v>10</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="31">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>112</v>
@@ -6275,39 +6589,41 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="31">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="D15" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D15" s="17" t="s">
         <v>112</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>10</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="C16" s="20" t="s">
         <v>180</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>182</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="E16" s="32"/>
+      <c r="E16" s="32" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" s="19"/>
       <c r="C17" s="20"/>
@@ -6336,7 +6652,7 @@
       <c r="E20" s="27"/>
     </row>
   </sheetData>
-  <sortState ref="A3:E22">
+  <sortState ref="A3:E20">
     <sortCondition ref="A2"/>
   </sortState>
   <mergeCells count="1">

--- a/开发和测试过程数据统计对照表.xlsx
+++ b/开发和测试过程数据统计对照表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Git\SE\Team109\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jy0205\Desktop\软工\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C650A6-436D-46B3-A9D0-839B68616365}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CC7136-8205-4A1B-A957-561A73C0E597}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="对照表" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="276">
   <si>
     <t>2019春软件工程嵌入式开发和测试过程数据统计对照表</t>
   </si>
@@ -405,9 +405,6 @@
   </si>
   <si>
     <t>012</t>
-  </si>
-  <si>
-    <t>针对取物模块进行整体流程测试</t>
   </si>
   <si>
     <t>机器人基本能够按照给定标签对物体进行抓取，但在某些情况下会出现偏差。</t>
@@ -777,6 +774,231 @@
   </si>
   <si>
     <t>15，16</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>jy0205</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>金阳</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>005</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>金阳</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>建图、运动控制和交互界面的实现</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>f4bd3d4</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加了单元测试</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,385 additions and 0 deletions.</t>
+  </si>
+  <si>
+    <t>建图和运动控制测试</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>118 additions and 0 deletions.</t>
+  </si>
+  <si>
+    <t>efd4dfc</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>12 additions and 0 deletions</t>
+  </si>
+  <si>
+    <t>a1793ad</t>
+  </si>
+  <si>
+    <t>修改了运动控制</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>317 additions and 138 deletions</t>
+  </si>
+  <si>
+    <t>6eac9aa</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成用户资料页面</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 additions and 25 deletions.</t>
+  </si>
+  <si>
+    <t>修改了首页</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>ade6baa</t>
+  </si>
+  <si>
+    <t> 185 additions and 139 deletions</t>
+  </si>
+  <si>
+    <t>完善了运动控制</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>b9bdcae</t>
+  </si>
+  <si>
+    <t>554 additions and 67 deletions</t>
+  </si>
+  <si>
+    <t>完成了profile和kill按钮</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>b0f6b6a</t>
+  </si>
+  <si>
+    <t>27,368 additions and 8 deletions</t>
+  </si>
+  <si>
+    <t>完成了登陆和注册功能</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>dfc3eb2</t>
+  </si>
+  <si>
+    <t>121 additions and 171 deletions</t>
+  </si>
+  <si>
+    <t>修复运动控制</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>265495e</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,041 additions and 84,399 deletions</t>
+  </si>
+  <si>
+    <t>完成日志管理前端页面</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>84bbf0c</t>
+  </si>
+  <si>
+    <t>647 additions and 122 deletions</t>
+  </si>
+  <si>
+    <t>完成建图功能</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1eacad3</t>
+  </si>
+  <si>
+    <t>14,172 additions and 292 deletions</t>
+  </si>
+  <si>
+    <t>完成了主页</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>41f59cd</t>
+  </si>
+  <si>
+    <t>421 additions and 74 deletions.</t>
+  </si>
+  <si>
+    <t>完成了运动控制页面</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>07068af</t>
+  </si>
+  <si>
+    <t>完成了网页基本框架</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3707060</t>
+  </si>
+  <si>
+    <t>18,422 additions and 43 deletions</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>540 additions and 22 deletions.</t>
+  </si>
+  <si>
+    <t>网页框架初始化</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>cb3cf37</t>
+  </si>
+  <si>
+    <t>94 additions and 153 deletions.</t>
+  </si>
+  <si>
+    <t>基本运动控制</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>08b843a</t>
+  </si>
+  <si>
+    <t> 666 additions and 1 deletion.</t>
+  </si>
+  <si>
+    <t>基本建图功能</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>886da49</t>
+  </si>
+  <si>
+    <t>005</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>针对取物模块进行整体流程测试</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>004</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过socket进行运动控制交互</t>
+  </si>
+  <si>
+    <t>进行运动控制的同时建图并保存建图的结果</t>
+  </si>
+  <si>
+    <t>符合预期</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,5</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -895,7 +1117,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -994,13 +1216,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1190,6 +1425,9 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1202,6 +1440,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1211,13 +1458,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1522,48 +1778,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P215"/>
+  <dimension ref="A1:P217"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17:D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.296875" style="48" customWidth="1"/>
-    <col min="2" max="2" width="14.19921875" style="62" customWidth="1"/>
+    <col min="1" max="1" width="16.25" style="48" customWidth="1"/>
+    <col min="2" max="2" width="14.25" style="62" customWidth="1"/>
     <col min="3" max="3" width="49" style="62" customWidth="1"/>
-    <col min="4" max="4" width="16.296875" style="62" customWidth="1"/>
-    <col min="5" max="5" width="12.19921875" style="48" customWidth="1"/>
-    <col min="6" max="6" width="14.69921875" style="48" customWidth="1"/>
-    <col min="7" max="7" width="12.796875" style="48" customWidth="1"/>
-    <col min="8" max="8" width="16.296875" style="48" customWidth="1"/>
-    <col min="9" max="9" width="12.19921875" style="48" customWidth="1"/>
-    <col min="10" max="10" width="10.69921875" style="48" customWidth="1"/>
+    <col min="4" max="4" width="16.25" style="62" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="48" customWidth="1"/>
+    <col min="6" max="6" width="14.75" style="48" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="48" customWidth="1"/>
+    <col min="8" max="8" width="16.25" style="48" customWidth="1"/>
+    <col min="9" max="9" width="12.25" style="48" customWidth="1"/>
+    <col min="10" max="10" width="10.75" style="48" customWidth="1"/>
     <col min="11" max="11" width="11" style="48" customWidth="1"/>
     <col min="12" max="12" width="10.5" style="48" customWidth="1"/>
-    <col min="13" max="13" width="11.19921875" style="48" customWidth="1"/>
-    <col min="14" max="16" width="12.796875" style="48" customWidth="1"/>
-    <col min="17" max="16384" width="8.69921875" style="48"/>
+    <col min="13" max="13" width="11.25" style="48" customWidth="1"/>
+    <col min="14" max="16" width="12.75" style="48" customWidth="1"/>
+    <col min="17" max="16384" width="8.75" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="22.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:16" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="34"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="31" t="s">
         <v>1</v>
       </c>
@@ -1573,13 +1829,13 @@
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="37"/>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
       <c r="D4" s="36"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="38"/>
       <c r="B5" s="28" t="s">
         <v>2</v>
@@ -1597,49 +1853,53 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="31" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C6" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>175</v>
-      </c>
-      <c r="F6" s="31"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="31" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="F7" s="31"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="39"/>
       <c r="B8" s="40"/>
       <c r="C8" s="40"/>
       <c r="D8" s="40"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
@@ -1653,7 +1913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="69.599999999999994" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="69" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>1</v>
       </c>
@@ -1679,7 +1939,7 @@
       <c r="O10" s="42"/>
       <c r="P10" s="42"/>
     </row>
-    <row r="11" spans="1:16" ht="34.799999999999997" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="31">
         <v>1</v>
       </c>
@@ -1705,7 +1965,7 @@
       <c r="O11" s="42"/>
       <c r="P11" s="42"/>
     </row>
-    <row r="12" spans="1:16" ht="34.799999999999997" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A12" s="31">
         <v>2</v>
       </c>
@@ -1731,18 +1991,18 @@
       <c r="O12" s="42"/>
       <c r="P12" s="42"/>
     </row>
-    <row r="13" spans="1:16" ht="52.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="31">
         <v>3</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C13" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="D13" s="28" t="s">
         <v>170</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>171</v>
       </c>
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
@@ -1757,18 +2017,18 @@
       <c r="O13" s="42"/>
       <c r="P13" s="42"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="70">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A14" s="68">
         <v>4</v>
       </c>
-      <c r="B14" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="C14" s="72" t="s">
-        <v>209</v>
-      </c>
-      <c r="D14" s="72" t="s">
-        <v>212</v>
+      <c r="B14" s="69" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="70" t="s">
+        <v>208</v>
+      </c>
+      <c r="D14" s="70" t="s">
+        <v>211</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
@@ -1783,11 +2043,11 @@
       <c r="O14" s="42"/>
       <c r="P14" s="42"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="70"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A15" s="68"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
       <c r="G15" s="42"/>
@@ -1801,11 +2061,11 @@
       <c r="O15" s="42"/>
       <c r="P15" s="42"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="70"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A16" s="68"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
       <c r="E16" s="42"/>
       <c r="F16" s="42"/>
       <c r="G16" s="42"/>
@@ -1819,11 +2079,19 @@
       <c r="O16" s="42"/>
       <c r="P16" s="42"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="45"/>
+    <row r="17" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="74">
+        <v>5</v>
+      </c>
+      <c r="B17" s="76" t="s">
+        <v>268</v>
+      </c>
+      <c r="C17" s="78" t="s">
+        <v>269</v>
+      </c>
+      <c r="D17" s="78" t="s">
+        <v>275</v>
+      </c>
       <c r="E17" s="42"/>
       <c r="F17" s="42"/>
       <c r="G17" s="42"/>
@@ -1837,7 +2105,13 @@
       <c r="O17" s="42"/>
       <c r="P17" s="42"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="75"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
       <c r="G18" s="42"/>
       <c r="H18" s="42"/>
       <c r="I18" s="42"/>
@@ -1849,15 +2123,13 @@
       <c r="O18" s="42"/>
       <c r="P18" s="42"/>
     </row>
-    <row r="19" spans="1:16" ht="22.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A19" s="44"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
       <c r="G19" s="42"/>
       <c r="H19" s="42"/>
       <c r="I19" s="42"/>
@@ -1869,23 +2141,7 @@
       <c r="O19" s="42"/>
       <c r="P19" s="42"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
-      <c r="B20" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="31" t="s">
-        <v>6</v>
-      </c>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="G20" s="42"/>
       <c r="H20" s="42"/>
       <c r="I20" s="42"/>
@@ -1897,15 +2153,15 @@
       <c r="O20" s="42"/>
       <c r="P20" s="42"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
+    <row r="21" spans="1:16" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
       <c r="G21" s="42"/>
       <c r="H21" s="42"/>
       <c r="I21" s="42"/>
@@ -1917,15 +2173,23 @@
       <c r="O21" s="42"/>
       <c r="P21" s="42"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A22" s="38"/>
+      <c r="B22" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>6</v>
+      </c>
       <c r="G22" s="42"/>
       <c r="H22" s="42"/>
       <c r="I22" s="42"/>
@@ -1937,13 +2201,15 @@
       <c r="O22" s="42"/>
       <c r="P22" s="42"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A23" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
       <c r="G23" s="42"/>
       <c r="H23" s="42"/>
       <c r="I23" s="42"/>
@@ -1955,17 +2221,15 @@
       <c r="O23" s="42"/>
       <c r="P23" s="42"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="66"/>
+        <v>26</v>
+      </c>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
       <c r="G24" s="42"/>
       <c r="H24" s="42"/>
       <c r="I24" s="42"/>
@@ -1977,17 +2241,13 @@
       <c r="O24" s="42"/>
       <c r="P24" s="42"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="64" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="66"/>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A25" s="44"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
       <c r="G25" s="42"/>
       <c r="H25" s="42"/>
       <c r="I25" s="42"/>
@@ -1999,13 +2259,17 @@
       <c r="O25" s="42"/>
       <c r="P25" s="42"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
+    <row r="26" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="67"/>
       <c r="G26" s="42"/>
       <c r="H26" s="42"/>
       <c r="I26" s="42"/>
@@ -2017,13 +2281,17 @@
       <c r="O26" s="42"/>
       <c r="P26" s="42"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="42"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
+    <row r="27" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="67"/>
       <c r="G27" s="42"/>
       <c r="H27" s="42"/>
       <c r="I27" s="42"/>
@@ -2035,7 +2303,7 @@
       <c r="O27" s="42"/>
       <c r="P27" s="42"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="42"/>
       <c r="B28" s="47"/>
       <c r="C28" s="47"/>
@@ -2053,7 +2321,7 @@
       <c r="O28" s="42"/>
       <c r="P28" s="42"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="42"/>
       <c r="B29" s="47"/>
       <c r="C29" s="47"/>
@@ -2071,7 +2339,7 @@
       <c r="O29" s="42"/>
       <c r="P29" s="42"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="42"/>
       <c r="B30" s="47"/>
       <c r="C30" s="47"/>
@@ -2089,7 +2357,7 @@
       <c r="O30" s="42"/>
       <c r="P30" s="42"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="42"/>
       <c r="B31" s="47"/>
       <c r="C31" s="47"/>
@@ -2107,7 +2375,7 @@
       <c r="O31" s="42"/>
       <c r="P31" s="42"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="42"/>
       <c r="B32" s="47"/>
       <c r="C32" s="47"/>
@@ -2125,7 +2393,7 @@
       <c r="O32" s="42"/>
       <c r="P32" s="42"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="42"/>
       <c r="B33" s="47"/>
       <c r="C33" s="47"/>
@@ -2143,7 +2411,7 @@
       <c r="O33" s="42"/>
       <c r="P33" s="42"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="42"/>
       <c r="B34" s="47"/>
       <c r="C34" s="47"/>
@@ -2161,7 +2429,7 @@
       <c r="O34" s="42"/>
       <c r="P34" s="42"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="42"/>
       <c r="B35" s="47"/>
       <c r="C35" s="47"/>
@@ -2179,7 +2447,7 @@
       <c r="O35" s="42"/>
       <c r="P35" s="42"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="42"/>
       <c r="B36" s="47"/>
       <c r="C36" s="47"/>
@@ -2197,7 +2465,7 @@
       <c r="O36" s="42"/>
       <c r="P36" s="42"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="42"/>
       <c r="B37" s="47"/>
       <c r="C37" s="47"/>
@@ -2215,7 +2483,7 @@
       <c r="O37" s="42"/>
       <c r="P37" s="42"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="42"/>
       <c r="B38" s="47"/>
       <c r="C38" s="47"/>
@@ -2233,7 +2501,7 @@
       <c r="O38" s="42"/>
       <c r="P38" s="42"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="42"/>
       <c r="B39" s="47"/>
       <c r="C39" s="47"/>
@@ -2251,7 +2519,7 @@
       <c r="O39" s="42"/>
       <c r="P39" s="42"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A40" s="42"/>
       <c r="B40" s="47"/>
       <c r="C40" s="47"/>
@@ -2269,7 +2537,7 @@
       <c r="O40" s="42"/>
       <c r="P40" s="42"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A41" s="42"/>
       <c r="B41" s="47"/>
       <c r="C41" s="47"/>
@@ -2287,7 +2555,7 @@
       <c r="O41" s="42"/>
       <c r="P41" s="42"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A42" s="42"/>
       <c r="B42" s="47"/>
       <c r="C42" s="47"/>
@@ -2305,7 +2573,7 @@
       <c r="O42" s="42"/>
       <c r="P42" s="42"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A43" s="42"/>
       <c r="B43" s="47"/>
       <c r="C43" s="47"/>
@@ -2323,7 +2591,7 @@
       <c r="O43" s="42"/>
       <c r="P43" s="42"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A44" s="42"/>
       <c r="B44" s="47"/>
       <c r="C44" s="47"/>
@@ -2341,7 +2609,7 @@
       <c r="O44" s="42"/>
       <c r="P44" s="42"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A45" s="42"/>
       <c r="B45" s="47"/>
       <c r="C45" s="47"/>
@@ -2359,7 +2627,7 @@
       <c r="O45" s="42"/>
       <c r="P45" s="42"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A46" s="42"/>
       <c r="B46" s="47"/>
       <c r="C46" s="47"/>
@@ -2377,7 +2645,7 @@
       <c r="O46" s="42"/>
       <c r="P46" s="42"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A47" s="42"/>
       <c r="B47" s="47"/>
       <c r="C47" s="47"/>
@@ -2395,7 +2663,7 @@
       <c r="O47" s="42"/>
       <c r="P47" s="42"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A48" s="42"/>
       <c r="B48" s="47"/>
       <c r="C48" s="47"/>
@@ -2413,7 +2681,7 @@
       <c r="O48" s="42"/>
       <c r="P48" s="42"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A49" s="42"/>
       <c r="B49" s="47"/>
       <c r="C49" s="47"/>
@@ -2431,7 +2699,7 @@
       <c r="O49" s="42"/>
       <c r="P49" s="42"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A50" s="42"/>
       <c r="B50" s="47"/>
       <c r="C50" s="47"/>
@@ -2449,7 +2717,7 @@
       <c r="O50" s="42"/>
       <c r="P50" s="42"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A51" s="42"/>
       <c r="B51" s="47"/>
       <c r="C51" s="47"/>
@@ -2467,7 +2735,7 @@
       <c r="O51" s="42"/>
       <c r="P51" s="42"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A52" s="42"/>
       <c r="B52" s="47"/>
       <c r="C52" s="47"/>
@@ -2485,7 +2753,7 @@
       <c r="O52" s="42"/>
       <c r="P52" s="42"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A53" s="42"/>
       <c r="B53" s="47"/>
       <c r="C53" s="47"/>
@@ -2503,7 +2771,7 @@
       <c r="O53" s="42"/>
       <c r="P53" s="42"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A54" s="42"/>
       <c r="B54" s="47"/>
       <c r="C54" s="47"/>
@@ -2521,7 +2789,7 @@
       <c r="O54" s="42"/>
       <c r="P54" s="42"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A55" s="42"/>
       <c r="B55" s="47"/>
       <c r="C55" s="47"/>
@@ -2539,7 +2807,7 @@
       <c r="O55" s="42"/>
       <c r="P55" s="42"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A56" s="42"/>
       <c r="B56" s="47"/>
       <c r="C56" s="47"/>
@@ -2557,7 +2825,7 @@
       <c r="O56" s="42"/>
       <c r="P56" s="42"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A57" s="42"/>
       <c r="B57" s="47"/>
       <c r="C57" s="47"/>
@@ -2575,7 +2843,7 @@
       <c r="O57" s="42"/>
       <c r="P57" s="42"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A58" s="42"/>
       <c r="B58" s="47"/>
       <c r="C58" s="47"/>
@@ -2593,7 +2861,7 @@
       <c r="O58" s="42"/>
       <c r="P58" s="42"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A59" s="42"/>
       <c r="B59" s="47"/>
       <c r="C59" s="47"/>
@@ -2611,7 +2879,7 @@
       <c r="O59" s="42"/>
       <c r="P59" s="42"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A60" s="42"/>
       <c r="B60" s="47"/>
       <c r="C60" s="47"/>
@@ -2629,7 +2897,7 @@
       <c r="O60" s="42"/>
       <c r="P60" s="42"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A61" s="42"/>
       <c r="B61" s="47"/>
       <c r="C61" s="47"/>
@@ -2647,7 +2915,7 @@
       <c r="O61" s="42"/>
       <c r="P61" s="42"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A62" s="42"/>
       <c r="B62" s="47"/>
       <c r="C62" s="47"/>
@@ -2665,7 +2933,7 @@
       <c r="O62" s="42"/>
       <c r="P62" s="42"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A63" s="42"/>
       <c r="B63" s="47"/>
       <c r="C63" s="47"/>
@@ -2683,7 +2951,7 @@
       <c r="O63" s="42"/>
       <c r="P63" s="42"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A64" s="42"/>
       <c r="B64" s="47"/>
       <c r="C64" s="47"/>
@@ -2701,7 +2969,7 @@
       <c r="O64" s="42"/>
       <c r="P64" s="42"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A65" s="42"/>
       <c r="B65" s="47"/>
       <c r="C65" s="47"/>
@@ -2719,7 +2987,7 @@
       <c r="O65" s="42"/>
       <c r="P65" s="42"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A66" s="42"/>
       <c r="B66" s="47"/>
       <c r="C66" s="47"/>
@@ -2737,7 +3005,7 @@
       <c r="O66" s="42"/>
       <c r="P66" s="42"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A67" s="42"/>
       <c r="B67" s="47"/>
       <c r="C67" s="47"/>
@@ -2755,7 +3023,7 @@
       <c r="O67" s="42"/>
       <c r="P67" s="42"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A68" s="42"/>
       <c r="B68" s="47"/>
       <c r="C68" s="47"/>
@@ -2773,7 +3041,7 @@
       <c r="O68" s="42"/>
       <c r="P68" s="42"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A69" s="42"/>
       <c r="B69" s="47"/>
       <c r="C69" s="47"/>
@@ -2791,7 +3059,7 @@
       <c r="O69" s="42"/>
       <c r="P69" s="42"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A70" s="42"/>
       <c r="B70" s="47"/>
       <c r="C70" s="47"/>
@@ -2809,7 +3077,7 @@
       <c r="O70" s="42"/>
       <c r="P70" s="42"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A71" s="42"/>
       <c r="B71" s="47"/>
       <c r="C71" s="47"/>
@@ -2827,7 +3095,7 @@
       <c r="O71" s="42"/>
       <c r="P71" s="42"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A72" s="42"/>
       <c r="B72" s="47"/>
       <c r="C72" s="47"/>
@@ -2845,7 +3113,7 @@
       <c r="O72" s="42"/>
       <c r="P72" s="42"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A73" s="42"/>
       <c r="B73" s="47"/>
       <c r="C73" s="47"/>
@@ -2863,7 +3131,7 @@
       <c r="O73" s="42"/>
       <c r="P73" s="42"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A74" s="42"/>
       <c r="B74" s="47"/>
       <c r="C74" s="47"/>
@@ -2881,7 +3149,7 @@
       <c r="O74" s="42"/>
       <c r="P74" s="42"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A75" s="42"/>
       <c r="B75" s="47"/>
       <c r="C75" s="47"/>
@@ -2899,7 +3167,7 @@
       <c r="O75" s="42"/>
       <c r="P75" s="42"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A76" s="42"/>
       <c r="B76" s="47"/>
       <c r="C76" s="47"/>
@@ -2917,7 +3185,7 @@
       <c r="O76" s="42"/>
       <c r="P76" s="42"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A77" s="42"/>
       <c r="B77" s="47"/>
       <c r="C77" s="47"/>
@@ -2935,7 +3203,7 @@
       <c r="O77" s="42"/>
       <c r="P77" s="42"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A78" s="42"/>
       <c r="B78" s="47"/>
       <c r="C78" s="47"/>
@@ -2953,7 +3221,7 @@
       <c r="O78" s="42"/>
       <c r="P78" s="42"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A79" s="42"/>
       <c r="B79" s="47"/>
       <c r="C79" s="47"/>
@@ -2971,7 +3239,7 @@
       <c r="O79" s="42"/>
       <c r="P79" s="42"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A80" s="42"/>
       <c r="B80" s="47"/>
       <c r="C80" s="47"/>
@@ -2989,7 +3257,7 @@
       <c r="O80" s="42"/>
       <c r="P80" s="42"/>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A81" s="42"/>
       <c r="B81" s="47"/>
       <c r="C81" s="47"/>
@@ -3007,7 +3275,7 @@
       <c r="O81" s="42"/>
       <c r="P81" s="42"/>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A82" s="42"/>
       <c r="B82" s="47"/>
       <c r="C82" s="47"/>
@@ -3025,7 +3293,7 @@
       <c r="O82" s="42"/>
       <c r="P82" s="42"/>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A83" s="42"/>
       <c r="B83" s="47"/>
       <c r="C83" s="47"/>
@@ -3043,7 +3311,7 @@
       <c r="O83" s="42"/>
       <c r="P83" s="42"/>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A84" s="42"/>
       <c r="B84" s="47"/>
       <c r="C84" s="47"/>
@@ -3061,7 +3329,7 @@
       <c r="O84" s="42"/>
       <c r="P84" s="42"/>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A85" s="42"/>
       <c r="B85" s="47"/>
       <c r="C85" s="47"/>
@@ -3079,7 +3347,7 @@
       <c r="O85" s="42"/>
       <c r="P85" s="42"/>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A86" s="42"/>
       <c r="B86" s="47"/>
       <c r="C86" s="47"/>
@@ -3097,7 +3365,7 @@
       <c r="O86" s="42"/>
       <c r="P86" s="42"/>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A87" s="42"/>
       <c r="B87" s="47"/>
       <c r="C87" s="47"/>
@@ -3115,7 +3383,7 @@
       <c r="O87" s="42"/>
       <c r="P87" s="42"/>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A88" s="42"/>
       <c r="B88" s="47"/>
       <c r="C88" s="47"/>
@@ -3133,7 +3401,7 @@
       <c r="O88" s="42"/>
       <c r="P88" s="42"/>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A89" s="42"/>
       <c r="B89" s="47"/>
       <c r="C89" s="47"/>
@@ -3151,7 +3419,7 @@
       <c r="O89" s="42"/>
       <c r="P89" s="42"/>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A90" s="42"/>
       <c r="B90" s="47"/>
       <c r="C90" s="47"/>
@@ -3169,7 +3437,7 @@
       <c r="O90" s="42"/>
       <c r="P90" s="42"/>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A91" s="42"/>
       <c r="B91" s="47"/>
       <c r="C91" s="47"/>
@@ -3187,7 +3455,7 @@
       <c r="O91" s="42"/>
       <c r="P91" s="42"/>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A92" s="42"/>
       <c r="B92" s="47"/>
       <c r="C92" s="47"/>
@@ -3205,7 +3473,7 @@
       <c r="O92" s="42"/>
       <c r="P92" s="42"/>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A93" s="42"/>
       <c r="B93" s="47"/>
       <c r="C93" s="47"/>
@@ -3223,7 +3491,7 @@
       <c r="O93" s="42"/>
       <c r="P93" s="42"/>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A94" s="42"/>
       <c r="B94" s="47"/>
       <c r="C94" s="47"/>
@@ -3241,7 +3509,7 @@
       <c r="O94" s="42"/>
       <c r="P94" s="42"/>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A95" s="42"/>
       <c r="B95" s="47"/>
       <c r="C95" s="47"/>
@@ -3259,7 +3527,7 @@
       <c r="O95" s="42"/>
       <c r="P95" s="42"/>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A96" s="42"/>
       <c r="B96" s="47"/>
       <c r="C96" s="47"/>
@@ -3277,7 +3545,7 @@
       <c r="O96" s="42"/>
       <c r="P96" s="42"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A97" s="42"/>
       <c r="B97" s="47"/>
       <c r="C97" s="47"/>
@@ -3295,7 +3563,7 @@
       <c r="O97" s="42"/>
       <c r="P97" s="42"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A98" s="42"/>
       <c r="B98" s="47"/>
       <c r="C98" s="47"/>
@@ -3313,7 +3581,7 @@
       <c r="O98" s="42"/>
       <c r="P98" s="42"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A99" s="42"/>
       <c r="B99" s="47"/>
       <c r="C99" s="47"/>
@@ -3331,7 +3599,7 @@
       <c r="O99" s="42"/>
       <c r="P99" s="42"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A100" s="42"/>
       <c r="B100" s="47"/>
       <c r="C100" s="47"/>
@@ -3349,7 +3617,7 @@
       <c r="O100" s="42"/>
       <c r="P100" s="42"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A101" s="42"/>
       <c r="B101" s="47"/>
       <c r="C101" s="47"/>
@@ -3367,7 +3635,7 @@
       <c r="O101" s="42"/>
       <c r="P101" s="42"/>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A102" s="42"/>
       <c r="B102" s="47"/>
       <c r="C102" s="47"/>
@@ -3385,7 +3653,7 @@
       <c r="O102" s="42"/>
       <c r="P102" s="42"/>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A103" s="42"/>
       <c r="B103" s="47"/>
       <c r="C103" s="47"/>
@@ -3403,7 +3671,7 @@
       <c r="O103" s="42"/>
       <c r="P103" s="42"/>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A104" s="42"/>
       <c r="B104" s="47"/>
       <c r="C104" s="47"/>
@@ -3421,7 +3689,7 @@
       <c r="O104" s="42"/>
       <c r="P104" s="42"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A105" s="42"/>
       <c r="B105" s="47"/>
       <c r="C105" s="47"/>
@@ -3439,7 +3707,7 @@
       <c r="O105" s="42"/>
       <c r="P105" s="42"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A106" s="42"/>
       <c r="B106" s="47"/>
       <c r="C106" s="47"/>
@@ -3457,7 +3725,7 @@
       <c r="O106" s="42"/>
       <c r="P106" s="42"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A107" s="42"/>
       <c r="B107" s="47"/>
       <c r="C107" s="47"/>
@@ -3475,7 +3743,7 @@
       <c r="O107" s="42"/>
       <c r="P107" s="42"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A108" s="42"/>
       <c r="B108" s="47"/>
       <c r="C108" s="47"/>
@@ -3493,7 +3761,7 @@
       <c r="O108" s="42"/>
       <c r="P108" s="42"/>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A109" s="42"/>
       <c r="B109" s="47"/>
       <c r="C109" s="47"/>
@@ -3511,7 +3779,7 @@
       <c r="O109" s="42"/>
       <c r="P109" s="42"/>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A110" s="42"/>
       <c r="B110" s="47"/>
       <c r="C110" s="47"/>
@@ -3529,7 +3797,7 @@
       <c r="O110" s="42"/>
       <c r="P110" s="42"/>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A111" s="42"/>
       <c r="B111" s="47"/>
       <c r="C111" s="47"/>
@@ -3547,7 +3815,7 @@
       <c r="O111" s="42"/>
       <c r="P111" s="42"/>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A112" s="42"/>
       <c r="B112" s="47"/>
       <c r="C112" s="47"/>
@@ -3565,7 +3833,7 @@
       <c r="O112" s="42"/>
       <c r="P112" s="42"/>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A113" s="42"/>
       <c r="B113" s="47"/>
       <c r="C113" s="47"/>
@@ -3583,7 +3851,7 @@
       <c r="O113" s="42"/>
       <c r="P113" s="42"/>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A114" s="42"/>
       <c r="B114" s="47"/>
       <c r="C114" s="47"/>
@@ -3601,7 +3869,7 @@
       <c r="O114" s="42"/>
       <c r="P114" s="42"/>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A115" s="42"/>
       <c r="B115" s="47"/>
       <c r="C115" s="47"/>
@@ -3619,7 +3887,7 @@
       <c r="O115" s="42"/>
       <c r="P115" s="42"/>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A116" s="42"/>
       <c r="B116" s="47"/>
       <c r="C116" s="47"/>
@@ -3637,7 +3905,7 @@
       <c r="O116" s="42"/>
       <c r="P116" s="42"/>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A117" s="42"/>
       <c r="B117" s="47"/>
       <c r="C117" s="47"/>
@@ -3655,7 +3923,7 @@
       <c r="O117" s="42"/>
       <c r="P117" s="42"/>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A118" s="42"/>
       <c r="B118" s="47"/>
       <c r="C118" s="47"/>
@@ -3673,7 +3941,7 @@
       <c r="O118" s="42"/>
       <c r="P118" s="42"/>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A119" s="42"/>
       <c r="B119" s="47"/>
       <c r="C119" s="47"/>
@@ -3691,7 +3959,7 @@
       <c r="O119" s="42"/>
       <c r="P119" s="42"/>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A120" s="42"/>
       <c r="B120" s="47"/>
       <c r="C120" s="47"/>
@@ -3709,7 +3977,7 @@
       <c r="O120" s="42"/>
       <c r="P120" s="42"/>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A121" s="42"/>
       <c r="B121" s="47"/>
       <c r="C121" s="47"/>
@@ -3727,7 +3995,7 @@
       <c r="O121" s="42"/>
       <c r="P121" s="42"/>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A122" s="42"/>
       <c r="B122" s="47"/>
       <c r="C122" s="47"/>
@@ -3745,7 +4013,7 @@
       <c r="O122" s="42"/>
       <c r="P122" s="42"/>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A123" s="42"/>
       <c r="B123" s="47"/>
       <c r="C123" s="47"/>
@@ -3763,7 +4031,7 @@
       <c r="O123" s="42"/>
       <c r="P123" s="42"/>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A124" s="42"/>
       <c r="B124" s="47"/>
       <c r="C124" s="47"/>
@@ -3781,7 +4049,7 @@
       <c r="O124" s="42"/>
       <c r="P124" s="42"/>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A125" s="42"/>
       <c r="B125" s="47"/>
       <c r="C125" s="47"/>
@@ -3799,7 +4067,7 @@
       <c r="O125" s="42"/>
       <c r="P125" s="42"/>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A126" s="42"/>
       <c r="B126" s="47"/>
       <c r="C126" s="47"/>
@@ -3817,7 +4085,7 @@
       <c r="O126" s="42"/>
       <c r="P126" s="42"/>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A127" s="42"/>
       <c r="B127" s="47"/>
       <c r="C127" s="47"/>
@@ -3835,7 +4103,7 @@
       <c r="O127" s="42"/>
       <c r="P127" s="42"/>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A128" s="42"/>
       <c r="B128" s="47"/>
       <c r="C128" s="47"/>
@@ -3853,7 +4121,7 @@
       <c r="O128" s="42"/>
       <c r="P128" s="42"/>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A129" s="42"/>
       <c r="B129" s="47"/>
       <c r="C129" s="47"/>
@@ -3871,7 +4139,7 @@
       <c r="O129" s="42"/>
       <c r="P129" s="42"/>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A130" s="42"/>
       <c r="B130" s="47"/>
       <c r="C130" s="47"/>
@@ -3889,7 +4157,7 @@
       <c r="O130" s="42"/>
       <c r="P130" s="42"/>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A131" s="42"/>
       <c r="B131" s="47"/>
       <c r="C131" s="47"/>
@@ -3907,7 +4175,7 @@
       <c r="O131" s="42"/>
       <c r="P131" s="42"/>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A132" s="42"/>
       <c r="B132" s="47"/>
       <c r="C132" s="47"/>
@@ -3925,7 +4193,7 @@
       <c r="O132" s="42"/>
       <c r="P132" s="42"/>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A133" s="42"/>
       <c r="B133" s="47"/>
       <c r="C133" s="47"/>
@@ -3943,7 +4211,7 @@
       <c r="O133" s="42"/>
       <c r="P133" s="42"/>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A134" s="42"/>
       <c r="B134" s="47"/>
       <c r="C134" s="47"/>
@@ -3961,7 +4229,7 @@
       <c r="O134" s="42"/>
       <c r="P134" s="42"/>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A135" s="42"/>
       <c r="B135" s="47"/>
       <c r="C135" s="47"/>
@@ -3979,7 +4247,7 @@
       <c r="O135" s="42"/>
       <c r="P135" s="42"/>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A136" s="42"/>
       <c r="B136" s="47"/>
       <c r="C136" s="47"/>
@@ -3997,7 +4265,7 @@
       <c r="O136" s="42"/>
       <c r="P136" s="42"/>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A137" s="42"/>
       <c r="B137" s="47"/>
       <c r="C137" s="47"/>
@@ -4015,7 +4283,7 @@
       <c r="O137" s="42"/>
       <c r="P137" s="42"/>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A138" s="42"/>
       <c r="B138" s="47"/>
       <c r="C138" s="47"/>
@@ -4033,7 +4301,7 @@
       <c r="O138" s="42"/>
       <c r="P138" s="42"/>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A139" s="42"/>
       <c r="B139" s="47"/>
       <c r="C139" s="47"/>
@@ -4051,7 +4319,7 @@
       <c r="O139" s="42"/>
       <c r="P139" s="42"/>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A140" s="42"/>
       <c r="B140" s="47"/>
       <c r="C140" s="47"/>
@@ -4069,7 +4337,7 @@
       <c r="O140" s="42"/>
       <c r="P140" s="42"/>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A141" s="42"/>
       <c r="B141" s="47"/>
       <c r="C141" s="47"/>
@@ -4087,7 +4355,7 @@
       <c r="O141" s="42"/>
       <c r="P141" s="42"/>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A142" s="42"/>
       <c r="B142" s="47"/>
       <c r="C142" s="47"/>
@@ -4105,7 +4373,7 @@
       <c r="O142" s="42"/>
       <c r="P142" s="42"/>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A143" s="42"/>
       <c r="B143" s="47"/>
       <c r="C143" s="47"/>
@@ -4123,7 +4391,7 @@
       <c r="O143" s="42"/>
       <c r="P143" s="42"/>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A144" s="42"/>
       <c r="B144" s="47"/>
       <c r="C144" s="47"/>
@@ -4141,7 +4409,7 @@
       <c r="O144" s="42"/>
       <c r="P144" s="42"/>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A145" s="42"/>
       <c r="B145" s="47"/>
       <c r="C145" s="47"/>
@@ -4159,7 +4427,7 @@
       <c r="O145" s="42"/>
       <c r="P145" s="42"/>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A146" s="42"/>
       <c r="B146" s="47"/>
       <c r="C146" s="47"/>
@@ -4177,7 +4445,7 @@
       <c r="O146" s="42"/>
       <c r="P146" s="42"/>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A147" s="42"/>
       <c r="B147" s="47"/>
       <c r="C147" s="47"/>
@@ -4195,7 +4463,7 @@
       <c r="O147" s="42"/>
       <c r="P147" s="42"/>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A148" s="42"/>
       <c r="B148" s="47"/>
       <c r="C148" s="47"/>
@@ -4213,7 +4481,7 @@
       <c r="O148" s="42"/>
       <c r="P148" s="42"/>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A149" s="42"/>
       <c r="B149" s="47"/>
       <c r="C149" s="47"/>
@@ -4231,7 +4499,7 @@
       <c r="O149" s="42"/>
       <c r="P149" s="42"/>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A150" s="42"/>
       <c r="B150" s="47"/>
       <c r="C150" s="47"/>
@@ -4249,7 +4517,7 @@
       <c r="O150" s="42"/>
       <c r="P150" s="42"/>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A151" s="42"/>
       <c r="B151" s="47"/>
       <c r="C151" s="47"/>
@@ -4267,7 +4535,7 @@
       <c r="O151" s="42"/>
       <c r="P151" s="42"/>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A152" s="42"/>
       <c r="B152" s="47"/>
       <c r="C152" s="47"/>
@@ -4285,7 +4553,7 @@
       <c r="O152" s="42"/>
       <c r="P152" s="42"/>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A153" s="42"/>
       <c r="B153" s="47"/>
       <c r="C153" s="47"/>
@@ -4303,7 +4571,7 @@
       <c r="O153" s="42"/>
       <c r="P153" s="42"/>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A154" s="42"/>
       <c r="B154" s="47"/>
       <c r="C154" s="47"/>
@@ -4321,7 +4589,7 @@
       <c r="O154" s="42"/>
       <c r="P154" s="42"/>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A155" s="42"/>
       <c r="B155" s="47"/>
       <c r="C155" s="47"/>
@@ -4339,7 +4607,7 @@
       <c r="O155" s="42"/>
       <c r="P155" s="42"/>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A156" s="42"/>
       <c r="B156" s="47"/>
       <c r="C156" s="47"/>
@@ -4357,7 +4625,7 @@
       <c r="O156" s="42"/>
       <c r="P156" s="42"/>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A157" s="42"/>
       <c r="B157" s="47"/>
       <c r="C157" s="47"/>
@@ -4375,7 +4643,7 @@
       <c r="O157" s="42"/>
       <c r="P157" s="42"/>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A158" s="42"/>
       <c r="B158" s="47"/>
       <c r="C158" s="47"/>
@@ -4393,7 +4661,7 @@
       <c r="O158" s="42"/>
       <c r="P158" s="42"/>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A159" s="42"/>
       <c r="B159" s="47"/>
       <c r="C159" s="47"/>
@@ -4411,7 +4679,7 @@
       <c r="O159" s="42"/>
       <c r="P159" s="42"/>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A160" s="42"/>
       <c r="B160" s="47"/>
       <c r="C160" s="47"/>
@@ -4429,7 +4697,7 @@
       <c r="O160" s="42"/>
       <c r="P160" s="42"/>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A161" s="42"/>
       <c r="B161" s="47"/>
       <c r="C161" s="47"/>
@@ -4447,7 +4715,7 @@
       <c r="O161" s="42"/>
       <c r="P161" s="42"/>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A162" s="42"/>
       <c r="B162" s="47"/>
       <c r="C162" s="47"/>
@@ -4465,7 +4733,7 @@
       <c r="O162" s="42"/>
       <c r="P162" s="42"/>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A163" s="42"/>
       <c r="B163" s="47"/>
       <c r="C163" s="47"/>
@@ -4483,7 +4751,7 @@
       <c r="O163" s="42"/>
       <c r="P163" s="42"/>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A164" s="42"/>
       <c r="B164" s="47"/>
       <c r="C164" s="47"/>
@@ -4501,7 +4769,7 @@
       <c r="O164" s="42"/>
       <c r="P164" s="42"/>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A165" s="42"/>
       <c r="B165" s="47"/>
       <c r="C165" s="47"/>
@@ -4519,7 +4787,7 @@
       <c r="O165" s="42"/>
       <c r="P165" s="42"/>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A166" s="42"/>
       <c r="B166" s="47"/>
       <c r="C166" s="47"/>
@@ -4537,7 +4805,7 @@
       <c r="O166" s="42"/>
       <c r="P166" s="42"/>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A167" s="42"/>
       <c r="B167" s="47"/>
       <c r="C167" s="47"/>
@@ -4555,7 +4823,7 @@
       <c r="O167" s="42"/>
       <c r="P167" s="42"/>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A168" s="42"/>
       <c r="B168" s="47"/>
       <c r="C168" s="47"/>
@@ -4573,7 +4841,7 @@
       <c r="O168" s="42"/>
       <c r="P168" s="42"/>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A169" s="42"/>
       <c r="B169" s="47"/>
       <c r="C169" s="47"/>
@@ -4591,7 +4859,7 @@
       <c r="O169" s="42"/>
       <c r="P169" s="42"/>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A170" s="42"/>
       <c r="B170" s="47"/>
       <c r="C170" s="47"/>
@@ -4609,7 +4877,7 @@
       <c r="O170" s="42"/>
       <c r="P170" s="42"/>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A171" s="42"/>
       <c r="B171" s="47"/>
       <c r="C171" s="47"/>
@@ -4627,7 +4895,7 @@
       <c r="O171" s="42"/>
       <c r="P171" s="42"/>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A172" s="42"/>
       <c r="B172" s="47"/>
       <c r="C172" s="47"/>
@@ -4645,7 +4913,7 @@
       <c r="O172" s="42"/>
       <c r="P172" s="42"/>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A173" s="42"/>
       <c r="B173" s="47"/>
       <c r="C173" s="47"/>
@@ -4663,7 +4931,7 @@
       <c r="O173" s="42"/>
       <c r="P173" s="42"/>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A174" s="42"/>
       <c r="B174" s="47"/>
       <c r="C174" s="47"/>
@@ -4681,7 +4949,7 @@
       <c r="O174" s="42"/>
       <c r="P174" s="42"/>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A175" s="42"/>
       <c r="B175" s="47"/>
       <c r="C175" s="47"/>
@@ -4699,7 +4967,7 @@
       <c r="O175" s="42"/>
       <c r="P175" s="42"/>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A176" s="42"/>
       <c r="B176" s="47"/>
       <c r="C176" s="47"/>
@@ -4717,7 +4985,7 @@
       <c r="O176" s="42"/>
       <c r="P176" s="42"/>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A177" s="42"/>
       <c r="B177" s="47"/>
       <c r="C177" s="47"/>
@@ -4735,7 +5003,7 @@
       <c r="O177" s="42"/>
       <c r="P177" s="42"/>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A178" s="42"/>
       <c r="B178" s="47"/>
       <c r="C178" s="47"/>
@@ -4753,7 +5021,7 @@
       <c r="O178" s="42"/>
       <c r="P178" s="42"/>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A179" s="42"/>
       <c r="B179" s="47"/>
       <c r="C179" s="47"/>
@@ -4771,7 +5039,7 @@
       <c r="O179" s="42"/>
       <c r="P179" s="42"/>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A180" s="42"/>
       <c r="B180" s="47"/>
       <c r="C180" s="47"/>
@@ -4789,7 +5057,7 @@
       <c r="O180" s="42"/>
       <c r="P180" s="42"/>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A181" s="42"/>
       <c r="B181" s="47"/>
       <c r="C181" s="47"/>
@@ -4807,7 +5075,7 @@
       <c r="O181" s="42"/>
       <c r="P181" s="42"/>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A182" s="42"/>
       <c r="B182" s="47"/>
       <c r="C182" s="47"/>
@@ -4825,7 +5093,7 @@
       <c r="O182" s="42"/>
       <c r="P182" s="42"/>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A183" s="42"/>
       <c r="B183" s="47"/>
       <c r="C183" s="47"/>
@@ -4843,7 +5111,7 @@
       <c r="O183" s="42"/>
       <c r="P183" s="42"/>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A184" s="42"/>
       <c r="B184" s="47"/>
       <c r="C184" s="47"/>
@@ -4861,7 +5129,7 @@
       <c r="O184" s="42"/>
       <c r="P184" s="42"/>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A185" s="42"/>
       <c r="B185" s="47"/>
       <c r="C185" s="47"/>
@@ -4879,7 +5147,7 @@
       <c r="O185" s="42"/>
       <c r="P185" s="42"/>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A186" s="42"/>
       <c r="B186" s="47"/>
       <c r="C186" s="47"/>
@@ -4897,7 +5165,7 @@
       <c r="O186" s="42"/>
       <c r="P186" s="42"/>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A187" s="42"/>
       <c r="B187" s="47"/>
       <c r="C187" s="47"/>
@@ -4915,7 +5183,7 @@
       <c r="O187" s="42"/>
       <c r="P187" s="42"/>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A188" s="42"/>
       <c r="B188" s="47"/>
       <c r="C188" s="47"/>
@@ -4933,7 +5201,7 @@
       <c r="O188" s="42"/>
       <c r="P188" s="42"/>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A189" s="42"/>
       <c r="B189" s="47"/>
       <c r="C189" s="47"/>
@@ -4951,7 +5219,7 @@
       <c r="O189" s="42"/>
       <c r="P189" s="42"/>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A190" s="42"/>
       <c r="B190" s="47"/>
       <c r="C190" s="47"/>
@@ -4969,7 +5237,7 @@
       <c r="O190" s="42"/>
       <c r="P190" s="42"/>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A191" s="42"/>
       <c r="B191" s="47"/>
       <c r="C191" s="47"/>
@@ -4987,7 +5255,7 @@
       <c r="O191" s="42"/>
       <c r="P191" s="42"/>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A192" s="42"/>
       <c r="B192" s="47"/>
       <c r="C192" s="47"/>
@@ -5005,7 +5273,7 @@
       <c r="O192" s="42"/>
       <c r="P192" s="42"/>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A193" s="42"/>
       <c r="B193" s="47"/>
       <c r="C193" s="47"/>
@@ -5023,7 +5291,7 @@
       <c r="O193" s="42"/>
       <c r="P193" s="42"/>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A194" s="42"/>
       <c r="B194" s="47"/>
       <c r="C194" s="47"/>
@@ -5041,7 +5309,7 @@
       <c r="O194" s="42"/>
       <c r="P194" s="42"/>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A195" s="42"/>
       <c r="B195" s="47"/>
       <c r="C195" s="47"/>
@@ -5059,7 +5327,7 @@
       <c r="O195" s="42"/>
       <c r="P195" s="42"/>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A196" s="42"/>
       <c r="B196" s="47"/>
       <c r="C196" s="47"/>
@@ -5077,7 +5345,7 @@
       <c r="O196" s="42"/>
       <c r="P196" s="42"/>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A197" s="42"/>
       <c r="B197" s="47"/>
       <c r="C197" s="47"/>
@@ -5095,7 +5363,7 @@
       <c r="O197" s="42"/>
       <c r="P197" s="42"/>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A198" s="42"/>
       <c r="B198" s="47"/>
       <c r="C198" s="47"/>
@@ -5113,7 +5381,7 @@
       <c r="O198" s="42"/>
       <c r="P198" s="42"/>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A199" s="42"/>
       <c r="B199" s="47"/>
       <c r="C199" s="47"/>
@@ -5131,7 +5399,7 @@
       <c r="O199" s="42"/>
       <c r="P199" s="42"/>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A200" s="42"/>
       <c r="B200" s="47"/>
       <c r="C200" s="47"/>
@@ -5149,7 +5417,7 @@
       <c r="O200" s="42"/>
       <c r="P200" s="42"/>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A201" s="42"/>
       <c r="B201" s="47"/>
       <c r="C201" s="47"/>
@@ -5167,7 +5435,7 @@
       <c r="O201" s="42"/>
       <c r="P201" s="42"/>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A202" s="42"/>
       <c r="B202" s="47"/>
       <c r="C202" s="47"/>
@@ -5185,7 +5453,7 @@
       <c r="O202" s="42"/>
       <c r="P202" s="42"/>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A203" s="42"/>
       <c r="B203" s="47"/>
       <c r="C203" s="47"/>
@@ -5203,7 +5471,7 @@
       <c r="O203" s="42"/>
       <c r="P203" s="42"/>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A204" s="42"/>
       <c r="B204" s="47"/>
       <c r="C204" s="47"/>
@@ -5221,7 +5489,7 @@
       <c r="O204" s="42"/>
       <c r="P204" s="42"/>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A205" s="42"/>
       <c r="B205" s="47"/>
       <c r="C205" s="47"/>
@@ -5239,7 +5507,7 @@
       <c r="O205" s="42"/>
       <c r="P205" s="42"/>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A206" s="42"/>
       <c r="B206" s="47"/>
       <c r="C206" s="47"/>
@@ -5257,7 +5525,7 @@
       <c r="O206" s="42"/>
       <c r="P206" s="42"/>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A207" s="42"/>
       <c r="B207" s="47"/>
       <c r="C207" s="47"/>
@@ -5275,7 +5543,7 @@
       <c r="O207" s="42"/>
       <c r="P207" s="42"/>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A208" s="42"/>
       <c r="B208" s="47"/>
       <c r="C208" s="47"/>
@@ -5293,7 +5561,7 @@
       <c r="O208" s="42"/>
       <c r="P208" s="42"/>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A209" s="42"/>
       <c r="B209" s="47"/>
       <c r="C209" s="47"/>
@@ -5311,7 +5579,7 @@
       <c r="O209" s="42"/>
       <c r="P209" s="42"/>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A210" s="42"/>
       <c r="B210" s="47"/>
       <c r="C210" s="47"/>
@@ -5329,7 +5597,7 @@
       <c r="O210" s="42"/>
       <c r="P210" s="42"/>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A211" s="42"/>
       <c r="B211" s="47"/>
       <c r="C211" s="47"/>
@@ -5347,7 +5615,7 @@
       <c r="O211" s="42"/>
       <c r="P211" s="42"/>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A212" s="42"/>
       <c r="B212" s="47"/>
       <c r="C212" s="47"/>
@@ -5365,7 +5633,7 @@
       <c r="O212" s="42"/>
       <c r="P212" s="42"/>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A213" s="42"/>
       <c r="B213" s="47"/>
       <c r="C213" s="47"/>
@@ -5383,7 +5651,7 @@
       <c r="O213" s="42"/>
       <c r="P213" s="42"/>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A214" s="42"/>
       <c r="B214" s="47"/>
       <c r="C214" s="47"/>
@@ -5401,7 +5669,7 @@
       <c r="O214" s="42"/>
       <c r="P214" s="42"/>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A215" s="42"/>
       <c r="B215" s="47"/>
       <c r="C215" s="47"/>
@@ -5419,12 +5687,52 @@
       <c r="O215" s="42"/>
       <c r="P215" s="42"/>
     </row>
+    <row r="216" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A216" s="42"/>
+      <c r="B216" s="47"/>
+      <c r="C216" s="47"/>
+      <c r="D216" s="47"/>
+      <c r="E216" s="42"/>
+      <c r="F216" s="42"/>
+      <c r="G216" s="42"/>
+      <c r="H216" s="42"/>
+      <c r="I216" s="42"/>
+      <c r="J216" s="42"/>
+      <c r="K216" s="42"/>
+      <c r="L216" s="42"/>
+      <c r="M216" s="42"/>
+      <c r="N216" s="42"/>
+      <c r="O216" s="42"/>
+      <c r="P216" s="42"/>
+    </row>
+    <row r="217" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A217" s="42"/>
+      <c r="B217" s="47"/>
+      <c r="C217" s="47"/>
+      <c r="D217" s="47"/>
+      <c r="E217" s="42"/>
+      <c r="F217" s="42"/>
+      <c r="G217" s="42"/>
+      <c r="H217" s="42"/>
+      <c r="I217" s="42"/>
+      <c r="J217" s="42"/>
+      <c r="K217" s="42"/>
+      <c r="L217" s="42"/>
+      <c r="M217" s="42"/>
+      <c r="N217" s="42"/>
+      <c r="O217" s="42"/>
+      <c r="P217" s="42"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="12">
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="C14:C16"/>
@@ -5441,26 +5749,26 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.69921875" customWidth="1"/>
-    <col min="2" max="2" width="16.19921875" style="33" customWidth="1"/>
-    <col min="3" max="3" width="16.296875" customWidth="1"/>
-    <col min="4" max="4" width="40.69921875" customWidth="1"/>
+    <col min="1" max="1" width="5.75" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="33" customWidth="1"/>
+    <col min="3" max="3" width="35.75" customWidth="1"/>
+    <col min="4" max="4" width="40.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="22.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-    </row>
-    <row r="2" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+    </row>
+    <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -5474,7 +5782,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -5488,7 +5796,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -5502,7 +5810,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -5516,101 +5824,109 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>169</v>
-      </c>
       <c r="D6" s="20" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>178</v>
-      </c>
       <c r="D7" s="20" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-    </row>
-    <row r="9" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="19"/>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
     </row>
-    <row r="10" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="19"/>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
     </row>
-    <row r="11" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="19"/>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
     </row>
-    <row r="12" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="19"/>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
     </row>
-    <row r="13" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="19"/>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
     </row>
-    <row r="14" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="19"/>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
     </row>
-    <row r="15" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="19"/>
       <c r="C15" s="20"/>
       <c r="D15" s="20"/>
     </row>
-    <row r="16" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="19"/>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
     </row>
-    <row r="17" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="19"/>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
     </row>
-    <row r="18" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="19"/>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
     </row>
-    <row r="19" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A19" s="21"/>
       <c r="B19" s="22"/>
       <c r="C19" s="23"/>
@@ -5627,32 +5943,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:A41"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.69921875" style="31" customWidth="1"/>
+    <col min="1" max="1" width="5.75" style="31" customWidth="1"/>
     <col min="2" max="2" width="37" style="60" customWidth="1"/>
-    <col min="3" max="3" width="81.09765625" style="51" customWidth="1"/>
-    <col min="4" max="4" width="42.19921875" style="55" customWidth="1"/>
-    <col min="5" max="5" width="22.19921875" style="32" customWidth="1"/>
-    <col min="6" max="16384" width="8.796875" style="2"/>
+    <col min="3" max="3" width="81.125" style="51" customWidth="1"/>
+    <col min="4" max="4" width="42.25" style="55" customWidth="1"/>
+    <col min="5" max="5" width="22.25" style="32" customWidth="1"/>
+    <col min="6" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="31" t="s">
         <v>12</v>
       </c>
@@ -5669,7 +5985,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="31">
         <v>1</v>
       </c>
@@ -5686,7 +6002,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="31">
         <v>1</v>
       </c>
@@ -5703,7 +6019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="31">
         <v>2</v>
       </c>
@@ -5720,7 +6036,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="31">
         <v>3</v>
       </c>
@@ -5737,7 +6053,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="31">
         <v>4</v>
       </c>
@@ -5754,7 +6070,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="31">
         <v>5</v>
       </c>
@@ -5771,7 +6087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="31">
         <v>6</v>
       </c>
@@ -5788,7 +6104,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="31">
         <v>7</v>
       </c>
@@ -5805,7 +6121,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="31">
         <v>8</v>
       </c>
@@ -5822,7 +6138,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="31">
         <v>9</v>
       </c>
@@ -5839,7 +6155,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="31">
         <v>10</v>
       </c>
@@ -5856,7 +6172,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="31">
         <v>11</v>
       </c>
@@ -5873,7 +6189,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="31">
         <v>12</v>
       </c>
@@ -5890,7 +6206,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="31">
         <v>13</v>
       </c>
@@ -5907,7 +6223,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="31">
         <v>14</v>
       </c>
@@ -5924,7 +6240,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="31">
         <v>15</v>
       </c>
@@ -5941,7 +6257,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="31">
         <v>16</v>
       </c>
@@ -5958,7 +6274,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="31">
         <v>17</v>
       </c>
@@ -5975,7 +6291,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="31">
         <v>18</v>
       </c>
@@ -5992,7 +6308,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="31">
         <v>19</v>
       </c>
@@ -6009,327 +6325,616 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="31">
         <v>20</v>
       </c>
       <c r="B23" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" s="56" t="s">
+        <v>155</v>
+      </c>
+      <c r="E23" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="C23" s="51" t="s">
-        <v>133</v>
-      </c>
-      <c r="D23" s="56" t="s">
-        <v>156</v>
-      </c>
-      <c r="E23" s="32" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="31">
         <v>21</v>
       </c>
       <c r="B24" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="C24" s="51" t="s">
-        <v>132</v>
-      </c>
       <c r="D24" s="56" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="31">
         <v>22</v>
       </c>
       <c r="B25" s="61" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="C25" s="51" t="s">
-        <v>135</v>
-      </c>
       <c r="D25" s="56" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="31">
         <v>23</v>
       </c>
       <c r="B26" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="C26" s="51" t="s">
+      <c r="D26" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="D26" s="56" t="s">
-        <v>138</v>
-      </c>
       <c r="E26" s="32" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="31">
         <v>24</v>
       </c>
       <c r="B27" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="D27" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="C27" s="51" t="s">
-        <v>141</v>
-      </c>
-      <c r="D27" s="55" t="s">
-        <v>140</v>
-      </c>
       <c r="E27" s="32" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="31">
         <v>25</v>
       </c>
       <c r="B28" s="60" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C28" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="D28" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="D28" s="55" t="s">
-        <v>143</v>
-      </c>
       <c r="E28" s="32" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="31">
         <v>26</v>
       </c>
       <c r="B29" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="C29" s="51" t="s">
+      <c r="D29" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="D29" s="55" t="s">
-        <v>147</v>
-      </c>
       <c r="E29" s="32" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="31">
         <v>27</v>
       </c>
       <c r="B30" s="60" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C30" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D30" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="D30" s="55" t="s">
-        <v>149</v>
-      </c>
       <c r="E30" s="32" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="31">
         <v>28</v>
       </c>
       <c r="B31" s="60" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="D31" s="55" t="s">
         <v>152</v>
       </c>
-      <c r="C31" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="D31" s="55" t="s">
-        <v>153</v>
-      </c>
       <c r="E31" s="32" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="31">
         <v>29</v>
       </c>
       <c r="B32" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="C32" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="D32" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="C32" s="51" t="s">
-        <v>160</v>
-      </c>
-      <c r="D32" s="55" t="s">
+      <c r="E32" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="E32" s="32" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="31">
         <v>30</v>
       </c>
       <c r="B33" s="60" t="s">
+        <v>181</v>
+      </c>
+      <c r="C33" s="51" t="s">
         <v>182</v>
       </c>
-      <c r="C33" s="51" t="s">
+      <c r="D33" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="D33" s="55" t="s">
-        <v>184</v>
-      </c>
       <c r="E33" s="32" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="31">
         <v>31</v>
       </c>
       <c r="B34" s="60" t="s">
+        <v>184</v>
+      </c>
+      <c r="C34" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="C34" s="51" t="s">
+      <c r="D34" s="55" t="s">
         <v>186</v>
       </c>
-      <c r="D34" s="55" t="s">
-        <v>187</v>
-      </c>
       <c r="E34" s="32" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="31">
         <v>32</v>
       </c>
       <c r="B35" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="C35" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="C35" s="51" t="s">
+      <c r="D35" s="55" t="s">
         <v>189</v>
       </c>
-      <c r="D35" s="55" t="s">
-        <v>190</v>
-      </c>
       <c r="E35" s="32" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="31">
         <v>33</v>
       </c>
       <c r="B36" s="60" t="s">
+        <v>190</v>
+      </c>
+      <c r="C36" s="51" t="s">
         <v>191</v>
       </c>
-      <c r="C36" s="51" t="s">
+      <c r="D36" s="55" t="s">
         <v>192</v>
       </c>
-      <c r="D36" s="55" t="s">
-        <v>193</v>
-      </c>
       <c r="E36" s="32" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="31">
         <v>34</v>
       </c>
       <c r="B37" s="60" t="s">
+        <v>193</v>
+      </c>
+      <c r="C37" s="51" t="s">
         <v>194</v>
       </c>
-      <c r="C37" s="51" t="s">
+      <c r="D37" s="55" t="s">
         <v>195</v>
       </c>
-      <c r="D37" s="55" t="s">
-        <v>196</v>
-      </c>
       <c r="E37" s="32" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="31">
         <v>35</v>
       </c>
       <c r="B38" s="60" t="s">
+        <v>196</v>
+      </c>
+      <c r="C38" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="C38" s="51" t="s">
+      <c r="D38" s="55" t="s">
         <v>198</v>
       </c>
-      <c r="D38" s="55" t="s">
-        <v>199</v>
-      </c>
       <c r="E38" s="32" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="31">
         <v>36</v>
       </c>
       <c r="B39" s="60" t="s">
+        <v>199</v>
+      </c>
+      <c r="C39" s="51" t="s">
         <v>200</v>
       </c>
-      <c r="C39" s="51" t="s">
+      <c r="D39" s="55" t="s">
         <v>201</v>
       </c>
-      <c r="D39" s="55" t="s">
-        <v>202</v>
-      </c>
       <c r="E39" s="32" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="31">
         <v>37</v>
       </c>
       <c r="B40" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="C40" s="51" t="s">
         <v>203</v>
       </c>
-      <c r="C40" s="51" t="s">
+      <c r="D40" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="D40" s="55" t="s">
-        <v>205</v>
-      </c>
       <c r="E40" s="32" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="31">
         <v>38</v>
       </c>
       <c r="B41" s="60" t="s">
+        <v>205</v>
+      </c>
+      <c r="C41" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="C41" s="51" t="s">
+      <c r="D41" s="55" t="s">
         <v>207</v>
       </c>
-      <c r="D41" s="55" t="s">
-        <v>208</v>
-      </c>
       <c r="E41" s="32" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" s="31">
+        <v>39</v>
+      </c>
+      <c r="B42" s="60" t="s">
+        <v>217</v>
+      </c>
+      <c r="C42" s="51" t="s">
+        <v>218</v>
+      </c>
+      <c r="D42" s="55" t="s">
+        <v>219</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" s="31">
+        <v>40</v>
+      </c>
+      <c r="B43" s="60" t="s">
+        <v>222</v>
+      </c>
+      <c r="C43" s="51" t="s">
+        <v>220</v>
+      </c>
+      <c r="D43" s="55" t="s">
+        <v>221</v>
+      </c>
+      <c r="E43" s="32" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" s="31">
+        <v>41</v>
+      </c>
+      <c r="B44" s="60" t="s">
+        <v>224</v>
+      </c>
+      <c r="C44" s="51" t="s">
+        <v>225</v>
+      </c>
+      <c r="D44" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="E44" s="32" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" s="31">
+        <v>42</v>
+      </c>
+      <c r="B45" s="60" t="s">
+        <v>227</v>
+      </c>
+      <c r="C45" s="51" t="s">
+        <v>228</v>
+      </c>
+      <c r="D45" s="55" t="s">
+        <v>226</v>
+      </c>
+      <c r="E45" s="32" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" s="31">
+        <v>43</v>
+      </c>
+      <c r="B46" s="60" t="s">
+        <v>231</v>
+      </c>
+      <c r="C46" s="51" t="s">
+        <v>230</v>
+      </c>
+      <c r="D46" s="55" t="s">
+        <v>229</v>
+      </c>
+      <c r="E46" s="32" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" s="31">
+        <v>44</v>
+      </c>
+      <c r="B47" s="60" t="s">
+        <v>234</v>
+      </c>
+      <c r="C47" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="D47" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="E47" s="32" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" s="31">
+        <v>45</v>
+      </c>
+      <c r="B48" s="60" t="s">
+        <v>237</v>
+      </c>
+      <c r="C48" s="51" t="s">
+        <v>236</v>
+      </c>
+      <c r="D48" s="55" t="s">
+        <v>235</v>
+      </c>
+      <c r="E48" s="32" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" s="31">
+        <v>46</v>
+      </c>
+      <c r="B49" s="60" t="s">
+        <v>240</v>
+      </c>
+      <c r="C49" s="51" t="s">
+        <v>239</v>
+      </c>
+      <c r="D49" s="55" t="s">
+        <v>238</v>
+      </c>
+      <c r="E49" s="32" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50" s="31">
+        <v>47</v>
+      </c>
+      <c r="B50" s="60" t="s">
+        <v>243</v>
+      </c>
+      <c r="C50" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="D50" s="55" t="s">
+        <v>241</v>
+      </c>
+      <c r="E50" s="32" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51" s="31">
+        <v>48</v>
+      </c>
+      <c r="B51" s="60" t="s">
+        <v>246</v>
+      </c>
+      <c r="C51" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="D51" s="55" t="s">
+        <v>244</v>
+      </c>
+      <c r="E51" s="32" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" s="31">
+        <v>49</v>
+      </c>
+      <c r="B52" s="60" t="s">
+        <v>249</v>
+      </c>
+      <c r="C52" s="51" t="s">
+        <v>248</v>
+      </c>
+      <c r="D52" s="55" t="s">
+        <v>247</v>
+      </c>
+      <c r="E52" s="32" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" s="31">
+        <v>50</v>
+      </c>
+      <c r="B53" s="60" t="s">
+        <v>252</v>
+      </c>
+      <c r="C53" s="51" t="s">
+        <v>251</v>
+      </c>
+      <c r="D53" s="55" t="s">
+        <v>250</v>
+      </c>
+      <c r="E53" s="32" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54" s="31">
+        <v>51</v>
+      </c>
+      <c r="B54" s="60" t="s">
+        <v>255</v>
+      </c>
+      <c r="C54" s="51" t="s">
+        <v>254</v>
+      </c>
+      <c r="D54" s="55" t="s">
+        <v>253</v>
+      </c>
+      <c r="E54" s="32" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55" s="31">
+        <v>52</v>
+      </c>
+      <c r="B55" s="60" t="s">
+        <v>257</v>
+      </c>
+      <c r="C55" s="51" t="s">
+        <v>256</v>
+      </c>
+      <c r="D55" s="55" t="s">
+        <v>258</v>
+      </c>
+      <c r="E55" s="32" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56" s="31">
+        <v>53</v>
+      </c>
+      <c r="B56" s="60" t="s">
+        <v>261</v>
+      </c>
+      <c r="C56" s="51" t="s">
+        <v>260</v>
+      </c>
+      <c r="D56" s="55" t="s">
+        <v>259</v>
+      </c>
+      <c r="E56" s="32" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57" s="31">
+        <v>54</v>
+      </c>
+      <c r="B57" s="60" t="s">
+        <v>264</v>
+      </c>
+      <c r="C57" s="51" t="s">
+        <v>263</v>
+      </c>
+      <c r="D57" s="55" t="s">
+        <v>262</v>
+      </c>
+      <c r="E57" s="32" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58" s="31">
+        <v>55</v>
+      </c>
+      <c r="B58" s="60" t="s">
+        <v>267</v>
+      </c>
+      <c r="C58" s="51" t="s">
+        <v>266</v>
+      </c>
+      <c r="D58" s="55" t="s">
+        <v>265</v>
+      </c>
+      <c r="E58" s="32" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -6338,7 +6943,7 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6346,29 +6951,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.69921875" customWidth="1"/>
-    <col min="2" max="2" width="31.69921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="68.296875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="61.796875" customWidth="1"/>
-    <col min="5" max="5" width="38.796875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.75" customWidth="1"/>
+    <col min="2" max="2" width="31.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="68.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="61.75" customWidth="1"/>
+    <col min="5" max="5" width="38.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -6385,7 +6990,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -6400,7 +7005,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="31">
         <v>1</v>
       </c>
@@ -6417,7 +7022,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="31">
         <v>2</v>
       </c>
@@ -6434,7 +7039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="52.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="51.75" x14ac:dyDescent="0.15">
       <c r="A6" s="31">
         <v>3</v>
       </c>
@@ -6451,58 +7056,58 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="31">
         <v>4</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="58.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="31">
         <v>5</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="31">
         <v>6</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C9" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>166</v>
-      </c>
       <c r="E9" s="32" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="31">
         <v>8</v>
       </c>
@@ -6519,7 +7124,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="31">
         <v>9</v>
       </c>
@@ -6536,7 +7141,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="31">
         <v>10</v>
       </c>
@@ -6544,16 +7149,16 @@
         <v>126</v>
       </c>
       <c r="C12" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="D12" s="17" t="s">
         <v>127</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>128</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="31">
         <v>11</v>
       </c>
@@ -6570,7 +7175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="31">
         <v>12</v>
       </c>
@@ -6587,64 +7192,82 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="31">
         <v>13</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>112</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>14</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>112</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="14"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="14"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="21"/>
       <c r="B19" s="22"/>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
       <c r="E19" s="24"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="25"/>
       <c r="B20" s="26"/>
       <c r="C20" s="27"/>
